--- a/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
+++ b/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="857">
   <si>
     <t>Test date:</t>
   </si>
@@ -5419,6 +5419,9 @@
     <t>Dialog box: title – we7; text – Please enter a username; button – OK_x000D_
 Sign in button greyed out for iPhone</t>
   </si>
+  <si>
+    <t>testing git</t>
+  </si>
 </sst>
 </file>
 
@@ -5680,7 +5683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5955,6 +5958,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5982,13 +5988,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6355,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6381,22 +6387,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -6447,11 +6453,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -6494,20 +6500,20 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="49" customFormat="1" ht="12.75">
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="49" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="93" t="s">
         <v>696</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:19" s="49" customFormat="1" ht="51">
@@ -6522,6 +6528,9 @@
       </c>
       <c r="E9" s="49" t="s">
         <v>699</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="49" customFormat="1" ht="12.75">
@@ -6562,10 +6571,10 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="93"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="30">
       <c r="B16" s="2" t="s">
@@ -6889,10 +6898,10 @@
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="92"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7289,9 +7298,9 @@
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="93"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7342,22 +7351,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -7408,11 +7417,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -7455,17 +7464,17 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
@@ -7483,10 +7492,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -7918,10 +7927,10 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:18" s="2" customFormat="1" ht="93" customHeight="1">
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="93" t="s">
         <v>737</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="93"/>
       <c r="D49" s="2" t="s">
         <v>175</v>
       </c>
@@ -8057,10 +8066,10 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="2:18" s="2" customFormat="1">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="92"/>
+      <c r="C56" s="93"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -8343,22 +8352,22 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8396,22 +8405,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -8462,11 +8471,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -8509,21 +8518,21 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="93"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -8681,10 +8690,10 @@
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:10" s="2" customFormat="1">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -9185,10 +9194,10 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="2:18" s="2" customFormat="1" ht="89.25">
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="C63" s="92"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="2" t="s">
         <v>115</v>
       </c>
@@ -9429,10 +9438,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="51" customHeight="1">
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="92"/>
+      <c r="C75" s="93"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -9519,10 +9528,10 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="41.25" customHeight="1">
-      <c r="B83" s="92" t="s">
+      <c r="B83" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="C83" s="92"/>
+      <c r="C83" s="93"/>
     </row>
     <row r="84" spans="1:18" s="8" customFormat="1" ht="25.5">
       <c r="B84" s="8" t="s">
@@ -9549,9 +9558,9 @@
       <c r="R84" s="1"/>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="93"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
+      <c r="A86" s="94"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="94"/>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
@@ -9565,17 +9574,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9613,22 +9622,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -9679,11 +9688,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -9725,18 +9734,18 @@
       <c r="R4" s="4"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="68" customFormat="1" ht="12.75">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="93" t="s">
         <v>785</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="93"/>
     </row>
     <row r="9" spans="1:19" s="68" customFormat="1" ht="12.75">
       <c r="B9" s="68" t="s">
@@ -9774,10 +9783,10 @@
     </row>
     <row r="12" spans="1:19" s="68" customFormat="1" ht="12.75"/>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="93" t="s">
         <v>786</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="93"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
@@ -9902,10 +9911,10 @@
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="93" t="s">
         <v>787</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -10018,10 +10027,10 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="93" t="s">
         <v>788</v>
       </c>
-      <c r="C35" s="92"/>
+      <c r="C35" s="93"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -10170,10 +10179,10 @@
       <c r="J46" s="10"/>
     </row>
     <row r="47" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="93" t="s">
         <v>789</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="93"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -10346,10 +10355,10 @@
       <c r="R58" s="10"/>
     </row>
     <row r="59" spans="2:18" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="93" t="s">
         <v>790</v>
       </c>
-      <c r="C59" s="92"/>
+      <c r="C59" s="93"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -10554,10 +10563,10 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="93" t="s">
         <v>791</v>
       </c>
-      <c r="C69" s="92"/>
+      <c r="C69" s="93"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -10681,10 +10690,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="C75" s="92"/>
+      <c r="C75" s="93"/>
       <c r="E75" s="1"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -10740,10 +10749,10 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="2:18" s="68" customFormat="1" ht="12.75">
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="93" t="s">
         <v>793</v>
       </c>
-      <c r="C78" s="92"/>
+      <c r="C78" s="93"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="I78" s="1"/>
@@ -10912,9 +10921,9 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="93"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="94"/>
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
@@ -10928,6 +10937,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B69:C69"/>
@@ -10938,11 +10952,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10981,22 +10990,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -11047,11 +11056,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -11094,18 +11103,18 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="98" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="98"/>
       <c r="E8" s="1"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -11260,10 +11269,10 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="98" t="s">
         <v>379</v>
       </c>
-      <c r="C22" s="97"/>
+      <c r="C22" s="98"/>
       <c r="E22" s="18"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -11631,10 +11640,10 @@
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="C52" s="97"/>
+      <c r="C52" s="98"/>
       <c r="E52" s="8"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -12077,10 +12086,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B75" s="97" t="s">
+      <c r="B75" s="98" t="s">
         <v>426</v>
       </c>
-      <c r="C75" s="97"/>
+      <c r="C75" s="98"/>
       <c r="E75" s="17"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -12665,10 +12674,10 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B107" s="97" t="s">
+      <c r="B107" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="C107" s="97"/>
+      <c r="C107" s="98"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="I107" s="1"/>
@@ -12994,10 +13003,10 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="2:18" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B123" s="97" t="s">
+      <c r="B123" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="C123" s="97"/>
+      <c r="C123" s="98"/>
       <c r="E123" s="18"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
@@ -13402,10 +13411,10 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B143" s="97" t="s">
+      <c r="B143" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="C143" s="97"/>
+      <c r="C143" s="98"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="I143" s="1"/>
@@ -13731,10 +13740,10 @@
       <c r="R158" s="1"/>
     </row>
     <row r="159" spans="2:18" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B159" s="97" t="s">
+      <c r="B159" s="98" t="s">
         <v>854</v>
       </c>
-      <c r="C159" s="97"/>
+      <c r="C159" s="98"/>
       <c r="E159" s="18"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
@@ -13946,9 +13955,9 @@
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A170" s="93"/>
-      <c r="B170" s="93"/>
-      <c r="C170" s="93"/>
+      <c r="A170" s="94"/>
+      <c r="B170" s="94"/>
+      <c r="C170" s="94"/>
       <c r="I170" s="23"/>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
@@ -13962,6 +13971,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B159:C159"/>
@@ -13971,11 +13985,6 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14013,22 +14022,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -14079,11 +14088,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -14126,18 +14135,18 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>480</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -14366,10 +14375,10 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="100" t="s">
         <v>509</v>
       </c>
-      <c r="C27" s="99"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="60"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -15816,10 +15825,10 @@
     </row>
     <row r="56" spans="1:1025" ht="15" customHeight="1">
       <c r="A56"/>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="C56" s="97"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="9"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -34261,10 +34270,10 @@
     </row>
     <row r="74" spans="1:1025" ht="15" customHeight="1">
       <c r="A74"/>
-      <c r="B74" s="97" t="s">
+      <c r="B74" s="98" t="s">
         <v>545</v>
       </c>
-      <c r="C74" s="97"/>
+      <c r="C74" s="98"/>
       <c r="E74" s="9"/>
       <c r="S74"/>
       <c r="T74"/>
@@ -49542,10 +49551,10 @@
     </row>
     <row r="89" spans="1:1025" ht="37.5" customHeight="1">
       <c r="A89"/>
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="99" t="s">
         <v>557</v>
       </c>
-      <c r="C89" s="98"/>
+      <c r="C89" s="99"/>
       <c r="S89"/>
       <c r="T89"/>
       <c r="U89"/>
@@ -65986,10 +65995,10 @@
     </row>
     <row r="105" spans="1:1025" ht="28.5" customHeight="1">
       <c r="A105"/>
-      <c r="B105" s="98" t="s">
+      <c r="B105" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="C105" s="98"/>
+      <c r="C105" s="99"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105"/>
@@ -81320,10 +81329,10 @@
       <c r="AMK119"/>
     </row>
     <row r="120" spans="1:1025" s="2" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B120" s="97" t="s">
+      <c r="B120" s="98" t="s">
         <v>561</v>
       </c>
-      <c r="C120" s="97"/>
+      <c r="C120" s="98"/>
       <c r="D120" s="59"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -82741,9 +82750,9 @@
       <c r="AMK140"/>
     </row>
     <row r="141" spans="1:1025" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A141" s="93"/>
-      <c r="B141" s="93"/>
-      <c r="C141" s="93"/>
+      <c r="A141" s="94"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="94"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
@@ -82757,6 +82766,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -82765,11 +82779,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -82807,22 +82816,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -82873,11 +82882,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -82920,13 +82929,13 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>768</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75">
       <c r="A7" s="53"/>
@@ -82937,10 +82946,10 @@
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="53"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="10"/>
@@ -83199,10 +83208,10 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="53"/>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="100" t="s">
         <v>509</v>
       </c>
-      <c r="C27" s="99"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="54"/>
       <c r="E27" s="53"/>
       <c r="F27" s="10"/>
@@ -83670,10 +83679,10 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="2:18" ht="15" customHeight="1">
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="C56" s="99"/>
+      <c r="C56" s="100"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -83976,10 +83985,10 @@
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="2:18" ht="15" customHeight="1">
-      <c r="B74" s="99" t="s">
+      <c r="B74" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="C74" s="99"/>
+      <c r="C74" s="100"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
@@ -84135,10 +84144,10 @@
       </c>
     </row>
     <row r="89" spans="2:18" ht="37.5" customHeight="1">
-      <c r="B89" s="100" t="s">
+      <c r="B89" s="101" t="s">
         <v>713</v>
       </c>
-      <c r="C89" s="100"/>
+      <c r="C89" s="101"/>
     </row>
     <row r="90" spans="2:18">
       <c r="B90" s="8" t="s">
@@ -84322,10 +84331,10 @@
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B105" s="100" t="s">
+      <c r="B105" s="101" t="s">
         <v>714</v>
       </c>
-      <c r="C105" s="100"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
     </row>
@@ -84481,10 +84490,10 @@
       </c>
     </row>
     <row r="120" spans="2:18" s="2" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B120" s="99" t="s">
+      <c r="B120" s="100" t="s">
         <v>561</v>
       </c>
-      <c r="C120" s="99"/>
+      <c r="C120" s="100"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -84894,9 +84903,9 @@
       <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A141" s="93"/>
-      <c r="B141" s="93"/>
-      <c r="C141" s="93"/>
+      <c r="A141" s="94"/>
+      <c r="B141" s="94"/>
+      <c r="C141" s="94"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
@@ -84910,6 +84919,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -84918,11 +84932,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -84960,15 +84969,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="103" t="s">
         <v>592</v>
       </c>
-      <c r="E1" s="101"/>
+      <c r="E1" s="103"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -84993,11 +85002,11 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -85048,11 +85057,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -85106,11 +85115,11 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="104" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -85135,10 +85144,10 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="99"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -85284,10 +85293,10 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="99" t="s">
         <v>599</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="99"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -85468,10 +85477,10 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="99" t="s">
         <v>613</v>
       </c>
-      <c r="C25" s="98"/>
+      <c r="C25" s="99"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -86282,10 +86291,10 @@
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="2:18" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="99" t="s">
         <v>653</v>
       </c>
-      <c r="C66" s="98"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="9"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -86394,10 +86403,10 @@
     </row>
     <row r="75" spans="2:18" s="32" customFormat="1"/>
     <row r="76" spans="2:18" s="32" customFormat="1">
-      <c r="B76" s="103" t="s">
+      <c r="B76" s="102" t="s">
         <v>799</v>
       </c>
-      <c r="C76" s="98"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
     </row>
@@ -86437,10 +86446,10 @@
       <c r="R78" s="10"/>
     </row>
     <row r="79" spans="2:18" ht="15" customHeight="1">
-      <c r="B79" s="103" t="s">
+      <c r="B79" s="102" t="s">
         <v>800</v>
       </c>
-      <c r="C79" s="98"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="I79" s="10"/>
@@ -86663,10 +86672,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="15" customHeight="1">
-      <c r="B98" s="98" t="s">
+      <c r="B98" s="99" t="s">
         <v>749</v>
       </c>
-      <c r="C98" s="98"/>
+      <c r="C98" s="99"/>
     </row>
     <row r="99" spans="2:5" ht="45">
       <c r="B99" s="22" t="s">
@@ -86694,10 +86703,10 @@
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="103" t="s">
+      <c r="B102" s="102" t="s">
         <v>801</v>
       </c>
-      <c r="C102" s="98"/>
+      <c r="C102" s="99"/>
       <c r="D102" s="9"/>
     </row>
     <row r="103" spans="2:5" ht="45">
@@ -86712,10 +86721,10 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="15" customHeight="1">
-      <c r="B104" s="103" t="s">
+      <c r="B104" s="102" t="s">
         <v>802</v>
       </c>
-      <c r="C104" s="103"/>
+      <c r="C104" s="102"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
     </row>
@@ -86736,10 +86745,10 @@
       <c r="E106" s="62"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="103" t="s">
+      <c r="B107" s="102" t="s">
         <v>807</v>
       </c>
-      <c r="C107" s="103"/>
+      <c r="C107" s="102"/>
       <c r="D107" s="46"/>
       <c r="E107" s="62"/>
     </row>
@@ -86760,10 +86769,10 @@
       <c r="E109" s="62"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="103" t="s">
+      <c r="B110" s="102" t="s">
         <v>815</v>
       </c>
-      <c r="C110" s="103"/>
+      <c r="C110" s="102"/>
       <c r="E110" s="62"/>
     </row>
     <row r="111" spans="2:5" ht="30">
@@ -86822,10 +86831,10 @@
       <c r="E116" s="62"/>
     </row>
     <row r="117" spans="1:1087">
-      <c r="B117" s="103" t="s">
+      <c r="B117" s="102" t="s">
         <v>837</v>
       </c>
-      <c r="C117" s="103"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="46"/>
       <c r="E117" s="62"/>
     </row>
@@ -86846,10 +86855,10 @@
       <c r="E119" s="62"/>
     </row>
     <row r="120" spans="1:1087">
-      <c r="B120" s="103" t="s">
+      <c r="B120" s="102" t="s">
         <v>846</v>
       </c>
-      <c r="C120" s="103"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="46"/>
       <c r="E120" s="62"/>
     </row>
@@ -87982,14 +87991,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B104:C104"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -88000,6 +88001,14 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B104:C104"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
+++ b/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="856">
   <si>
     <t>Test date:</t>
   </si>
@@ -5419,9 +5419,6 @@
     <t>Dialog box: title – we7; text – Please enter a username; button – OK_x000D_
 Sign in button greyed out for iPhone</t>
   </si>
-  <si>
-    <t>testing git</t>
-  </si>
 </sst>
 </file>
 
@@ -5988,13 +5985,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6362,7 +6359,7 @@
   <dimension ref="A1:AMK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6529,9 +6526,7 @@
       <c r="E9" s="49" t="s">
         <v>699</v>
       </c>
-      <c r="I9" s="92" t="s">
-        <v>856</v>
-      </c>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:19" s="49" customFormat="1" ht="12.75">
       <c r="D10" s="8"/>
@@ -8358,16 +8353,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9574,17 +9569,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10937,11 +10932,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B69:C69"/>
@@ -10952,6 +10942,11 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13971,11 +13966,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B159:C159"/>
@@ -13985,6 +13975,11 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -82766,11 +82761,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -82779,6 +82769,11 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -84919,11 +84914,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -84932,6 +84922,11 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -84969,15 +84964,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="102" t="s">
         <v>592</v>
       </c>
-      <c r="E1" s="103"/>
+      <c r="E1" s="102"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -85115,11 +85110,11 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="103" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -86403,7 +86398,7 @@
     </row>
     <row r="75" spans="2:18" s="32" customFormat="1"/>
     <row r="76" spans="2:18" s="32" customFormat="1">
-      <c r="B76" s="102" t="s">
+      <c r="B76" s="104" t="s">
         <v>799</v>
       </c>
       <c r="C76" s="99"/>
@@ -86446,7 +86441,7 @@
       <c r="R78" s="10"/>
     </row>
     <row r="79" spans="2:18" ht="15" customHeight="1">
-      <c r="B79" s="102" t="s">
+      <c r="B79" s="104" t="s">
         <v>800</v>
       </c>
       <c r="C79" s="99"/>
@@ -86703,7 +86698,7 @@
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="102" t="s">
+      <c r="B102" s="104" t="s">
         <v>801</v>
       </c>
       <c r="C102" s="99"/>
@@ -86721,10 +86716,10 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="15" customHeight="1">
-      <c r="B104" s="102" t="s">
+      <c r="B104" s="104" t="s">
         <v>802</v>
       </c>
-      <c r="C104" s="102"/>
+      <c r="C104" s="104"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
     </row>
@@ -86745,10 +86740,10 @@
       <c r="E106" s="62"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="102" t="s">
+      <c r="B107" s="104" t="s">
         <v>807</v>
       </c>
-      <c r="C107" s="102"/>
+      <c r="C107" s="104"/>
       <c r="D107" s="46"/>
       <c r="E107" s="62"/>
     </row>
@@ -86769,10 +86764,10 @@
       <c r="E109" s="62"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="102" t="s">
+      <c r="B110" s="104" t="s">
         <v>815</v>
       </c>
-      <c r="C110" s="102"/>
+      <c r="C110" s="104"/>
       <c r="E110" s="62"/>
     </row>
     <row r="111" spans="2:5" ht="30">
@@ -86831,10 +86826,10 @@
       <c r="E116" s="62"/>
     </row>
     <row r="117" spans="1:1087">
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="104" t="s">
         <v>837</v>
       </c>
-      <c r="C117" s="102"/>
+      <c r="C117" s="104"/>
       <c r="D117" s="46"/>
       <c r="E117" s="62"/>
     </row>
@@ -86855,10 +86850,10 @@
       <c r="E119" s="62"/>
     </row>
     <row r="120" spans="1:1087">
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="104" t="s">
         <v>846</v>
       </c>
-      <c r="C120" s="102"/>
+      <c r="C120" s="104"/>
       <c r="D120" s="46"/>
       <c r="E120" s="62"/>
     </row>
@@ -87991,6 +87986,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -88001,14 +88004,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B104:C104"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
+++ b/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="632" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1. Log in - Join" sheetId="1" r:id="rId1"/>
@@ -2387,10 +2387,6 @@
   </si>
   <si>
     <t>Play a station and choose add song to playlist with content</t>
-  </si>
-  <si>
-    <t>[1] Takes user to the playlist screen, where they can choose a playlist to add song to
-   [2] User is taken back to "Now Playing" screen</t>
   </si>
   <si>
     <t>Play a station and choose add song to playlist an empty playlist</t>
@@ -5419,6 +5415,10 @@
     <t>Dialog box: title – we7; text – Please enter a username; button – OK_x000D_
 Sign in button greyed out for iPhone</t>
   </si>
+  <si>
+    <t>[1] Takes user to the playlist screen, where they can choose a playlist to add song to_x000D_
+   [2] User is taken back to the playlist screen</t>
+  </si>
 </sst>
 </file>
 
@@ -5680,7 +5680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5958,6 +5958,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5985,13 +5988,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6358,7 +6361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -6384,22 +6387,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -6450,11 +6453,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -6497,20 +6500,20 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="49" customFormat="1" ht="12.75">
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="49" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B8" s="93" t="s">
-        <v>696</v>
-      </c>
-      <c r="C8" s="93"/>
+      <c r="B8" s="94" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8" s="94"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:19" s="49" customFormat="1" ht="51">
@@ -6518,13 +6521,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="49" t="s">
         <v>698</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>699</v>
       </c>
       <c r="I9" s="92"/>
     </row>
@@ -6536,13 +6539,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>701</v>
-      </c>
       <c r="E11" s="66" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="56" customFormat="1" ht="12.75">
@@ -6553,23 +6556,23 @@
         <v>43</v>
       </c>
       <c r="C13" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="56" t="s">
         <v>725</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="49" customFormat="1" ht="12.75">
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="93"/>
+      <c r="C15" s="94"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="30">
       <c r="B16" s="2" t="s">
@@ -6579,7 +6582,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>29</v>
@@ -6651,7 +6654,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="90" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="2" customFormat="1" ht="30">
@@ -6662,7 +6665,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="2:5" s="2" customFormat="1" ht="30">
@@ -6893,10 +6896,10 @@
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="93"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7066,10 +7069,10 @@
         <v>35</v>
       </c>
       <c r="D54" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>703</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>704</v>
       </c>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
@@ -7097,10 +7100,10 @@
         <v>27</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="E56" s="79" t="s">
         <v>826</v>
-      </c>
-      <c r="E56" s="79" t="s">
-        <v>827</v>
       </c>
       <c r="F56" s="79"/>
       <c r="G56" s="79"/>
@@ -7189,10 +7192,10 @@
     </row>
     <row r="64" spans="2:10" s="86" customFormat="1">
       <c r="D64" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="E64" s="55" t="s">
         <v>839</v>
-      </c>
-      <c r="E64" s="55" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="10" customFormat="1"/>
@@ -7204,7 +7207,7 @@
         <v>100</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>101</v>
@@ -7251,10 +7254,10 @@
     </row>
     <row r="72" spans="1:5" s="86" customFormat="1">
       <c r="D72" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="E72" s="55" t="s">
         <v>839</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="10" customFormat="1"/>
@@ -7282,10 +7285,10 @@
     </row>
     <row r="76" spans="1:5" s="85" customFormat="1">
       <c r="D76" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="E76" s="55" t="s">
         <v>839</v>
-      </c>
-      <c r="E76" s="55" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -7293,9 +7296,9 @@
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="94"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7346,22 +7349,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -7412,11 +7415,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -7459,17 +7462,17 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="94"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
@@ -7487,10 +7490,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -7514,7 +7517,7 @@
         <v>115</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="63.75">
@@ -7528,7 +7531,7 @@
         <v>122</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="38.25">
@@ -7550,7 +7553,7 @@
         <v>125</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="48.75" customHeight="1">
@@ -7561,7 +7564,7 @@
         <v>126</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="49.5" customHeight="1">
@@ -7572,7 +7575,7 @@
         <v>127</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="2" customFormat="1" ht="46.5" customHeight="1">
@@ -7586,7 +7589,7 @@
         <v>129</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="2" customFormat="1" ht="25.5">
@@ -7652,7 +7655,7 @@
         <v>137</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>138</v>
@@ -7663,7 +7666,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>139</v>
@@ -7674,7 +7677,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>140</v>
@@ -7685,7 +7688,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>141</v>
@@ -7696,7 +7699,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>142</v>
@@ -7753,7 +7756,7 @@
         <v>149</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -7922,10 +7925,10 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:18" s="2" customFormat="1" ht="93" customHeight="1">
-      <c r="B49" s="93" t="s">
-        <v>737</v>
-      </c>
-      <c r="C49" s="93"/>
+      <c r="B49" s="94" t="s">
+        <v>736</v>
+      </c>
+      <c r="C49" s="94"/>
       <c r="D49" s="2" t="s">
         <v>175</v>
       </c>
@@ -8061,10 +8064,10 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="2:18" s="2" customFormat="1">
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="93"/>
+      <c r="C56" s="94"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -8219,7 +8222,7 @@
         <v>200</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -8275,10 +8278,10 @@
         <v>27</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D69" s="78" t="s">
         <v>828</v>
-      </c>
-      <c r="D69" s="78" t="s">
-        <v>829</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>204</v>
@@ -8319,7 +8322,7 @@
         <v>206</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -8347,22 +8350,22 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8374,8 +8377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8400,22 +8403,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -8466,11 +8469,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -8513,21 +8516,21 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="94"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -8555,7 +8558,7 @@
         <v>213</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
@@ -8644,7 +8647,7 @@
         <v>210</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="76" customFormat="1">
@@ -8655,10 +8658,10 @@
         <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>805</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>806</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>228</v>
@@ -8685,10 +8688,10 @@
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:10" s="2" customFormat="1">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="94"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -8702,7 +8705,7 @@
         <v>115</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F27" s="79"/>
       <c r="G27" s="79"/>
@@ -8713,7 +8716,7 @@
         <v>230</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="2" customFormat="1" ht="34.5" customHeight="1">
@@ -8846,7 +8849,7 @@
         <v>246</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -8900,13 +8903,13 @@
         <v>35</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -8924,7 +8927,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>251</v>
@@ -9159,10 +9162,10 @@
         <v>266</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -9189,15 +9192,15 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="2:18" s="2" customFormat="1" ht="89.25">
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="C63" s="93"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E63" s="57" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -9218,7 +9221,7 @@
         <v>268</v>
       </c>
       <c r="E64" s="57" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -9433,10 +9436,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="51" customHeight="1">
-      <c r="B75" s="93" t="s">
+      <c r="B75" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="93"/>
+      <c r="C75" s="94"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -9461,21 +9464,21 @@
       <c r="D76" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>286</v>
+      <c r="E76" s="93" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="77" spans="2:18" ht="38.25">
       <c r="D77" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E77" s="2" t="s">
         <v>286</v>
+      </c>
+      <c r="E77" s="93" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="78" spans="2:18" ht="25.5">
       <c r="D78" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E78" s="57" t="s">
         <v>233</v>
@@ -9486,13 +9489,13 @@
         <v>43</v>
       </c>
       <c r="C80" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>286</v>
+      <c r="E80" s="93" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="38.25">
@@ -9500,13 +9503,13 @@
         <v>43</v>
       </c>
       <c r="C81" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>286</v>
+      <c r="E81" s="93" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="2" customFormat="1">
@@ -9523,23 +9526,23 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="41.25" customHeight="1">
-      <c r="B83" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="93"/>
+      <c r="B83" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="94"/>
     </row>
     <row r="84" spans="1:18" s="8" customFormat="1" ht="25.5">
       <c r="B84" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -9553,9 +9556,9 @@
       <c r="R84" s="1"/>
     </row>
     <row r="86" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="94"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
@@ -9569,17 +9572,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9617,22 +9620,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -9683,11 +9686,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -9729,28 +9732,28 @@
       <c r="R4" s="4"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="68" customFormat="1" ht="12.75">
-      <c r="B8" s="93" t="s">
-        <v>785</v>
-      </c>
-      <c r="C8" s="93"/>
+      <c r="B8" s="94" t="s">
+        <v>784</v>
+      </c>
+      <c r="C8" s="94"/>
     </row>
     <row r="9" spans="1:19" s="68" customFormat="1" ht="12.75">
       <c r="B9" s="68" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="68" t="s">
+        <v>778</v>
+      </c>
+      <c r="E9" s="68" t="s">
         <v>779</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="68" customFormat="1" ht="25.5">
@@ -9759,10 +9762,10 @@
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="68" t="s">
+        <v>780</v>
+      </c>
+      <c r="E10" s="68" t="s">
         <v>781</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="68" customFormat="1" ht="25.5">
@@ -9770,18 +9773,18 @@
         <v>35</v>
       </c>
       <c r="D11" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="E11" s="68" t="s">
         <v>783</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="68" customFormat="1" ht="12.75"/>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="93" t="s">
-        <v>786</v>
-      </c>
-      <c r="C13" s="93"/>
+      <c r="B13" s="94" t="s">
+        <v>785</v>
+      </c>
+      <c r="C13" s="94"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
@@ -9791,10 +9794,10 @@
         <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1">
@@ -9802,13 +9805,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1">
@@ -9820,13 +9823,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="2" customFormat="1">
@@ -9834,10 +9837,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="2" customFormat="1">
@@ -9845,10 +9848,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="2" customFormat="1">
@@ -9856,10 +9859,10 @@
         <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="2" customFormat="1">
@@ -9870,13 +9873,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="2" customFormat="1" ht="25.5">
@@ -9884,10 +9887,10 @@
         <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="2" customFormat="1" ht="25.5">
@@ -9895,10 +9898,10 @@
         <v>35</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="2" customFormat="1">
@@ -9906,10 +9909,10 @@
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="93" t="s">
-        <v>787</v>
-      </c>
-      <c r="C26" s="93"/>
+      <c r="B26" s="94" t="s">
+        <v>786</v>
+      </c>
+      <c r="C26" s="94"/>
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -9926,13 +9929,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -9940,10 +9943,10 @@
     </row>
     <row r="29" spans="2:10" s="2" customFormat="1" ht="64.5" customHeight="1">
       <c r="D29" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -9952,10 +9955,10 @@
     <row r="30" spans="2:10" s="2" customFormat="1">
       <c r="B30" s="77"/>
       <c r="D30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -9966,13 +9969,13 @@
         <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -9983,13 +9986,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="E32" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -10002,10 +10005,10 @@
         <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -10022,10 +10025,10 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B35" s="93" t="s">
-        <v>788</v>
-      </c>
-      <c r="C35" s="93"/>
+      <c r="B35" s="94" t="s">
+        <v>787</v>
+      </c>
+      <c r="C35" s="94"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -10044,13 +10047,13 @@
         <v>27</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -10060,10 +10063,10 @@
     </row>
     <row r="38" spans="2:10" s="2" customFormat="1" ht="66.75" customHeight="1">
       <c r="D38" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -10073,10 +10076,10 @@
     </row>
     <row r="39" spans="2:10" s="2" customFormat="1">
       <c r="D39" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -10087,13 +10090,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="E40" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -10103,10 +10106,10 @@
     </row>
     <row r="41" spans="2:10" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="D41" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -10127,13 +10130,13 @@
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -10143,10 +10146,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -10156,10 +10159,10 @@
         <v>35</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -10174,10 +10177,10 @@
       <c r="J46" s="10"/>
     </row>
     <row r="47" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B47" s="93" t="s">
-        <v>789</v>
-      </c>
-      <c r="C47" s="93"/>
+      <c r="B47" s="94" t="s">
+        <v>788</v>
+      </c>
+      <c r="C47" s="94"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -10196,13 +10199,13 @@
         <v>27</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -10212,10 +10215,10 @@
     </row>
     <row r="50" spans="2:18" s="2" customFormat="1" ht="69" customHeight="1">
       <c r="D50" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -10225,10 +10228,10 @@
     </row>
     <row r="51" spans="2:18" s="2" customFormat="1">
       <c r="D51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -10241,13 +10244,13 @@
         <v>27</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="E52" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -10257,10 +10260,10 @@
     </row>
     <row r="53" spans="2:18" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="D53" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -10281,13 +10284,13 @@
         <v>27</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -10297,10 +10300,10 @@
         <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -10318,10 +10321,10 @@
         <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -10350,10 +10353,10 @@
       <c r="R58" s="10"/>
     </row>
     <row r="59" spans="2:18" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B59" s="93" t="s">
-        <v>790</v>
-      </c>
-      <c r="C59" s="93"/>
+      <c r="B59" s="94" t="s">
+        <v>789</v>
+      </c>
+      <c r="C59" s="94"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -10388,13 +10391,13 @@
         <v>27</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>832</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>833</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -10430,13 +10433,13 @@
         <v>43</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -10457,10 +10460,10 @@
         <v>35</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -10496,13 +10499,13 @@
         <v>27</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="E66" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -10523,10 +10526,10 @@
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -10558,10 +10561,10 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B69" s="93" t="s">
-        <v>791</v>
-      </c>
-      <c r="C69" s="93"/>
+      <c r="B69" s="94" t="s">
+        <v>790</v>
+      </c>
+      <c r="C69" s="94"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -10571,13 +10574,13 @@
         <v>43</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -10595,10 +10598,10 @@
     </row>
     <row r="71" spans="2:18" s="2" customFormat="1">
       <c r="D71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -10619,13 +10622,13 @@
         <v>27</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -10646,13 +10649,13 @@
         <v>27</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -10685,10 +10688,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B75" s="93" t="s">
-        <v>792</v>
-      </c>
-      <c r="C75" s="93"/>
+      <c r="B75" s="94" t="s">
+        <v>791</v>
+      </c>
+      <c r="C75" s="94"/>
       <c r="E75" s="1"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -10709,13 +10712,13 @@
         <v>43</v>
       </c>
       <c r="C76" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -10744,10 +10747,10 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="2:18" s="68" customFormat="1" ht="12.75">
-      <c r="B78" s="93" t="s">
-        <v>793</v>
-      </c>
-      <c r="C78" s="93"/>
+      <c r="B78" s="94" t="s">
+        <v>792</v>
+      </c>
+      <c r="C78" s="94"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="I78" s="1"/>
@@ -10766,13 +10769,13 @@
         <v>43</v>
       </c>
       <c r="C79" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="D79" s="75" t="s">
         <v>794</v>
       </c>
-      <c r="D79" s="75" t="s">
+      <c r="E79" s="70" t="s">
         <v>795</v>
-      </c>
-      <c r="E79" s="70" t="s">
-        <v>796</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -10789,7 +10792,7 @@
       <c r="C80" s="8"/>
       <c r="D80" s="71"/>
       <c r="E80" s="72" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -10806,7 +10809,7 @@
       <c r="C81" s="8"/>
       <c r="D81" s="71"/>
       <c r="E81" s="72" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -10822,10 +10825,10 @@
     <row r="82" spans="1:18" s="68" customFormat="1" ht="12.75">
       <c r="C82" s="8"/>
       <c r="D82" s="75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E82" s="70" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -10842,7 +10845,7 @@
       <c r="C83" s="8"/>
       <c r="D83" s="73"/>
       <c r="E83" s="74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -10916,9 +10919,9 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="94"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="94"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
@@ -10932,6 +10935,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B69:C69"/>
@@ -10942,11 +10950,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10985,22 +10988,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -11017,7 +11020,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -11051,11 +11054,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -11098,18 +11101,18 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="98" t="s">
-        <v>360</v>
-      </c>
-      <c r="C8" s="98"/>
+      <c r="B8" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="99"/>
       <c r="E8" s="1"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -11120,13 +11123,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>362</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -11143,13 +11146,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -11166,13 +11169,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -11180,10 +11183,10 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="D14" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>367</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>368</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -11200,13 +11203,13 @@
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>371</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -11214,10 +11217,10 @@
     </row>
     <row r="17" spans="2:10" s="2" customFormat="1" ht="50.25" customHeight="1">
       <c r="D17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -11225,10 +11228,10 @@
     </row>
     <row r="18" spans="2:10" s="2" customFormat="1">
       <c r="D18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>375</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -11245,13 +11248,13 @@
         <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -11264,10 +11267,10 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B22" s="98" t="s">
-        <v>379</v>
-      </c>
-      <c r="C22" s="98"/>
+      <c r="B22" s="99" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="99"/>
       <c r="E22" s="18"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -11278,13 +11281,13 @@
         <v>27</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="2" customFormat="1" ht="33" customHeight="1">
@@ -11292,13 +11295,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="2" customFormat="1" ht="12.75">
@@ -11310,13 +11313,13 @@
         <v>35</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -11333,13 +11336,13 @@
         <v>35</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -11355,13 +11358,13 @@
         <v>35</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -11377,13 +11380,13 @@
         <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -11401,13 +11404,13 @@
         <v>27</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -11417,10 +11420,10 @@
     </row>
     <row r="35" spans="2:10" s="2" customFormat="1">
       <c r="D35" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -11428,10 +11431,10 @@
     </row>
     <row r="36" spans="2:10" s="2" customFormat="1">
       <c r="D36" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -11444,7 +11447,7 @@
         <v>270</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -11465,13 +11468,13 @@
         <v>35</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="E39" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -11481,10 +11484,10 @@
     </row>
     <row r="40" spans="2:10" s="2" customFormat="1">
       <c r="D40" s="59" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -11505,13 +11508,13 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D42" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="D42" s="59" t="s">
-        <v>404</v>
-      </c>
       <c r="E42" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -11521,10 +11524,10 @@
     </row>
     <row r="43" spans="2:10" s="2" customFormat="1">
       <c r="D43" s="59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -11534,10 +11537,10 @@
     </row>
     <row r="44" spans="2:10" s="59" customFormat="1" ht="25.5">
       <c r="D44" s="59" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
@@ -11558,13 +11561,13 @@
         <v>35</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>408</v>
-      </c>
       <c r="E46" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -11580,13 +11583,13 @@
         <v>27</v>
       </c>
       <c r="C48" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -11599,10 +11602,10 @@
         <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -11615,10 +11618,10 @@
         <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -11635,10 +11638,10 @@
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B52" s="98" t="s">
-        <v>414</v>
-      </c>
-      <c r="C52" s="98"/>
+      <c r="B52" s="99" t="s">
+        <v>413</v>
+      </c>
+      <c r="C52" s="99"/>
       <c r="E52" s="8"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -11651,13 +11654,13 @@
         <v>27</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -11675,13 +11678,13 @@
         <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -11713,13 +11716,13 @@
         <v>35</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -11751,13 +11754,13 @@
         <v>35</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -11789,13 +11792,13 @@
         <v>35</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="E60" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -11827,13 +11830,13 @@
         <v>27</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -11851,10 +11854,10 @@
     </row>
     <row r="63" spans="2:18" s="2" customFormat="1">
       <c r="D63" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -11872,10 +11875,10 @@
     </row>
     <row r="64" spans="2:18" s="2" customFormat="1">
       <c r="D64" s="77" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -11893,10 +11896,10 @@
     </row>
     <row r="65" spans="2:18" s="2" customFormat="1" ht="25.5">
       <c r="D65" s="77" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -11907,13 +11910,13 @@
         <v>35</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="E66" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -11931,10 +11934,10 @@
     </row>
     <row r="67" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="D67" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="2:18" s="2" customFormat="1" ht="13.5" customHeight="1">
@@ -11955,13 +11958,13 @@
         <v>35</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="E69" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -11992,13 +11995,13 @@
         <v>27</v>
       </c>
       <c r="C71" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -12019,10 +12022,10 @@
         <v>35</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -12044,10 +12047,10 @@
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -12081,10 +12084,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B75" s="98" t="s">
-        <v>426</v>
-      </c>
-      <c r="C75" s="98"/>
+      <c r="B75" s="99" t="s">
+        <v>425</v>
+      </c>
+      <c r="C75" s="99"/>
       <c r="E75" s="17"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -12115,13 +12118,13 @@
         <v>27</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="E77" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -12139,13 +12142,13 @@
         <v>43</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>430</v>
-      </c>
       <c r="E78" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -12177,13 +12180,13 @@
         <v>35</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D80" s="59" t="s">
+        <v>761</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>762</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>763</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -12223,10 +12226,10 @@
         <v>266</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -12263,13 +12266,13 @@
         <v>35</v>
       </c>
       <c r="C84" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -12301,13 +12304,13 @@
         <v>35</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="E86" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -12339,13 +12342,13 @@
         <v>35</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="E88" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -12377,13 +12380,13 @@
         <v>35</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="E90" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -12427,13 +12430,13 @@
         <v>27</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -12448,18 +12451,18 @@
     </row>
     <row r="94" spans="2:18" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="D94" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="2:18" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="D95" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -12477,7 +12480,7 @@
         <v>270</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -12508,13 +12511,13 @@
         <v>35</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="E98" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -12529,10 +12532,10 @@
     </row>
     <row r="99" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D99" s="59" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -12563,13 +12566,13 @@
         <v>35</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>440</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -12600,13 +12603,13 @@
         <v>35</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -12621,10 +12624,10 @@
     </row>
     <row r="104" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D104" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -12639,10 +12642,10 @@
     </row>
     <row r="105" spans="2:18" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="D105" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -12669,10 +12672,10 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B107" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="C107" s="98"/>
+      <c r="B107" s="99" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107" s="99"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="I107" s="1"/>
@@ -12691,13 +12694,13 @@
         <v>35</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D108" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E108" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>443</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -12715,13 +12718,13 @@
         <v>35</v>
       </c>
       <c r="C109" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="E109" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -12739,13 +12742,13 @@
         <v>35</v>
       </c>
       <c r="C110" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="E110" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -12763,13 +12766,13 @@
         <v>35</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -12787,13 +12790,13 @@
         <v>35</v>
       </c>
       <c r="C112" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="E112" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -12811,13 +12814,13 @@
         <v>35</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="E113" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -12849,13 +12852,13 @@
         <v>35</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>460</v>
-      </c>
       <c r="E115" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -12887,13 +12890,13 @@
         <v>35</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -12925,13 +12928,13 @@
         <v>35</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>465</v>
-      </c>
       <c r="E119" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -12963,13 +12966,13 @@
         <v>35</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -12998,10 +13001,10 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="2:18" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B123" s="98" t="s">
-        <v>468</v>
-      </c>
-      <c r="C123" s="98"/>
+      <c r="B123" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="C123" s="99"/>
       <c r="E123" s="18"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
@@ -13022,13 +13025,13 @@
         <v>27</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -13060,13 +13063,13 @@
         <v>35</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -13103,13 +13106,13 @@
         <v>35</v>
       </c>
       <c r="C128" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -13141,13 +13144,13 @@
         <v>35</v>
       </c>
       <c r="C130" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="E130" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -13179,13 +13182,13 @@
         <v>35</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="E132" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -13219,13 +13222,13 @@
         <v>35</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="E134" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
@@ -13262,13 +13265,13 @@
         <v>35</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E136" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
@@ -13319,13 +13322,13 @@
         <v>27</v>
       </c>
       <c r="C139" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -13346,10 +13349,10 @@
         <v>35</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
@@ -13370,10 +13373,10 @@
         <v>35</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -13406,10 +13409,10 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B143" s="98" t="s">
-        <v>475</v>
-      </c>
-      <c r="C143" s="98"/>
+      <c r="B143" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="C143" s="99"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="I143" s="1"/>
@@ -13428,13 +13431,13 @@
         <v>35</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D144" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E144" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>443</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -13452,13 +13455,13 @@
         <v>35</v>
       </c>
       <c r="C145" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="E145" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="E145" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -13476,13 +13479,13 @@
         <v>35</v>
       </c>
       <c r="C146" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="E146" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -13500,13 +13503,13 @@
         <v>35</v>
       </c>
       <c r="C147" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -13524,13 +13527,13 @@
         <v>35</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D148" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E148" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -13548,13 +13551,13 @@
         <v>35</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D149" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E149" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -13586,13 +13589,13 @@
         <v>35</v>
       </c>
       <c r="C151" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>460</v>
-      </c>
       <c r="E151" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -13624,13 +13627,13 @@
         <v>35</v>
       </c>
       <c r="C153" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="E153" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -13662,13 +13665,13 @@
         <v>35</v>
       </c>
       <c r="C155" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D155" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D155" s="8" t="s">
-        <v>465</v>
-      </c>
       <c r="E155" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -13700,13 +13703,13 @@
         <v>35</v>
       </c>
       <c r="C157" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D157" s="8" t="s">
-        <v>467</v>
-      </c>
       <c r="E157" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -13735,10 +13738,10 @@
       <c r="R158" s="1"/>
     </row>
     <row r="159" spans="2:18" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B159" s="98" t="s">
-        <v>854</v>
-      </c>
-      <c r="C159" s="98"/>
+      <c r="B159" s="99" t="s">
+        <v>853</v>
+      </c>
+      <c r="C159" s="99"/>
       <c r="E159" s="18"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
@@ -13759,13 +13762,13 @@
         <v>27</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -13797,13 +13800,13 @@
         <v>35</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
@@ -13840,13 +13843,13 @@
         <v>35</v>
       </c>
       <c r="C164" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D164" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="E164" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -13878,13 +13881,13 @@
         <v>35</v>
       </c>
       <c r="C166" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D166" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="E166" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -13916,13 +13919,13 @@
         <v>35</v>
       </c>
       <c r="C168" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="E168" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -13950,9 +13953,9 @@
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A170" s="94"/>
-      <c r="B170" s="94"/>
-      <c r="C170" s="94"/>
+      <c r="A170" s="95"/>
+      <c r="B170" s="95"/>
+      <c r="C170" s="95"/>
       <c r="I170" s="23"/>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
@@ -13966,6 +13969,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B143:C143"/>
     <mergeCell ref="B159:C159"/>
@@ -13975,11 +13983,6 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14017,22 +14020,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -14049,7 +14052,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -14083,11 +14086,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -14130,18 +14133,18 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="A6" s="95" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="100" t="s">
-        <v>481</v>
-      </c>
-      <c r="C8" s="100"/>
+      <c r="B8" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="101"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -14151,13 +14154,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
@@ -14167,13 +14170,13 @@
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="C11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="25.5">
@@ -14181,13 +14184,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75">
@@ -14200,40 +14203,40 @@
         <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="12.75">
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="2:18" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="18" spans="2:18" s="2" customFormat="1" ht="12.75">
@@ -14245,22 +14248,22 @@
         <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="2:18" s="2" customFormat="1" ht="12.75">
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>501</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="25.5">
@@ -14268,13 +14271,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -14290,10 +14293,10 @@
     <row r="22" spans="2:18" ht="25.5">
       <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -14324,13 +14327,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>508</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -14370,10 +14373,10 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="100" t="s">
-        <v>509</v>
-      </c>
-      <c r="C27" s="100"/>
+      <c r="B27" s="101" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="101"/>
       <c r="D27" s="60"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -14384,13 +14387,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -14407,13 +14410,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -14421,20 +14424,20 @@
     <row r="31" spans="2:18" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="2:18" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="D32" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -14451,13 +14454,13 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -14472,13 +14475,13 @@
         <v>27</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -14486,10 +14489,10 @@
     <row r="37" spans="2:18" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -14497,10 +14500,10 @@
     <row r="38" spans="2:18" s="2" customFormat="1">
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -14517,23 +14520,23 @@
         <v>27</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>518</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="2:18" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="D41" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -14549,13 +14552,13 @@
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -14563,10 +14566,10 @@
     <row r="44" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>502</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -14576,13 +14579,13 @@
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -14600,13 +14603,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -14624,13 +14627,13 @@
         <v>35</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -14646,13 +14649,13 @@
     <row r="48" spans="2:18" ht="25.5">
       <c r="B48" s="9"/>
       <c r="C48" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -14670,13 +14673,13 @@
         <v>43</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>528</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -14694,13 +14697,13 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -14734,13 +14737,13 @@
         <v>35</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -14758,10 +14761,10 @@
         <v>35</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -14779,10 +14782,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="89" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -15820,10 +15823,10 @@
     </row>
     <row r="56" spans="1:1025" ht="15" customHeight="1">
       <c r="A56"/>
-      <c r="B56" s="98" t="s">
-        <v>536</v>
-      </c>
-      <c r="C56" s="98"/>
+      <c r="B56" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="99"/>
       <c r="D56" s="9"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -16849,10 +16852,10 @@
         <v>27</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -17879,10 +17882,10 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>538</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -18909,10 +18912,10 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -19939,10 +19942,10 @@
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -20969,10 +20972,10 @@
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -21999,10 +22002,10 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -23029,10 +23032,10 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -24057,7 +24060,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E64" s="9"/>
       <c r="I64" s="10"/>
@@ -25084,11 +25087,11 @@
         <v>27</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -26115,10 +26118,10 @@
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S66"/>
       <c r="T66"/>
@@ -27135,10 +27138,10 @@
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -28165,7 +28168,7 @@
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S68"/>
       <c r="T68"/>
@@ -29182,7 +29185,7 @@
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S69"/>
       <c r="T69"/>
@@ -30199,10 +30202,10 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S70"/>
       <c r="T70"/>
@@ -31217,7 +31220,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E71" s="9"/>
       <c r="S71"/>
@@ -32234,13 +32237,13 @@
         <v>27</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>544</v>
       </c>
       <c r="S72"/>
       <c r="T72"/>
@@ -34265,10 +34268,10 @@
     </row>
     <row r="74" spans="1:1025" ht="15" customHeight="1">
       <c r="A74"/>
-      <c r="B74" s="98" t="s">
-        <v>545</v>
-      </c>
-      <c r="C74" s="98"/>
+      <c r="B74" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="C74" s="99"/>
       <c r="E74" s="9"/>
       <c r="S74"/>
       <c r="T74"/>
@@ -35284,13 +35287,13 @@
         <v>27</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="S75"/>
       <c r="T75"/>
@@ -36307,10 +36310,10 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="S76"/>
       <c r="T76"/>
@@ -37327,10 +37330,10 @@
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="S77"/>
       <c r="T77"/>
@@ -38347,10 +38350,10 @@
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S78"/>
       <c r="T78"/>
@@ -39367,10 +39370,10 @@
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S79"/>
       <c r="T79"/>
@@ -40387,10 +40390,10 @@
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S80"/>
       <c r="T80"/>
@@ -42418,13 +42421,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>556</v>
       </c>
       <c r="S82"/>
       <c r="T82"/>
@@ -43441,10 +43444,10 @@
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="S83"/>
       <c r="T83"/>
@@ -44461,10 +44464,10 @@
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="S84"/>
       <c r="T84"/>
@@ -45481,10 +45484,10 @@
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S85"/>
       <c r="T85"/>
@@ -46501,10 +46504,10 @@
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S86"/>
       <c r="T86"/>
@@ -47520,10 +47523,10 @@
         <v>27</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S87"/>
       <c r="T87"/>
@@ -49546,10 +49549,10 @@
     </row>
     <row r="89" spans="1:1025" ht="37.5" customHeight="1">
       <c r="A89"/>
-      <c r="B89" s="99" t="s">
-        <v>557</v>
-      </c>
-      <c r="C89" s="99"/>
+      <c r="B89" s="100" t="s">
+        <v>556</v>
+      </c>
+      <c r="C89" s="100"/>
       <c r="S89"/>
       <c r="T89"/>
       <c r="U89"/>
@@ -50564,13 +50567,13 @@
         <v>27</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>538</v>
       </c>
       <c r="S90"/>
       <c r="T90"/>
@@ -51587,10 +51590,10 @@
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S91"/>
       <c r="T91"/>
@@ -52607,10 +52610,10 @@
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S92"/>
       <c r="T92"/>
@@ -53627,10 +53630,10 @@
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -54657,10 +54660,10 @@
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S94"/>
       <c r="T94"/>
@@ -55677,10 +55680,10 @@
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
@@ -56710,10 +56713,10 @@
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>541</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
@@ -58769,13 +58772,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
@@ -59805,10 +59808,10 @@
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
@@ -60838,10 +60841,10 @@
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
@@ -61871,10 +61874,10 @@
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F101"/>
       <c r="G101"/>
@@ -62904,10 +62907,10 @@
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
@@ -63937,10 +63940,10 @@
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F103"/>
       <c r="G103"/>
@@ -65990,10 +65993,10 @@
     </row>
     <row r="105" spans="1:1025" ht="28.5" customHeight="1">
       <c r="A105"/>
-      <c r="B105" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="C105" s="99"/>
+      <c r="B105" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="C105" s="100"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105"/>
@@ -67023,13 +67026,13 @@
         <v>27</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D106" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
@@ -68059,10 +68062,10 @@
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
@@ -69092,10 +69095,10 @@
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
@@ -70125,10 +70128,10 @@
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S109"/>
       <c r="T109"/>
@@ -71145,10 +71148,10 @@
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S110"/>
       <c r="T110"/>
@@ -72165,10 +72168,10 @@
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S111"/>
       <c r="T111"/>
@@ -74196,13 +74199,13 @@
         <v>27</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>556</v>
       </c>
       <c r="S113"/>
       <c r="T113"/>
@@ -75219,10 +75222,10 @@
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="S114"/>
       <c r="T114"/>
@@ -76239,10 +76242,10 @@
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>551</v>
       </c>
       <c r="S115"/>
       <c r="T115"/>
@@ -77259,10 +77262,10 @@
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S116"/>
       <c r="T116"/>
@@ -78279,10 +78282,10 @@
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S117"/>
       <c r="T117"/>
@@ -79298,10 +79301,10 @@
         <v>27</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S118"/>
       <c r="T118"/>
@@ -81324,10 +81327,10 @@
       <c r="AMK119"/>
     </row>
     <row r="120" spans="1:1025" s="2" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B120" s="98" t="s">
-        <v>561</v>
-      </c>
-      <c r="C120" s="98"/>
+      <c r="B120" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="C120" s="99"/>
       <c r="D120" s="59"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -81345,13 +81348,13 @@
         <v>27</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -81369,10 +81372,10 @@
         <v>27</v>
       </c>
       <c r="D122" s="61" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -81390,10 +81393,10 @@
         <v>43</v>
       </c>
       <c r="D123" s="59" t="s">
+        <v>565</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -81411,10 +81414,10 @@
         <v>43</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -81432,10 +81435,10 @@
         <v>35</v>
       </c>
       <c r="D125" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -81453,10 +81456,10 @@
         <v>35</v>
       </c>
       <c r="D126" s="59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -81474,10 +81477,10 @@
         <v>35</v>
       </c>
       <c r="D127" s="59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -81495,10 +81498,10 @@
         <v>35</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -81516,13 +81519,13 @@
         <v>43</v>
       </c>
       <c r="C129" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -81540,10 +81543,10 @@
         <v>43</v>
       </c>
       <c r="D130" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>578</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -81561,10 +81564,10 @@
         <v>43</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E131" s="28" t="s">
         <v>579</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>580</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -81582,10 +81585,10 @@
         <v>43</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -81603,10 +81606,10 @@
         <v>43</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -81624,10 +81627,10 @@
         <v>43</v>
       </c>
       <c r="D134" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -81645,10 +81648,10 @@
         <v>43</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -81666,10 +81669,10 @@
         <v>43</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -81701,13 +81704,13 @@
         <v>43</v>
       </c>
       <c r="C138" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D138" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="D138" s="59" t="s">
+      <c r="E138" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -82745,9 +82748,9 @@
       <c r="AMK140"/>
     </row>
     <row r="141" spans="1:1025" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A141" s="94"/>
-      <c r="B141" s="94"/>
-      <c r="C141" s="94"/>
+      <c r="A141" s="95"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="95"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
@@ -82761,6 +82764,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -82769,11 +82777,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -82811,22 +82814,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="3" spans="1:19" s="67" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="67" t="s">
         <v>3</v>
       </c>
@@ -82843,7 +82846,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -82877,11 +82880,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -82924,13 +82927,13 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="94" t="s">
-        <v>768</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="A6" s="95" t="s">
+        <v>767</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75">
       <c r="A7" s="53"/>
@@ -82941,10 +82944,10 @@
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="53"/>
-      <c r="B8" s="100" t="s">
-        <v>481</v>
-      </c>
-      <c r="C8" s="100"/>
+      <c r="B8" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="101"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="10"/>
@@ -82957,13 +82960,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
@@ -82980,13 +82983,13 @@
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="25.5">
@@ -82995,13 +82998,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>488</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75">
@@ -83017,13 +83020,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
@@ -83031,10 +83034,10 @@
       <c r="B15" s="53"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="12.75">
@@ -83042,10 +83045,10 @@
       <c r="B16" s="53"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
@@ -83053,10 +83056,10 @@
       <c r="B17" s="53"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="12.75">
@@ -83072,13 +83075,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="12.75">
@@ -83086,10 +83089,10 @@
       <c r="B20" s="53"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>501</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="25.5">
@@ -83097,13 +83100,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -83121,13 +83124,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -83156,13 +83159,13 @@
     <row r="24" spans="1:18" ht="63.75">
       <c r="B24" s="9"/>
       <c r="C24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>508</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -83203,10 +83206,10 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="53"/>
-      <c r="B27" s="100" t="s">
-        <v>509</v>
-      </c>
-      <c r="C27" s="100"/>
+      <c r="B27" s="101" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="101"/>
       <c r="D27" s="54"/>
       <c r="E27" s="53"/>
       <c r="F27" s="10"/>
@@ -83219,13 +83222,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -83245,13 +83248,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -83261,10 +83264,10 @@
       <c r="B31" s="53"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -83274,10 +83277,10 @@
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -83297,13 +83300,13 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -83321,13 +83324,13 @@
         <v>27</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>492</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -83337,10 +83340,10 @@
       <c r="B37" s="53"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -83350,10 +83353,10 @@
       <c r="B38" s="53"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -83373,13 +83376,13 @@
         <v>27</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>518</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -83389,10 +83392,10 @@
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="D41" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -83412,13 +83415,13 @@
         <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -83428,10 +83431,10 @@
       <c r="B44" s="53"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>502</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -83441,13 +83444,13 @@
         <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -83465,13 +83468,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -83489,13 +83492,13 @@
         <v>35</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -83511,13 +83514,13 @@
     <row r="48" spans="1:18" ht="25.5">
       <c r="B48" s="9"/>
       <c r="C48" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -83535,13 +83538,13 @@
         <v>43</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>528</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -83559,13 +83562,13 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -83599,13 +83602,13 @@
         <v>35</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -83623,10 +83626,10 @@
         <v>35</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -83641,10 +83644,10 @@
     </row>
     <row r="54" spans="2:18" ht="25.5">
       <c r="D54" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -83674,10 +83677,10 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="2:18" ht="15" customHeight="1">
-      <c r="B56" s="100" t="s">
-        <v>536</v>
-      </c>
-      <c r="C56" s="100"/>
+      <c r="B56" s="101" t="s">
+        <v>535</v>
+      </c>
+      <c r="C56" s="101"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -83694,13 +83697,13 @@
         <v>27</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>538</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -83719,10 +83722,10 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -83741,10 +83744,10 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -83763,10 +83766,10 @@
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -83785,10 +83788,10 @@
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -83807,10 +83810,10 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -83829,10 +83832,10 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -83866,13 +83869,13 @@
         <v>27</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -83891,10 +83894,10 @@
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="2:18">
@@ -83903,10 +83906,10 @@
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -83925,10 +83928,10 @@
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="2:18">
@@ -83937,10 +83940,10 @@
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="70" spans="2:18">
@@ -83949,10 +83952,10 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="71" spans="2:18">
@@ -83965,13 +83968,13 @@
         <v>27</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="73" spans="2:18">
@@ -83980,10 +83983,10 @@
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="2:18" ht="15" customHeight="1">
-      <c r="B74" s="100" t="s">
-        <v>545</v>
-      </c>
-      <c r="C74" s="100"/>
+      <c r="B74" s="101" t="s">
+        <v>544</v>
+      </c>
+      <c r="C74" s="101"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
@@ -83992,13 +83995,13 @@
         <v>27</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="76" spans="2:18">
@@ -84007,10 +84010,10 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="77" spans="2:18">
@@ -84019,10 +84022,10 @@
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="78" spans="2:18">
@@ -84031,10 +84034,10 @@
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="2:18">
@@ -84043,10 +84046,10 @@
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="2:18">
@@ -84055,10 +84058,10 @@
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="2:18">
@@ -84070,13 +84073,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="83" spans="2:18">
@@ -84085,10 +84088,10 @@
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="84" spans="2:18">
@@ -84097,10 +84100,10 @@
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="85" spans="2:18">
@@ -84109,10 +84112,10 @@
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="2:18">
@@ -84121,10 +84124,10 @@
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="2:18">
@@ -84132,30 +84135,30 @@
         <v>27</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="2:18" ht="37.5" customHeight="1">
-      <c r="B89" s="101" t="s">
-        <v>713</v>
-      </c>
-      <c r="C89" s="101"/>
+      <c r="B89" s="102" t="s">
+        <v>712</v>
+      </c>
+      <c r="C89" s="102"/>
     </row>
     <row r="90" spans="2:18">
       <c r="B90" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="91" spans="2:18">
@@ -84164,10 +84167,10 @@
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="2:18">
@@ -84176,10 +84179,10 @@
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="93" spans="2:18">
@@ -84188,10 +84191,10 @@
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -84210,10 +84213,10 @@
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" spans="2:18">
@@ -84222,10 +84225,10 @@
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="2:18">
@@ -84234,10 +84237,10 @@
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="97" spans="2:5">
@@ -84251,13 +84254,13 @@
         <v>27</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="2:5">
@@ -84266,10 +84269,10 @@
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100" spans="2:5">
@@ -84278,10 +84281,10 @@
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -84290,10 +84293,10 @@
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="102" spans="2:5">
@@ -84302,10 +84305,10 @@
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -84314,10 +84317,10 @@
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="2:5">
@@ -84326,10 +84329,10 @@
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B105" s="101" t="s">
-        <v>714</v>
-      </c>
-      <c r="C105" s="101"/>
+      <c r="B105" s="102" t="s">
+        <v>713</v>
+      </c>
+      <c r="C105" s="102"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
     </row>
@@ -84338,13 +84341,13 @@
         <v>27</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D106" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="107" spans="2:5">
@@ -84353,10 +84356,10 @@
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="108" spans="2:5">
@@ -84365,10 +84368,10 @@
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -84377,10 +84380,10 @@
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="110" spans="2:5">
@@ -84389,10 +84392,10 @@
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="2:5">
@@ -84401,10 +84404,10 @@
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -84416,13 +84419,13 @@
         <v>27</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="114" spans="2:18">
@@ -84431,10 +84434,10 @@
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="115" spans="2:18">
@@ -84443,10 +84446,10 @@
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="116" spans="2:18">
@@ -84455,10 +84458,10 @@
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="2:18">
@@ -84467,10 +84470,10 @@
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="2:18">
@@ -84478,17 +84481,17 @@
         <v>27</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="2:18" s="2" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B120" s="100" t="s">
-        <v>561</v>
-      </c>
-      <c r="C120" s="100"/>
+      <c r="B120" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="C120" s="101"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -84505,13 +84508,13 @@
         <v>27</v>
       </c>
       <c r="C121" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -84529,10 +84532,10 @@
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -84550,10 +84553,10 @@
         <v>43</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -84571,10 +84574,10 @@
         <v>43</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -84592,10 +84595,10 @@
         <v>35</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -84613,10 +84616,10 @@
         <v>35</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -84634,10 +84637,10 @@
         <v>35</v>
       </c>
       <c r="D127" s="51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -84655,10 +84658,10 @@
         <v>35</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -84676,13 +84679,13 @@
         <v>43</v>
       </c>
       <c r="C129" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -84700,10 +84703,10 @@
         <v>43</v>
       </c>
       <c r="D130" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>577</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>578</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -84721,10 +84724,10 @@
         <v>43</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E131" s="28" t="s">
         <v>579</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>580</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -84742,10 +84745,10 @@
         <v>43</v>
       </c>
       <c r="D132" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -84763,10 +84766,10 @@
         <v>43</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -84784,10 +84787,10 @@
         <v>43</v>
       </c>
       <c r="D134" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -84805,10 +84808,10 @@
         <v>43</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -84826,10 +84829,10 @@
         <v>43</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -84861,13 +84864,13 @@
         <v>43</v>
       </c>
       <c r="C138" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -84898,9 +84901,9 @@
       <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A141" s="94"/>
-      <c r="B141" s="94"/>
-      <c r="C141" s="94"/>
+      <c r="A141" s="95"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="95"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
@@ -84914,6 +84917,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -84922,11 +84930,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -84964,15 +84967,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="102" t="s">
-        <v>592</v>
-      </c>
-      <c r="E1" s="102"/>
+      <c r="D1" s="104" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="104"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -84997,11 +85000,11 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -85018,7 +85021,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>8</v>
@@ -85052,11 +85055,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -85110,11 +85113,11 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="103" t="s">
-        <v>593</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
+      <c r="A6" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -85139,10 +85142,10 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="99" t="s">
-        <v>594</v>
-      </c>
-      <c r="C8" s="99"/>
+      <c r="B8" s="100" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" s="100"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -85159,13 +85162,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D9" s="64" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" s="64" t="s">
         <v>771</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>772</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -85196,13 +85199,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>598</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -85236,13 +85239,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>842</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>843</v>
-      </c>
       <c r="E13" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I13" s="87"/>
       <c r="J13" s="87"/>
@@ -85258,10 +85261,10 @@
     </row>
     <row r="14" spans="1:19" s="88" customFormat="1">
       <c r="D14" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>844</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>845</v>
       </c>
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
@@ -85288,10 +85291,10 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="99" t="s">
-        <v>599</v>
-      </c>
-      <c r="C16" s="99"/>
+      <c r="B16" s="100" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16" s="100"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -85308,13 +85311,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>601</v>
-      </c>
       <c r="E17" s="65" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -85332,10 +85335,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -85353,10 +85356,10 @@
         <v>43</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -85374,10 +85377,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>606</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>607</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -85395,10 +85398,10 @@
         <v>43</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -85416,10 +85419,10 @@
         <v>43</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -85437,10 +85440,10 @@
         <v>43</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>611</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -85455,10 +85458,10 @@
     </row>
     <row r="24" spans="2:18" s="10" customFormat="1" ht="37.5" customHeight="1">
       <c r="D24" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -85472,10 +85475,10 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="99" t="s">
-        <v>613</v>
-      </c>
-      <c r="C25" s="99"/>
+      <c r="B25" s="100" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="100"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -85506,13 +85509,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -85531,10 +85534,10 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>618</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -85569,10 +85572,10 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -85591,10 +85594,10 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -85629,10 +85632,10 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -85649,10 +85652,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -85686,13 +85689,13 @@
         <v>27</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -85711,10 +85714,10 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>618</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -85749,10 +85752,10 @@
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -85771,10 +85774,10 @@
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -85809,10 +85812,10 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -85829,10 +85832,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -85866,13 +85869,13 @@
         <v>27</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>626</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>627</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -85906,13 +85909,13 @@
         <v>27</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -85946,13 +85949,13 @@
         <v>35</v>
       </c>
       <c r="C49" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>631</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>632</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -85971,7 +85974,7 @@
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E50" s="9"/>
       <c r="I50" s="10"/>
@@ -85991,10 +85994,10 @@
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>635</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -86028,13 +86031,13 @@
         <v>27</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -86051,10 +86054,10 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -86071,10 +86074,10 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -86108,13 +86111,13 @@
         <v>27</v>
       </c>
       <c r="C57" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -86133,10 +86136,10 @@
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -86155,10 +86158,10 @@
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>773</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>774</v>
       </c>
       <c r="I59" s="64"/>
       <c r="J59" s="64"/>
@@ -86192,13 +86195,13 @@
         <v>35</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>646</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>647</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -86217,10 +86220,10 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>649</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -86239,10 +86242,10 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -86260,10 +86263,10 @@
         <v>35</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>651</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -86286,10 +86289,10 @@
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="2:18" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B66" s="99" t="s">
-        <v>653</v>
-      </c>
-      <c r="C66" s="99"/>
+      <c r="B66" s="100" t="s">
+        <v>652</v>
+      </c>
+      <c r="C66" s="100"/>
       <c r="D66" s="9"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -86305,10 +86308,10 @@
         <v>27</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>654</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -86324,10 +86327,10 @@
         <v>43</v>
       </c>
       <c r="D68" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="69" spans="2:18" s="10" customFormat="1" ht="30">
@@ -86335,10 +86338,10 @@
         <v>27</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="2:18" s="10" customFormat="1" ht="45">
@@ -86346,10 +86349,10 @@
         <v>43</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="2:18" s="10" customFormat="1" ht="28.5" customHeight="1">
@@ -86357,10 +86360,10 @@
         <v>43</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="2:18" s="10" customFormat="1" ht="30">
@@ -86368,10 +86371,10 @@
         <v>43</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="73" spans="2:18" s="10" customFormat="1" ht="30">
@@ -86379,10 +86382,10 @@
         <v>43</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="2:18" s="10" customFormat="1" ht="45">
@@ -86390,18 +86393,18 @@
         <v>43</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="2:18" s="32" customFormat="1"/>
     <row r="76" spans="2:18" s="32" customFormat="1">
-      <c r="B76" s="104" t="s">
-        <v>799</v>
-      </c>
-      <c r="C76" s="99"/>
+      <c r="B76" s="103" t="s">
+        <v>798</v>
+      </c>
+      <c r="C76" s="100"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
     </row>
@@ -86410,10 +86413,10 @@
         <v>35</v>
       </c>
       <c r="D77" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>674</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -86441,10 +86444,10 @@
       <c r="R78" s="10"/>
     </row>
     <row r="79" spans="2:18" ht="15" customHeight="1">
-      <c r="B79" s="104" t="s">
-        <v>800</v>
-      </c>
-      <c r="C79" s="99"/>
+      <c r="B79" s="103" t="s">
+        <v>799</v>
+      </c>
+      <c r="C79" s="100"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="I79" s="10"/>
@@ -86463,10 +86466,10 @@
         <v>27</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E80" s="32"/>
       <c r="I80" s="10"/>
@@ -86482,10 +86485,10 @@
     </row>
     <row r="81" spans="2:18">
       <c r="C81" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D81" s="33" t="s">
         <v>677</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>678</v>
       </c>
       <c r="E81" s="34"/>
       <c r="I81" s="10"/>
@@ -86502,7 +86505,7 @@
     <row r="82" spans="2:18" ht="29.25" customHeight="1">
       <c r="C82" s="40"/>
       <c r="D82" s="46" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E82" s="36"/>
       <c r="I82" s="2"/>
@@ -86519,19 +86522,19 @@
     <row r="83" spans="2:18">
       <c r="C83" s="40"/>
       <c r="D83" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="E83" s="36" t="s">
         <v>679</v>
-      </c>
-      <c r="E83" s="36" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="84" spans="2:18">
       <c r="C84" s="41"/>
       <c r="D84" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="E84" s="38" t="s">
         <v>681</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>682</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -86546,36 +86549,36 @@
     </row>
     <row r="85" spans="2:18">
       <c r="C85" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="D85" s="44" t="s">
         <v>683</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>684</v>
       </c>
       <c r="E85" s="34"/>
     </row>
     <row r="86" spans="2:18">
       <c r="C86" s="35"/>
       <c r="D86" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="E86" s="36" t="s">
         <v>685</v>
-      </c>
-      <c r="E86" s="36" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="87" spans="2:18">
       <c r="C87" s="35"/>
       <c r="D87" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="E87" s="36" t="s">
         <v>687</v>
-      </c>
-      <c r="E87" s="36" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="88" spans="2:18">
       <c r="C88" s="37"/>
       <c r="D88" s="45"/>
       <c r="E88" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="2:18">
@@ -86583,10 +86586,10 @@
         <v>43</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="90" spans="2:18" ht="44.25" customHeight="1">
@@ -86594,10 +86597,10 @@
         <v>35</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="2:18">
@@ -86605,10 +86608,10 @@
         <v>27</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="92" spans="2:18">
@@ -86616,10 +86619,10 @@
         <v>43</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" spans="2:18" s="22" customFormat="1" ht="15" customHeight="1">
@@ -86627,10 +86630,10 @@
         <v>35</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="2:18">
@@ -86638,10 +86641,10 @@
         <v>27</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="2:18">
@@ -86649,10 +86652,10 @@
         <v>43</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="2:18">
@@ -86660,27 +86663,27 @@
         <v>35</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="15" customHeight="1">
-      <c r="B98" s="99" t="s">
-        <v>749</v>
-      </c>
-      <c r="C98" s="99"/>
+      <c r="B98" s="100" t="s">
+        <v>748</v>
+      </c>
+      <c r="C98" s="100"/>
     </row>
     <row r="99" spans="2:5" ht="45">
       <c r="B99" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>750</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="30">
@@ -86688,20 +86691,20 @@
         <v>27</v>
       </c>
       <c r="D100" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>752</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="101" spans="2:5">
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="104" t="s">
-        <v>801</v>
-      </c>
-      <c r="C102" s="99"/>
+      <c r="B102" s="103" t="s">
+        <v>800</v>
+      </c>
+      <c r="C102" s="100"/>
       <c r="D102" s="9"/>
     </row>
     <row r="103" spans="2:5" ht="45">
@@ -86709,17 +86712,17 @@
         <v>27</v>
       </c>
       <c r="D103" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="E103" s="62" t="s">
         <v>758</v>
-      </c>
-      <c r="E103" s="62" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="15" customHeight="1">
-      <c r="B104" s="104" t="s">
-        <v>802</v>
-      </c>
-      <c r="C104" s="104"/>
+      <c r="B104" s="103" t="s">
+        <v>801</v>
+      </c>
+      <c r="C104" s="103"/>
       <c r="D104" s="46"/>
       <c r="E104" s="62"/>
     </row>
@@ -86728,10 +86731,10 @@
         <v>27</v>
       </c>
       <c r="D105" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="E105" s="62" t="s">
         <v>803</v>
-      </c>
-      <c r="E105" s="62" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="106" spans="2:5">
@@ -86740,10 +86743,10 @@
       <c r="E106" s="62"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="104" t="s">
-        <v>807</v>
-      </c>
-      <c r="C107" s="104"/>
+      <c r="B107" s="103" t="s">
+        <v>806</v>
+      </c>
+      <c r="C107" s="103"/>
       <c r="D107" s="46"/>
       <c r="E107" s="62"/>
     </row>
@@ -86752,10 +86755,10 @@
         <v>27</v>
       </c>
       <c r="D108" s="46" t="s">
+        <v>807</v>
+      </c>
+      <c r="E108" s="62" t="s">
         <v>808</v>
-      </c>
-      <c r="E108" s="62" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -86764,10 +86767,10 @@
       <c r="E109" s="62"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="104" t="s">
-        <v>815</v>
-      </c>
-      <c r="C110" s="104"/>
+      <c r="B110" s="103" t="s">
+        <v>814</v>
+      </c>
+      <c r="C110" s="103"/>
       <c r="E110" s="62"/>
     </row>
     <row r="111" spans="2:5" ht="30">
@@ -86775,49 +86778,49 @@
         <v>27</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D111" s="81" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E111" s="62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="45">
       <c r="B112" s="62"/>
       <c r="D112" s="82" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:1087" ht="45">
       <c r="B113" s="62"/>
       <c r="D113" s="46" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E113" s="62" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="114" spans="1:1087" ht="90">
       <c r="B114" s="62"/>
       <c r="C114" s="80" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D114" s="81" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E114" s="62" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:1087" ht="75">
       <c r="B115" s="62"/>
       <c r="D115" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E115" s="62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="1:1087">
@@ -86826,10 +86829,10 @@
       <c r="E116" s="62"/>
     </row>
     <row r="117" spans="1:1087">
-      <c r="B117" s="104" t="s">
-        <v>837</v>
-      </c>
-      <c r="C117" s="104"/>
+      <c r="B117" s="103" t="s">
+        <v>836</v>
+      </c>
+      <c r="C117" s="103"/>
       <c r="D117" s="46"/>
       <c r="E117" s="62"/>
     </row>
@@ -86838,10 +86841,10 @@
         <v>27</v>
       </c>
       <c r="D118" s="46" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E118" s="62" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:1087">
@@ -86850,10 +86853,10 @@
       <c r="E119" s="62"/>
     </row>
     <row r="120" spans="1:1087">
-      <c r="B120" s="104" t="s">
-        <v>846</v>
-      </c>
-      <c r="C120" s="104"/>
+      <c r="B120" s="103" t="s">
+        <v>845</v>
+      </c>
+      <c r="C120" s="103"/>
       <c r="D120" s="46"/>
       <c r="E120" s="62"/>
     </row>
@@ -86862,13 +86865,13 @@
         <v>43</v>
       </c>
       <c r="C121" s="80" t="s">
+        <v>846</v>
+      </c>
+      <c r="D121" s="46" t="s">
         <v>847</v>
       </c>
-      <c r="D121" s="46" t="s">
+      <c r="E121" s="62" t="s">
         <v>848</v>
-      </c>
-      <c r="E121" s="62" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="122" spans="1:1087">
@@ -86881,13 +86884,13 @@
         <v>43</v>
       </c>
       <c r="C123" s="80" t="s">
+        <v>849</v>
+      </c>
+      <c r="D123" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="D123" s="46" t="s">
-        <v>851</v>
-      </c>
       <c r="E123" s="62" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="124" spans="1:1087">
@@ -87986,14 +87989,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B104:C104"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -88004,6 +87999,14 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B104:C104"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
+++ b/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="852">
   <si>
     <t>Test date:</t>
   </si>
@@ -5383,6 +5383,9 @@
     <t>[1] Play artist Radio_x000D_
 [2] (Android only) when moved to chugger, press back</t>
   </si>
+  <si>
+    <t>Tracks returned in the reverse order they were played</t>
+  </si>
 </sst>
 </file>
 
@@ -5681,7 +5684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5836,9 +5839,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5954,6 +5954,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6397,35 +6403,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -6462,25 +6468,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -6510,20 +6516,20 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="47" customFormat="1" ht="12.75">
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="47" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>677</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:19" s="47" customFormat="1" ht="51">
@@ -6539,7 +6545,7 @@
       <c r="E9" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="89"/>
     </row>
     <row r="10" spans="1:19" s="47" customFormat="1" ht="12.75">
       <c r="D10" s="8"/>
@@ -6554,24 +6560,24 @@
       <c r="D11" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="63" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="54" customFormat="1" ht="12.75">
+    <row r="12" spans="1:19" s="53" customFormat="1" ht="12.75">
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="54" customFormat="1" ht="12.75">
-      <c r="B13" s="54" t="s">
+    <row r="13" spans="1:19" s="53" customFormat="1" ht="12.75">
+      <c r="B13" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>705</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>707</v>
       </c>
     </row>
@@ -6579,10 +6585,10 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="30">
       <c r="B16" s="2" t="s">
@@ -6663,7 +6669,7 @@
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="87" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6674,7 +6680,7 @@
       <c r="D23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="88" t="s">
         <v>832</v>
       </c>
     </row>
@@ -6906,10 +6912,10 @@
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="94"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7105,21 +7111,21 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="2:10" s="76" customFormat="1">
-      <c r="B56" s="76" t="s">
+    <row r="56" spans="2:10" s="75" customFormat="1">
+      <c r="B56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="E56" s="77" t="s">
+      <c r="E56" s="76" t="s">
         <v>807</v>
       </c>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
     </row>
     <row r="57" spans="2:10" s="2" customFormat="1" ht="30">
       <c r="B57" s="2" t="s">
@@ -7200,11 +7206,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="84" customFormat="1">
-      <c r="D64" s="53" t="s">
+    <row r="64" spans="2:10" s="83" customFormat="1">
+      <c r="D64" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="E64" s="52" t="s">
         <v>820</v>
       </c>
     </row>
@@ -7216,7 +7222,7 @@
       <c r="C66" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="52" t="s">
         <v>687</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -7262,11 +7268,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="84" customFormat="1">
-      <c r="D72" s="53" t="s">
+    <row r="72" spans="1:5" s="83" customFormat="1">
+      <c r="D72" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="52" t="s">
         <v>820</v>
       </c>
     </row>
@@ -7293,11 +7299,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="83" customFormat="1">
-      <c r="D76" s="53" t="s">
+    <row r="76" spans="1:5" s="82" customFormat="1">
+      <c r="D76" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="52" t="s">
         <v>820</v>
       </c>
     </row>
@@ -7306,9 +7312,9 @@
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="95"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
+      <c r="A78" s="96"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7359,35 +7365,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7424,25 +7430,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7472,17 +7478,17 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="95"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
@@ -7500,10 +7506,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -7526,7 +7532,7 @@
       <c r="D11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="75" t="s">
         <v>805</v>
       </c>
     </row>
@@ -7562,7 +7568,7 @@
       <c r="D14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7573,7 +7579,7 @@
       <c r="D15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>710</v>
       </c>
     </row>
@@ -7584,7 +7590,7 @@
       <c r="D16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>709</v>
       </c>
     </row>
@@ -7598,7 +7604,7 @@
       <c r="D17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>711</v>
       </c>
     </row>
@@ -7664,7 +7670,7 @@
       <c r="C23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>712</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -7675,7 +7681,7 @@
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>713</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -7686,7 +7692,7 @@
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>714</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -7697,7 +7703,7 @@
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>715</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -7708,7 +7714,7 @@
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>716</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -7765,7 +7771,7 @@
       <c r="D32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="54" t="s">
         <v>717</v>
       </c>
       <c r="I32" s="10"/>
@@ -7935,10 +7941,10 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:18" s="2" customFormat="1" ht="93" customHeight="1">
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="C49" s="94"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="2" t="s">
         <v>174</v>
       </c>
@@ -7960,7 +7966,7 @@
       <c r="R49" s="10"/>
     </row>
     <row r="50" spans="2:18" s="2" customFormat="1">
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -8074,10 +8080,10 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="2:18" s="2" customFormat="1">
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="94"/>
+      <c r="C56" s="95"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -8092,8 +8098,8 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
     </row>
-    <row r="57" spans="2:18" s="76" customFormat="1" ht="135" customHeight="1">
-      <c r="B57" s="76" t="s">
+    <row r="57" spans="2:18" s="75" customFormat="1" ht="135" customHeight="1">
+      <c r="B57" s="75" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -8105,22 +8111,22 @@
       <c r="E57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77"/>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="77"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
     </row>
     <row r="58" spans="2:18" s="2" customFormat="1">
-      <c r="B58" s="76"/>
+      <c r="B58" s="75"/>
       <c r="D58" s="2" t="s">
         <v>187</v>
       </c>
@@ -8290,7 +8296,7 @@
       <c r="C69" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="D69" s="76" t="s">
+      <c r="D69" s="75" t="s">
         <v>809</v>
       </c>
       <c r="E69" s="17" t="s">
@@ -8360,9 +8366,9 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="95"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8413,35 +8419,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -8478,25 +8484,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -8526,21 +8532,21 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -8660,24 +8666,24 @@
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="74" customFormat="1">
+    <row r="21" spans="2:10" s="73" customFormat="1">
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="2:10" s="74" customFormat="1" ht="25.5">
-      <c r="B22" s="74" t="s">
+    <row r="22" spans="2:10" s="73" customFormat="1" ht="25.5">
+      <c r="B22" s="73" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="73" t="s">
         <v>786</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="74" customFormat="1">
+    <row r="23" spans="2:10" s="73" customFormat="1">
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="2:10" s="2" customFormat="1" ht="25.5">
@@ -8698,28 +8704,28 @@
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:10" s="2" customFormat="1">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="C26" s="94"/>
+      <c r="C26" s="95"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="2:10" s="76" customFormat="1" ht="63.75">
-      <c r="B27" s="76" t="s">
+    <row r="27" spans="2:10" s="75" customFormat="1" ht="63.75">
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>721</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="2:10" s="2" customFormat="1" ht="60">
       <c r="D28" s="2" t="s">
@@ -8915,7 +8921,7 @@
       <c r="C45" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="54" t="s">
         <v>724</v>
       </c>
       <c r="E45" s="17" t="s">
@@ -8935,7 +8941,7 @@
     <row r="46" spans="2:18" s="2" customFormat="1">
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
-      <c r="K46" s="56"/>
+      <c r="K46" s="55"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -9150,7 +9156,7 @@
       <c r="C59" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="54" t="s">
         <v>725</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -9181,14 +9187,14 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="2:18" s="2" customFormat="1" ht="89.25">
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="94"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="54" t="s">
         <v>726</v>
       </c>
       <c r="F61" s="10"/>
@@ -9209,7 +9215,7 @@
       <c r="D62" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="54" t="s">
         <v>727</v>
       </c>
       <c r="F62" s="10"/>
@@ -9425,10 +9431,10 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="2:18" s="2" customFormat="1" ht="51" customHeight="1">
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="94"/>
+      <c r="C73" s="95"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -9453,7 +9459,7 @@
       <c r="D74" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E74" s="92" t="s">
+      <c r="E74" s="91" t="s">
         <v>842</v>
       </c>
     </row>
@@ -9461,7 +9467,7 @@
       <c r="D75" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E75" s="92" t="s">
+      <c r="E75" s="91" t="s">
         <v>842</v>
       </c>
     </row>
@@ -9469,7 +9475,7 @@
       <c r="D76" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="54" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9483,7 +9489,7 @@
       <c r="D78" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="92" t="s">
+      <c r="E78" s="91" t="s">
         <v>842</v>
       </c>
     </row>
@@ -9497,7 +9503,7 @@
       <c r="D79" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="92" t="s">
+      <c r="E79" s="91" t="s">
         <v>843</v>
       </c>
     </row>
@@ -9515,10 +9521,10 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="41.25" customHeight="1">
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="C81" s="94"/>
+      <c r="C81" s="95"/>
     </row>
     <row r="82" spans="1:18" s="8" customFormat="1" ht="25.5">
       <c r="B82" s="8" t="s">
@@ -9545,9 +9551,9 @@
       <c r="R82" s="1"/>
     </row>
     <row r="84" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="95"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
@@ -9609,35 +9615,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -9674,25 +9680,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -9721,59 +9727,59 @@
       <c r="R4" s="4"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="8" spans="1:19" s="66" customFormat="1" ht="12.75">
-      <c r="B8" s="94" t="s">
+    <row r="8" spans="1:19" s="65" customFormat="1" ht="12.75">
+      <c r="B8" s="95" t="s">
         <v>765</v>
       </c>
-      <c r="C8" s="94"/>
-    </row>
-    <row r="9" spans="1:19" s="66" customFormat="1" ht="12.75">
-      <c r="B9" s="66" t="s">
+      <c r="C8" s="95"/>
+    </row>
+    <row r="9" spans="1:19" s="65" customFormat="1" ht="12.75">
+      <c r="B9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>759</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="66" customFormat="1" ht="25.5">
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="1:19" s="65" customFormat="1" ht="25.5">
+      <c r="B10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="65" t="s">
         <v>761</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="66" customFormat="1" ht="25.5">
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:19" s="65" customFormat="1" ht="25.5">
+      <c r="B11" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>763</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="65" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="66" customFormat="1" ht="12.75"/>
+    <row r="12" spans="1:19" s="65" customFormat="1" ht="12.75"/>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="C13" s="94"/>
+      <c r="C13" s="95"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="B14" s="2" t="s">
@@ -9876,10 +9882,10 @@
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="95" t="s">
         <v>767</v>
       </c>
-      <c r="C24" s="94"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -9920,7 +9926,7 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="2:10" s="2" customFormat="1">
-      <c r="B28" s="75"/>
+      <c r="B28" s="74"/>
       <c r="D28" s="2" t="s">
         <v>311</v>
       </c>
@@ -9992,10 +9998,10 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="95" t="s">
         <v>768</v>
       </c>
-      <c r="C33" s="94"/>
+      <c r="C33" s="95"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -10118,10 +10124,10 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="95" t="s">
         <v>769</v>
       </c>
-      <c r="C43" s="94"/>
+      <c r="C43" s="95"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -10252,10 +10258,10 @@
       <c r="R52" s="10"/>
     </row>
     <row r="53" spans="2:18" s="2" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="95" t="s">
         <v>770</v>
       </c>
-      <c r="C53" s="94"/>
+      <c r="C53" s="95"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -10292,7 +10298,7 @@
       <c r="C55" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="75" t="s">
         <v>813</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -10460,10 +10466,10 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B63" s="94" t="s">
+      <c r="B63" s="95" t="s">
         <v>771</v>
       </c>
-      <c r="C63" s="94"/>
+      <c r="C63" s="95"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -10587,10 +10593,10 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B69" s="94" t="s">
+      <c r="B69" s="95" t="s">
         <v>772</v>
       </c>
-      <c r="C69" s="94"/>
+      <c r="C69" s="95"/>
       <c r="E69" s="1"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -10630,7 +10636,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="71" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -10645,11 +10651,11 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="2:18" s="66" customFormat="1" ht="12.75">
-      <c r="B72" s="94" t="s">
+    <row r="72" spans="2:18" s="65" customFormat="1" ht="12.75">
+      <c r="B72" s="95" t="s">
         <v>773</v>
       </c>
-      <c r="C72" s="94"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="I72" s="1"/>
@@ -10663,17 +10669,17 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="2:18" s="66" customFormat="1" ht="12.75">
-      <c r="B73" s="66" t="s">
+    <row r="73" spans="2:18" s="65" customFormat="1" ht="12.75">
+      <c r="B73" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="D73" s="73" t="s">
+      <c r="D73" s="72" t="s">
         <v>775</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="67" t="s">
         <v>776</v>
       </c>
       <c r="I73" s="1"/>
@@ -10687,10 +10693,10 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="74" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C74" s="8"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70" t="s">
+      <c r="D74" s="68"/>
+      <c r="E74" s="69" t="s">
         <v>777</v>
       </c>
       <c r="I74" s="1"/>
@@ -10704,10 +10710,10 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="75" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C75" s="8"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="70" t="s">
+      <c r="D75" s="68"/>
+      <c r="E75" s="69" t="s">
         <v>790</v>
       </c>
       <c r="I75" s="1"/>
@@ -10721,12 +10727,12 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="76" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C76" s="8"/>
-      <c r="D76" s="73" t="s">
+      <c r="D76" s="72" t="s">
         <v>778</v>
       </c>
-      <c r="E76" s="68" t="s">
+      <c r="E76" s="67" t="s">
         <v>776</v>
       </c>
       <c r="I76" s="1"/>
@@ -10740,10 +10746,10 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="77" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C77" s="8"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72" t="s">
+      <c r="D77" s="70"/>
+      <c r="E77" s="71" t="s">
         <v>777</v>
       </c>
       <c r="I77" s="1"/>
@@ -10757,7 +10763,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="78" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -10772,7 +10778,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="79" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -10787,7 +10793,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="2:18" s="66" customFormat="1" ht="12.75">
+    <row r="80" spans="2:18" s="65" customFormat="1" ht="12.75">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -10818,9 +10824,9 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="95"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
@@ -10887,35 +10893,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -10953,11 +10959,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -11000,18 +11006,18 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="102"/>
+      <c r="C8" s="103"/>
       <c r="E8" s="1"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -11166,10 +11172,10 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="103"/>
       <c r="E22" s="18"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -11382,7 +11388,7 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="2:10" s="2" customFormat="1">
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="56" t="s">
         <v>735</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -11409,7 +11415,7 @@
       <c r="C42" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="56" t="s">
         <v>391</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -11422,7 +11428,7 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="2:10" s="2" customFormat="1">
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="56" t="s">
         <v>393</v>
       </c>
       <c r="E43" s="17" t="s">
@@ -11434,18 +11440,18 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="2:10" s="57" customFormat="1" ht="25.5">
-      <c r="D44" s="57" t="s">
+    <row r="44" spans="2:10" s="56" customFormat="1" ht="25.5">
+      <c r="D44" s="56" t="s">
         <v>737</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="2:10" s="2" customFormat="1">
       <c r="E45" s="17"/>
@@ -11537,10 +11543,10 @@
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="C52" s="102"/>
+      <c r="C52" s="103"/>
       <c r="E52" s="8"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -11773,7 +11779,7 @@
       <c r="R63" s="10"/>
     </row>
     <row r="64" spans="2:18" s="2" customFormat="1">
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="74" t="s">
         <v>791</v>
       </c>
       <c r="E64" s="17" t="s">
@@ -11794,7 +11800,7 @@
       <c r="R64" s="10"/>
     </row>
     <row r="65" spans="2:18" s="2" customFormat="1" ht="25.5">
-      <c r="D65" s="75" t="s">
+      <c r="D65" s="74" t="s">
         <v>792</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -11983,10 +11989,10 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="2:18" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="103" t="s">
         <v>413</v>
       </c>
-      <c r="C75" s="102"/>
+      <c r="C75" s="103"/>
       <c r="E75" s="17"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -12068,7 +12074,7 @@
       <c r="C79" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="56" t="s">
         <v>742</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -12417,7 +12423,7 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="D98" s="57" t="s">
+      <c r="D98" s="56" t="s">
         <v>735</v>
       </c>
       <c r="E98" s="17" t="s">
@@ -12558,10 +12564,10 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B106" s="102" t="s">
+      <c r="B106" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="C106" s="102"/>
+      <c r="C106" s="103"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="I106" s="1"/>
@@ -12887,10 +12893,10 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="2:18" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B122" s="102" t="s">
+      <c r="B122" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="C122" s="102"/>
+      <c r="C122" s="103"/>
       <c r="E122" s="18"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -12930,7 +12936,7 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="2:18" s="92" customFormat="1">
+    <row r="124" spans="2:18" s="91" customFormat="1">
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="46"/>
@@ -12945,8 +12951,8 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
     </row>
-    <row r="125" spans="2:18" s="92" customFormat="1" ht="30">
-      <c r="B125" s="92" t="s">
+    <row r="125" spans="2:18" s="91" customFormat="1" ht="30">
+      <c r="B125" s="91" t="s">
         <v>42</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -13320,10 +13326,10 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B143" s="102" t="s">
+      <c r="B143" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="102"/>
+      <c r="C143" s="103"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="I143" s="1"/>
@@ -13648,7 +13654,7 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="2:18" s="92" customFormat="1" ht="12.75">
+    <row r="159" spans="2:18" s="91" customFormat="1" ht="12.75">
       <c r="C159" s="7"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -13664,10 +13670,10 @@
       <c r="R159" s="1"/>
     </row>
     <row r="160" spans="2:18" s="2" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B160" s="102" t="s">
+      <c r="B160" s="103" t="s">
         <v>831</v>
       </c>
-      <c r="C160" s="102"/>
+      <c r="C160" s="103"/>
       <c r="E160" s="18"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -13879,9 +13885,9 @@
       <c r="R170" s="1"/>
     </row>
     <row r="171" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A171" s="95"/>
-      <c r="B171" s="95"/>
-      <c r="C171" s="95"/>
+      <c r="A171" s="96"/>
+      <c r="B171" s="96"/>
+      <c r="C171" s="96"/>
       <c r="I171" s="23"/>
       <c r="J171" s="23"/>
       <c r="K171" s="23"/>
@@ -13946,35 +13952,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -14011,25 +14017,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -14059,18 +14065,18 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>467</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="105"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -14299,11 +14305,11 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="57"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -14707,7 +14713,7 @@
       <c r="B54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="87" t="s">
+      <c r="D54" s="86" t="s">
         <v>794</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -14729,16 +14735,16 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
       <c r="S55"/>
       <c r="T55"/>
       <c r="U55"/>
@@ -15749,10 +15755,10 @@
     </row>
     <row r="56" spans="1:1025" ht="15" customHeight="1">
       <c r="A56"/>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="103" t="s">
         <v>522</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="9"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -34199,10 +34205,10 @@
     </row>
     <row r="74" spans="1:1025" ht="15" customHeight="1">
       <c r="A74"/>
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="103" t="s">
         <v>531</v>
       </c>
-      <c r="C74" s="102"/>
+      <c r="C74" s="103"/>
       <c r="S74"/>
       <c r="T74"/>
       <c r="U74"/>
@@ -49479,10 +49485,10 @@
     </row>
     <row r="89" spans="1:1025" ht="37.5" customHeight="1">
       <c r="A89"/>
-      <c r="B89" s="103" t="s">
+      <c r="B89" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="C89" s="103"/>
+      <c r="C89" s="104"/>
       <c r="S89"/>
       <c r="T89"/>
       <c r="U89"/>
@@ -65923,10 +65929,10 @@
     </row>
     <row r="105" spans="1:1025" ht="28.5" customHeight="1">
       <c r="A105"/>
-      <c r="B105" s="103" t="s">
+      <c r="B105" s="104" t="s">
         <v>546</v>
       </c>
-      <c r="C105" s="103"/>
+      <c r="C105" s="104"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105"/>
@@ -81257,11 +81263,11 @@
       <c r="AMK119"/>
     </row>
     <row r="120" spans="1:1025" s="2" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="103" t="s">
         <v>547</v>
       </c>
-      <c r="C120" s="102"/>
-      <c r="D120" s="57"/>
+      <c r="C120" s="103"/>
+      <c r="D120" s="56"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -81280,7 +81286,7 @@
       <c r="C121" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="58" t="s">
         <v>746</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -81301,7 +81307,7 @@
       <c r="B122" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="58" t="s">
         <v>747</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -81322,7 +81328,7 @@
       <c r="B123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="57" t="s">
+      <c r="D123" s="56" t="s">
         <v>552</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -81364,7 +81370,7 @@
       <c r="B125" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D125" s="57" t="s">
+      <c r="D125" s="56" t="s">
         <v>556</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -81385,7 +81391,7 @@
       <c r="B126" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="57" t="s">
+      <c r="D126" s="56" t="s">
         <v>558</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -81406,7 +81412,7 @@
       <c r="B127" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D127" s="57" t="s">
+      <c r="D127" s="56" t="s">
         <v>686</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -81636,7 +81642,7 @@
       <c r="C138" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D138" s="57" t="s">
+      <c r="D138" s="56" t="s">
         <v>576</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -81667,9 +81673,9 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A140" s="95"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="95"/>
+      <c r="A140" s="96"/>
+      <c r="B140" s="96"/>
+      <c r="C140" s="96"/>
       <c r="I140" s="23"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
@@ -81761,8 +81767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -81787,35 +81793,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="12.75"/>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:19" s="64" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -81852,25 +81858,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -81900,13 +81906,13 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75"/>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>748</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75">
       <c r="A7" s="51"/>
@@ -81917,10 +81923,10 @@
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="51"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="10"/>
@@ -81929,7 +81935,7 @@
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -81941,20 +81947,20 @@
       <c r="E9" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="7" t="s">
         <v>471</v>
       </c>
@@ -81967,7 +81973,7 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="25.5">
       <c r="A12" s="51"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -81982,14 +81988,14 @@
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75">
       <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" ht="25.5">
       <c r="A14" s="51"/>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -82004,7 +82010,7 @@
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>480</v>
@@ -82015,7 +82021,7 @@
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="12.75">
       <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>481</v>
@@ -82026,7 +82032,7 @@
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>483</v>
@@ -82037,14 +82043,14 @@
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="12.75">
       <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="25.5">
       <c r="A19" s="51"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -82059,7 +82065,7 @@
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="12.75">
       <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>488</v>
@@ -82181,19 +82187,19 @@
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -82210,7 +82216,7 @@
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -82219,7 +82225,7 @@
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -82236,7 +82242,7 @@
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
         <v>499</v>
@@ -82249,8 +82255,8 @@
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="8" t="s">
         <v>500</v>
       </c>
@@ -82262,7 +82268,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
@@ -82271,7 +82277,7 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" ht="25.5">
       <c r="A34" s="51"/>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -82288,14 +82294,14 @@
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="25.5">
       <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -82312,7 +82318,7 @@
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>480</v>
@@ -82325,7 +82331,7 @@
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1">
       <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
         <v>481</v>
@@ -82338,7 +82344,7 @@
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -82347,7 +82353,7 @@
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="A40" s="51"/>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -82364,8 +82370,8 @@
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="1" t="s">
         <v>505</v>
       </c>
@@ -82377,8 +82383,8 @@
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1">
       <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="I42" s="10"/>
@@ -82386,7 +82392,7 @@
     </row>
     <row r="43" spans="1:18" s="2" customFormat="1" ht="25.5">
       <c r="A43" s="51"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -82403,7 +82409,7 @@
     </row>
     <row r="44" spans="1:18" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
+      <c r="B44" s="93"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
         <v>488</v>
@@ -82618,7 +82624,7 @@
       <c r="R53" s="10"/>
     </row>
     <row r="54" spans="2:18" ht="25.5">
-      <c r="D54" s="87" t="s">
+      <c r="D54" s="86" t="s">
         <v>850</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -82652,10 +82658,10 @@
       <c r="R55" s="10"/>
     </row>
     <row r="56" spans="2:18" ht="15" customHeight="1">
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="C56" s="104"/>
+      <c r="C56" s="105"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -82722,7 +82728,7 @@
         <v>691</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -82766,7 +82772,7 @@
         <v>693</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -82884,7 +82890,7 @@
         <v>698</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -82918,7 +82924,7 @@
         <v>525</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
     </row>
     <row r="70" spans="2:18">
@@ -82930,13 +82936,15 @@
         <v>526</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="2:18">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="8" t="s">
@@ -82958,10 +82966,10 @@
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="2:18" ht="15" customHeight="1">
-      <c r="B74" s="104" t="s">
+      <c r="B74" s="105" t="s">
         <v>531</v>
       </c>
-      <c r="C74" s="104"/>
+      <c r="C74" s="105"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
@@ -83117,10 +83125,10 @@
       </c>
     </row>
     <row r="89" spans="2:18" ht="37.5" customHeight="1">
-      <c r="B89" s="105" t="s">
+      <c r="B89" s="106" t="s">
         <v>694</v>
       </c>
-      <c r="C89" s="105"/>
+      <c r="C89" s="106"/>
     </row>
     <row r="90" spans="2:18">
       <c r="B90" s="8" t="s">
@@ -83157,7 +83165,7 @@
         <v>691</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="2:18">
@@ -83191,7 +83199,7 @@
         <v>693</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
     </row>
     <row r="95" spans="2:18">
@@ -83257,7 +83265,7 @@
         <v>698</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -83281,7 +83289,7 @@
         <v>699</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -83299,13 +83307,15 @@
     <row r="104" spans="2:5">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="105" spans="2:5" ht="28.5" customHeight="1">
-      <c r="B105" s="105" t="s">
+      <c r="B105" s="106" t="s">
         <v>695</v>
       </c>
-      <c r="C105" s="105"/>
+      <c r="C105" s="106"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
     </row>
@@ -83458,10 +83468,12 @@
       </c>
     </row>
     <row r="120" spans="2:18" s="2" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B120" s="104" t="s">
+      <c r="B120" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="C120" s="104"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="93"/>
+      <c r="E120" s="93"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -83474,13 +83486,13 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="2:18" s="2" customFormat="1" ht="30">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="93" t="s">
         <v>549</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -83871,9 +83883,9 @@
       <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:18" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A141" s="95"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="95"/>
+      <c r="A141" s="96"/>
+      <c r="B141" s="96"/>
+      <c r="C141" s="96"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
@@ -83937,15 +83949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="107" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="106"/>
+      <c r="E1" s="107"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -83970,11 +83982,11 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -84024,25 +84036,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="91" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="91" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -84083,11 +84095,11 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -84112,10 +84124,10 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="104" t="s">
         <v>580</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="104"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -84134,10 +84146,10 @@
       <c r="C9" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>751</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>752</v>
       </c>
       <c r="I9" s="2"/>
@@ -84189,23 +84201,23 @@
       <c r="R11" s="2"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19" s="86" customFormat="1">
+    <row r="12" spans="1:19" s="85" customFormat="1">
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19" s="86" customFormat="1">
-      <c r="B13" s="86" t="s">
+    <row r="13" spans="1:19" s="85" customFormat="1">
+      <c r="B13" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -84217,35 +84229,35 @@
       <c r="E13" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19" s="86" customFormat="1">
+    <row r="14" spans="1:19" s="85" customFormat="1">
       <c r="D14" s="44" t="s">
         <v>824</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" s="10" customFormat="1">
@@ -84261,10 +84273,10 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="104"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -84286,7 +84298,7 @@
       <c r="D17" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>755</v>
       </c>
       <c r="I17" s="2"/>
@@ -84307,7 +84319,7 @@
       <c r="D18" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>756</v>
       </c>
       <c r="I18" s="2"/>
@@ -84427,7 +84439,7 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="2:18" s="10" customFormat="1">
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="92" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -84447,23 +84459,23 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="2:18" s="93" customFormat="1">
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
+    <row r="25" spans="2:18" s="92" customFormat="1">
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="2:18" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="104" t="s">
         <v>599</v>
       </c>
-      <c r="C26" s="103"/>
+      <c r="C26" s="104"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -85080,16 +85092,16 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="9" t="s">
@@ -85148,16 +85160,16 @@
       <c r="E60" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="9"/>
@@ -85274,10 +85286,10 @@
       <c r="R66" s="2"/>
     </row>
     <row r="67" spans="2:18" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="104" t="s">
         <v>639</v>
       </c>
-      <c r="C67" s="103"/>
+      <c r="C67" s="104"/>
       <c r="D67" s="9"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -85386,10 +85398,10 @@
     </row>
     <row r="76" spans="2:18" s="32" customFormat="1"/>
     <row r="77" spans="2:18" s="32" customFormat="1">
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="109" t="s">
         <v>779</v>
       </c>
-      <c r="C77" s="103"/>
+      <c r="C77" s="104"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
     </row>
@@ -85429,10 +85441,10 @@
       <c r="R79" s="10"/>
     </row>
     <row r="80" spans="2:18" ht="15" customHeight="1">
-      <c r="B80" s="108" t="s">
+      <c r="B80" s="109" t="s">
         <v>780</v>
       </c>
-      <c r="C80" s="103"/>
+      <c r="C80" s="104"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="I80" s="10"/>
@@ -85631,10 +85643,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="15" customHeight="1">
-      <c r="B97" s="103" t="s">
+      <c r="B97" s="104" t="s">
         <v>729</v>
       </c>
-      <c r="C97" s="103"/>
+      <c r="C97" s="104"/>
     </row>
     <row r="98" spans="2:5" ht="45">
       <c r="B98" s="22" t="s">
@@ -85662,202 +85674,202 @@
       <c r="D100" s="9"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="109" t="s">
         <v>781</v>
       </c>
-      <c r="C101" s="103"/>
+      <c r="C101" s="104"/>
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="2:5" ht="45">
-      <c r="B102" s="60" t="s">
+      <c r="B102" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="44" t="s">
         <v>738</v>
       </c>
-      <c r="E102" s="60" t="s">
+      <c r="E102" s="59" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="15" customHeight="1">
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="109" t="s">
         <v>782</v>
       </c>
-      <c r="C103" s="108"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="44"/>
-      <c r="E103" s="60"/>
+      <c r="E103" s="59"/>
     </row>
     <row r="104" spans="2:5" ht="45">
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="E104" s="60" t="s">
+      <c r="E104" s="59" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="60"/>
+      <c r="B105" s="59"/>
       <c r="D105" s="44"/>
-      <c r="E105" s="60"/>
+      <c r="E105" s="59"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="108" t="s">
+      <c r="B106" s="109" t="s">
         <v>787</v>
       </c>
-      <c r="C106" s="108"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="44"/>
-      <c r="E106" s="60"/>
+      <c r="E106" s="59"/>
     </row>
     <row r="107" spans="2:5" ht="30">
-      <c r="B107" s="60" t="s">
+      <c r="B107" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="E107" s="60" t="s">
+      <c r="E107" s="59" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="60"/>
+      <c r="B108" s="59"/>
       <c r="D108" s="44"/>
-      <c r="E108" s="60"/>
+      <c r="E108" s="59"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="108" t="s">
+      <c r="B109" s="109" t="s">
         <v>795</v>
       </c>
-      <c r="C109" s="108"/>
-      <c r="E109" s="60"/>
+      <c r="C109" s="109"/>
+      <c r="E109" s="59"/>
     </row>
     <row r="110" spans="2:5" ht="30">
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C110" s="77" t="s">
         <v>798</v>
       </c>
-      <c r="D110" s="79" t="s">
+      <c r="D110" s="78" t="s">
         <v>801</v>
       </c>
-      <c r="E110" s="60" t="s">
+      <c r="E110" s="59" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="45">
-      <c r="B111" s="60"/>
-      <c r="D111" s="80" t="s">
+      <c r="B111" s="59"/>
+      <c r="D111" s="79" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="45">
-      <c r="B112" s="60"/>
+      <c r="B112" s="59"/>
       <c r="D112" s="44" t="s">
         <v>804</v>
       </c>
-      <c r="E112" s="60" t="s">
+      <c r="E112" s="59" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="113" spans="1:1087" ht="90">
-      <c r="B113" s="60"/>
-      <c r="C113" s="78" t="s">
+      <c r="B113" s="59"/>
+      <c r="C113" s="77" t="s">
         <v>797</v>
       </c>
-      <c r="D113" s="79" t="s">
+      <c r="D113" s="78" t="s">
         <v>802</v>
       </c>
-      <c r="E113" s="60" t="s">
+      <c r="E113" s="59" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="114" spans="1:1087" ht="75">
-      <c r="B114" s="60"/>
+      <c r="B114" s="59"/>
       <c r="D114" s="44" t="s">
         <v>803</v>
       </c>
-      <c r="E114" s="60" t="s">
+      <c r="E114" s="59" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="115" spans="1:1087">
-      <c r="B115" s="60"/>
+      <c r="B115" s="59"/>
       <c r="D115" s="44"/>
-      <c r="E115" s="60"/>
+      <c r="E115" s="59"/>
     </row>
     <row r="116" spans="1:1087">
-      <c r="B116" s="108" t="s">
+      <c r="B116" s="109" t="s">
         <v>817</v>
       </c>
-      <c r="C116" s="108"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="44"/>
-      <c r="E116" s="60"/>
+      <c r="E116" s="59"/>
     </row>
     <row r="117" spans="1:1087" ht="45">
-      <c r="B117" s="60" t="s">
+      <c r="B117" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="44" t="s">
         <v>818</v>
       </c>
-      <c r="E117" s="60" t="s">
+      <c r="E117" s="59" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="118" spans="1:1087">
-      <c r="B118" s="60"/>
+      <c r="B118" s="59"/>
       <c r="D118" s="44"/>
-      <c r="E118" s="60"/>
+      <c r="E118" s="59"/>
     </row>
     <row r="119" spans="1:1087">
-      <c r="B119" s="108" t="s">
+      <c r="B119" s="109" t="s">
         <v>826</v>
       </c>
-      <c r="C119" s="108"/>
+      <c r="C119" s="109"/>
       <c r="D119" s="44"/>
-      <c r="E119" s="60"/>
+      <c r="E119" s="59"/>
     </row>
     <row r="120" spans="1:1087" ht="30">
-      <c r="B120" s="60" t="s">
+      <c r="B120" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="78" t="s">
+      <c r="C120" s="77" t="s">
         <v>827</v>
       </c>
       <c r="D120" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="E120" s="60" t="s">
+      <c r="E120" s="59" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="121" spans="1:1087">
-      <c r="B121" s="60"/>
+      <c r="B121" s="59"/>
       <c r="D121" s="44"/>
-      <c r="E121" s="60"/>
+      <c r="E121" s="59"/>
     </row>
     <row r="122" spans="1:1087" ht="45">
-      <c r="B122" s="60" t="s">
+      <c r="B122" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="C122" s="77" t="s">
         <v>829</v>
       </c>
       <c r="D122" s="44" t="s">
         <v>841</v>
       </c>
-      <c r="E122" s="60" t="s">
+      <c r="E122" s="59" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="123" spans="1:1087">
-      <c r="B123" s="60"/>
+      <c r="B123" s="59"/>
       <c r="D123" s="44"/>
-      <c r="E123" s="60"/>
+      <c r="E123" s="59"/>
     </row>
     <row r="124" spans="1:1087">
       <c r="A124" s="31"/>

--- a/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
+++ b/Mobile/Manual/Unified Mobile Functional Test Template .xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="857">
   <si>
     <t>Test date:</t>
   </si>
@@ -5378,9 +5378,6 @@
     <t>8.2 iPhone built-in music controls</t>
   </si>
   <si>
-    <t>8.3 Rate app</t>
-  </si>
-  <si>
     <t>Rate app</t>
   </si>
   <si>
@@ -5390,6 +5387,24 @@
   </si>
   <si>
     <t>The Store app should open on the correct app page</t>
+  </si>
+  <si>
+    <t>8.3 Rate and Share app</t>
+  </si>
+  <si>
+    <t>Share app</t>
+  </si>
+  <si>
+    <t>Reinstall the app and Repeat the above test for Twitter</t>
+  </si>
+  <si>
+    <t>[1] Reinstall the app and Repeat the above test for Email
+[2] Click the picture in the Email on the device</t>
+  </si>
+  <si>
+    <t>[1] Cold start the app up to 5 times until Share screen appears
+[2] Click Facebook
+[3] Sign in and Follow link posted</t>
   </si>
 </sst>
 </file>
@@ -7348,7 +7363,7 @@
   <dimension ref="A1:AMK73"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8380,16 +8395,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8401,8 +8416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK84"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9575,17 +9590,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10824,11 +10839,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B62:C62"/>
@@ -10839,6 +10849,11 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13813,11 +13828,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B142:C142"/>
     <mergeCell ref="B157:C157"/>
@@ -13827,6 +13837,11 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B106:C106"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -81655,11 +81670,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A140:C140"/>
@@ -81668,6 +81678,11 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -83811,11 +83826,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="A141:C141"/>
@@ -83824,6 +83834,11 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -83833,10 +83848,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AOU127"/>
+  <dimension ref="A1:AOU131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -85687,7 +85702,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="113" spans="1:1087" ht="90">
+    <row r="113" spans="2:5" ht="90">
       <c r="B113" s="59"/>
       <c r="C113" s="77" t="s">
         <v>790</v>
@@ -85699,7 +85714,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="114" spans="1:1087" ht="75">
+    <row r="114" spans="2:5" ht="75">
       <c r="B114" s="59"/>
       <c r="D114" s="44" t="s">
         <v>796</v>
@@ -85708,12 +85723,12 @@
         <v>793</v>
       </c>
     </row>
-    <row r="115" spans="1:1087">
+    <row r="115" spans="2:5">
       <c r="B115" s="59"/>
       <c r="D115" s="44"/>
       <c r="E115" s="59"/>
     </row>
-    <row r="116" spans="1:1087">
+    <row r="116" spans="2:5">
       <c r="B116" s="108" t="s">
         <v>810</v>
       </c>
@@ -85721,7 +85736,7 @@
       <c r="D116" s="44"/>
       <c r="E116" s="59"/>
     </row>
-    <row r="117" spans="1:1087" ht="45">
+    <row r="117" spans="2:5" ht="45">
       <c r="B117" s="59" t="s">
         <v>26</v>
       </c>
@@ -85732,12 +85747,12 @@
         <v>814</v>
       </c>
     </row>
-    <row r="118" spans="1:1087">
+    <row r="118" spans="2:5">
       <c r="B118" s="59"/>
       <c r="D118" s="44"/>
       <c r="E118" s="59"/>
     </row>
-    <row r="119" spans="1:1087">
+    <row r="119" spans="2:5">
       <c r="B119" s="108" t="s">
         <v>848</v>
       </c>
@@ -85745,7 +85760,7 @@
       <c r="D119" s="44"/>
       <c r="E119" s="59"/>
     </row>
-    <row r="120" spans="1:1087" ht="30">
+    <row r="120" spans="2:5" ht="30">
       <c r="B120" s="59" t="s">
         <v>42</v>
       </c>
@@ -85759,12 +85774,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="121" spans="1:1087">
+    <row r="121" spans="2:5">
       <c r="B121" s="59"/>
       <c r="D121" s="44"/>
       <c r="E121" s="59"/>
     </row>
-    <row r="122" spans="1:1087" ht="45">
+    <row r="122" spans="2:5" ht="45">
       <c r="B122" s="59" t="s">
         <v>42</v>
       </c>
@@ -85778,1130 +85793,1176 @@
         <v>820</v>
       </c>
     </row>
-    <row r="123" spans="1:1087">
+    <row r="123" spans="2:5">
       <c r="B123" s="59"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
       <c r="E123" s="59"/>
     </row>
-    <row r="124" spans="1:1087">
+    <row r="124" spans="2:5">
       <c r="B124" s="108" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C124" s="108"/>
       <c r="D124" s="44"/>
       <c r="E124" s="59"/>
     </row>
-    <row r="125" spans="1:1087" ht="45">
+    <row r="125" spans="2:5" ht="45">
       <c r="B125" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C125" s="77" t="s">
+        <v>849</v>
+      </c>
+      <c r="D125" s="44" t="s">
         <v>850</v>
       </c>
-      <c r="D125" s="44" t="s">
+      <c r="E125" s="59" t="s">
         <v>851</v>
       </c>
-      <c r="E125" s="59" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1087">
+    </row>
+    <row r="126" spans="2:5">
       <c r="B126" s="59"/>
       <c r="D126" s="44"/>
       <c r="E126" s="59"/>
     </row>
-    <row r="127" spans="1:1087">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="31"/>
-      <c r="N127" s="31"/>
-      <c r="O127" s="31"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="31"/>
-      <c r="R127" s="31"/>
-      <c r="S127" s="31"/>
-      <c r="T127" s="31"/>
-      <c r="U127" s="31"/>
-      <c r="V127" s="31"/>
-      <c r="W127" s="31"/>
-      <c r="X127" s="31"/>
-      <c r="Y127" s="31"/>
-      <c r="Z127" s="31"/>
-      <c r="AA127" s="31"/>
-      <c r="AB127" s="31"/>
-      <c r="AC127" s="31"/>
-      <c r="AD127" s="31"/>
-      <c r="AE127" s="31"/>
-      <c r="AF127" s="31"/>
-      <c r="AG127" s="31"/>
-      <c r="AH127" s="31"/>
-      <c r="AI127" s="31"/>
-      <c r="AJ127" s="31"/>
-      <c r="AK127" s="31"/>
-      <c r="AL127" s="31"/>
-      <c r="AM127" s="31"/>
-      <c r="AN127" s="31"/>
-      <c r="AO127" s="31"/>
-      <c r="AP127" s="31"/>
-      <c r="AQ127" s="31"/>
-      <c r="AR127" s="31"/>
-      <c r="AS127" s="31"/>
-      <c r="AT127" s="31"/>
-      <c r="AU127" s="31"/>
-      <c r="AV127" s="31"/>
-      <c r="AW127" s="31"/>
-      <c r="AX127" s="31"/>
-      <c r="AY127" s="31"/>
-      <c r="AZ127" s="31"/>
-      <c r="BA127" s="31"/>
-      <c r="BB127" s="31"/>
-      <c r="BC127" s="31"/>
-      <c r="BD127" s="31"/>
-      <c r="BE127" s="31"/>
-      <c r="BF127" s="31"/>
-      <c r="BG127" s="31"/>
-      <c r="BH127" s="31"/>
-      <c r="BI127" s="31"/>
-      <c r="BJ127" s="31"/>
-      <c r="BK127" s="31"/>
-      <c r="BL127" s="31"/>
-      <c r="BM127" s="31"/>
-      <c r="BN127" s="31"/>
-      <c r="BO127" s="31"/>
-      <c r="BP127" s="31"/>
-      <c r="BQ127" s="31"/>
-      <c r="BR127" s="31"/>
-      <c r="BS127" s="31"/>
-      <c r="BT127" s="31"/>
-      <c r="BU127" s="31"/>
-      <c r="BV127" s="31"/>
-      <c r="BW127" s="31"/>
-      <c r="BX127" s="31"/>
-      <c r="BY127" s="31"/>
-      <c r="BZ127" s="31"/>
-      <c r="CA127" s="31"/>
-      <c r="CB127" s="31"/>
-      <c r="CC127" s="31"/>
-      <c r="CD127" s="31"/>
-      <c r="CE127" s="31"/>
-      <c r="CF127" s="31"/>
-      <c r="CG127" s="31"/>
-      <c r="CH127" s="31"/>
-      <c r="CI127" s="31"/>
-      <c r="CJ127" s="31"/>
-      <c r="CK127" s="31"/>
-      <c r="CL127" s="31"/>
-      <c r="CM127" s="31"/>
-      <c r="CN127" s="31"/>
-      <c r="CO127" s="31"/>
-      <c r="CP127" s="31"/>
-      <c r="CQ127" s="31"/>
-      <c r="CR127" s="31"/>
-      <c r="CS127" s="31"/>
-      <c r="CT127" s="31"/>
-      <c r="CU127" s="31"/>
-      <c r="CV127" s="31"/>
-      <c r="CW127" s="31"/>
-      <c r="CX127" s="31"/>
-      <c r="CY127" s="31"/>
-      <c r="CZ127" s="31"/>
-      <c r="DA127" s="31"/>
-      <c r="DB127" s="31"/>
-      <c r="DC127" s="31"/>
-      <c r="DD127" s="31"/>
-      <c r="DE127" s="31"/>
-      <c r="DF127" s="31"/>
-      <c r="DG127" s="31"/>
-      <c r="DH127" s="31"/>
-      <c r="DI127" s="31"/>
-      <c r="DJ127" s="31"/>
-      <c r="DK127" s="31"/>
-      <c r="DL127" s="31"/>
-      <c r="DM127" s="31"/>
-      <c r="DN127" s="31"/>
-      <c r="DO127" s="31"/>
-      <c r="DP127" s="31"/>
-      <c r="DQ127" s="31"/>
-      <c r="DR127" s="31"/>
-      <c r="DS127" s="31"/>
-      <c r="DT127" s="31"/>
-      <c r="DU127" s="31"/>
-      <c r="DV127" s="31"/>
-      <c r="DW127" s="31"/>
-      <c r="DX127" s="31"/>
-      <c r="DY127" s="31"/>
-      <c r="DZ127" s="31"/>
-      <c r="EA127" s="31"/>
-      <c r="EB127" s="31"/>
-      <c r="EC127" s="31"/>
-      <c r="ED127" s="31"/>
-      <c r="EE127" s="31"/>
-      <c r="EF127" s="31"/>
-      <c r="EG127" s="31"/>
-      <c r="EH127" s="31"/>
-      <c r="EI127" s="31"/>
-      <c r="EJ127" s="31"/>
-      <c r="EK127" s="31"/>
-      <c r="EL127" s="31"/>
-      <c r="EM127" s="31"/>
-      <c r="EN127" s="31"/>
-      <c r="EO127" s="31"/>
-      <c r="EP127" s="31"/>
-      <c r="EQ127" s="31"/>
-      <c r="ER127" s="31"/>
-      <c r="ES127" s="31"/>
-      <c r="ET127" s="31"/>
-      <c r="EU127" s="31"/>
-      <c r="EV127" s="31"/>
-      <c r="EW127" s="31"/>
-      <c r="EX127" s="31"/>
-      <c r="EY127" s="31"/>
-      <c r="EZ127" s="31"/>
-      <c r="FA127" s="31"/>
-      <c r="FB127" s="31"/>
-      <c r="FC127" s="31"/>
-      <c r="FD127" s="31"/>
-      <c r="FE127" s="31"/>
-      <c r="FF127" s="31"/>
-      <c r="FG127" s="31"/>
-      <c r="FH127" s="31"/>
-      <c r="FI127" s="31"/>
-      <c r="FJ127" s="31"/>
-      <c r="FK127" s="31"/>
-      <c r="FL127" s="31"/>
-      <c r="FM127" s="31"/>
-      <c r="FN127" s="31"/>
-      <c r="FO127" s="31"/>
-      <c r="FP127" s="31"/>
-      <c r="FQ127" s="31"/>
-      <c r="FR127" s="31"/>
-      <c r="FS127" s="31"/>
-      <c r="FT127" s="31"/>
-      <c r="FU127" s="31"/>
-      <c r="FV127" s="31"/>
-      <c r="FW127" s="31"/>
-      <c r="FX127" s="31"/>
-      <c r="FY127" s="31"/>
-      <c r="FZ127" s="31"/>
-      <c r="GA127" s="31"/>
-      <c r="GB127" s="31"/>
-      <c r="GC127" s="31"/>
-      <c r="GD127" s="31"/>
-      <c r="GE127" s="31"/>
-      <c r="GF127" s="31"/>
-      <c r="GG127" s="31"/>
-      <c r="GH127" s="31"/>
-      <c r="GI127" s="31"/>
-      <c r="GJ127" s="31"/>
-      <c r="GK127" s="31"/>
-      <c r="GL127" s="31"/>
-      <c r="GM127" s="31"/>
-      <c r="GN127" s="31"/>
-      <c r="GO127" s="31"/>
-      <c r="GP127" s="31"/>
-      <c r="GQ127" s="31"/>
-      <c r="GR127" s="31"/>
-      <c r="GS127" s="31"/>
-      <c r="GT127" s="31"/>
-      <c r="GU127" s="31"/>
-      <c r="GV127" s="31"/>
-      <c r="GW127" s="31"/>
-      <c r="GX127" s="31"/>
-      <c r="GY127" s="31"/>
-      <c r="GZ127" s="31"/>
-      <c r="HA127" s="31"/>
-      <c r="HB127" s="31"/>
-      <c r="HC127" s="31"/>
-      <c r="HD127" s="31"/>
-      <c r="HE127" s="31"/>
-      <c r="HF127" s="31"/>
-      <c r="HG127" s="31"/>
-      <c r="HH127" s="31"/>
-      <c r="HI127" s="31"/>
-      <c r="HJ127" s="31"/>
-      <c r="HK127" s="31"/>
-      <c r="HL127" s="31"/>
-      <c r="HM127" s="31"/>
-      <c r="HN127" s="31"/>
-      <c r="HO127" s="31"/>
-      <c r="HP127" s="31"/>
-      <c r="HQ127" s="31"/>
-      <c r="HR127" s="31"/>
-      <c r="HS127" s="31"/>
-      <c r="HT127" s="31"/>
-      <c r="HU127" s="31"/>
-      <c r="HV127" s="31"/>
-      <c r="HW127" s="31"/>
-      <c r="HX127" s="31"/>
-      <c r="HY127" s="31"/>
-      <c r="HZ127" s="31"/>
-      <c r="IA127" s="31"/>
-      <c r="IB127" s="31"/>
-      <c r="IC127" s="31"/>
-      <c r="ID127" s="31"/>
-      <c r="IE127" s="31"/>
-      <c r="IF127" s="31"/>
-      <c r="IG127" s="31"/>
-      <c r="IH127" s="31"/>
-      <c r="II127" s="31"/>
-      <c r="IJ127" s="31"/>
-      <c r="IK127" s="31"/>
-      <c r="IL127" s="31"/>
-      <c r="IM127" s="31"/>
-      <c r="IN127" s="31"/>
-      <c r="IO127" s="31"/>
-      <c r="IP127" s="31"/>
-      <c r="IQ127" s="31"/>
-      <c r="IR127" s="31"/>
-      <c r="IS127" s="31"/>
-      <c r="IT127" s="31"/>
-      <c r="IU127" s="31"/>
-      <c r="IV127" s="31"/>
-      <c r="IW127" s="31"/>
-      <c r="IX127" s="31"/>
-      <c r="IY127" s="31"/>
-      <c r="IZ127" s="31"/>
-      <c r="JA127" s="31"/>
-      <c r="JB127" s="31"/>
-      <c r="JC127" s="31"/>
-      <c r="JD127" s="31"/>
-      <c r="JE127" s="31"/>
-      <c r="JF127" s="31"/>
-      <c r="JG127" s="31"/>
-      <c r="JH127" s="31"/>
-      <c r="JI127" s="31"/>
-      <c r="JJ127" s="31"/>
-      <c r="JK127" s="31"/>
-      <c r="JL127" s="31"/>
-      <c r="JM127" s="31"/>
-      <c r="JN127" s="31"/>
-      <c r="JO127" s="31"/>
-      <c r="JP127" s="31"/>
-      <c r="JQ127" s="31"/>
-      <c r="JR127" s="31"/>
-      <c r="JS127" s="31"/>
-      <c r="JT127" s="31"/>
-      <c r="JU127" s="31"/>
-      <c r="JV127" s="31"/>
-      <c r="JW127" s="31"/>
-      <c r="JX127" s="31"/>
-      <c r="JY127" s="31"/>
-      <c r="JZ127" s="31"/>
-      <c r="KA127" s="31"/>
-      <c r="KB127" s="31"/>
-      <c r="KC127" s="31"/>
-      <c r="KD127" s="31"/>
-      <c r="KE127" s="31"/>
-      <c r="KF127" s="31"/>
-      <c r="KG127" s="31"/>
-      <c r="KH127" s="31"/>
-      <c r="KI127" s="31"/>
-      <c r="KJ127" s="31"/>
-      <c r="KK127" s="31"/>
-      <c r="KL127" s="31"/>
-      <c r="KM127" s="31"/>
-      <c r="KN127" s="31"/>
-      <c r="KO127" s="31"/>
-      <c r="KP127" s="31"/>
-      <c r="KQ127" s="31"/>
-      <c r="KR127" s="31"/>
-      <c r="KS127" s="31"/>
-      <c r="KT127" s="31"/>
-      <c r="KU127" s="31"/>
-      <c r="KV127" s="31"/>
-      <c r="KW127" s="31"/>
-      <c r="KX127" s="31"/>
-      <c r="KY127" s="31"/>
-      <c r="KZ127" s="31"/>
-      <c r="LA127" s="31"/>
-      <c r="LB127" s="31"/>
-      <c r="LC127" s="31"/>
-      <c r="LD127" s="31"/>
-      <c r="LE127" s="31"/>
-      <c r="LF127" s="31"/>
-      <c r="LG127" s="31"/>
-      <c r="LH127" s="31"/>
-      <c r="LI127" s="31"/>
-      <c r="LJ127" s="31"/>
-      <c r="LK127" s="31"/>
-      <c r="LL127" s="31"/>
-      <c r="LM127" s="31"/>
-      <c r="LN127" s="31"/>
-      <c r="LO127" s="31"/>
-      <c r="LP127" s="31"/>
-      <c r="LQ127" s="31"/>
-      <c r="LR127" s="31"/>
-      <c r="LS127" s="31"/>
-      <c r="LT127" s="31"/>
-      <c r="LU127" s="31"/>
-      <c r="LV127" s="31"/>
-      <c r="LW127" s="31"/>
-      <c r="LX127" s="31"/>
-      <c r="LY127" s="31"/>
-      <c r="LZ127" s="31"/>
-      <c r="MA127" s="31"/>
-      <c r="MB127" s="31"/>
-      <c r="MC127" s="31"/>
-      <c r="MD127" s="31"/>
-      <c r="ME127" s="31"/>
-      <c r="MF127" s="31"/>
-      <c r="MG127" s="31"/>
-      <c r="MH127" s="31"/>
-      <c r="MI127" s="31"/>
-      <c r="MJ127" s="31"/>
-      <c r="MK127" s="31"/>
-      <c r="ML127" s="31"/>
-      <c r="MM127" s="31"/>
-      <c r="MN127" s="31"/>
-      <c r="MO127" s="31"/>
-      <c r="MP127" s="31"/>
-      <c r="MQ127" s="31"/>
-      <c r="MR127" s="31"/>
-      <c r="MS127" s="31"/>
-      <c r="MT127" s="31"/>
-      <c r="MU127" s="31"/>
-      <c r="MV127" s="31"/>
-      <c r="MW127" s="31"/>
-      <c r="MX127" s="31"/>
-      <c r="MY127" s="31"/>
-      <c r="MZ127" s="31"/>
-      <c r="NA127" s="31"/>
-      <c r="NB127" s="31"/>
-      <c r="NC127" s="31"/>
-      <c r="ND127" s="31"/>
-      <c r="NE127" s="31"/>
-      <c r="NF127" s="31"/>
-      <c r="NG127" s="31"/>
-      <c r="NH127" s="31"/>
-      <c r="NI127" s="31"/>
-      <c r="NJ127" s="31"/>
-      <c r="NK127" s="31"/>
-      <c r="NL127" s="31"/>
-      <c r="NM127" s="31"/>
-      <c r="NN127" s="31"/>
-      <c r="NO127" s="31"/>
-      <c r="NP127" s="31"/>
-      <c r="NQ127" s="31"/>
-      <c r="NR127" s="31"/>
-      <c r="NS127" s="31"/>
-      <c r="NT127" s="31"/>
-      <c r="NU127" s="31"/>
-      <c r="NV127" s="31"/>
-      <c r="NW127" s="31"/>
-      <c r="NX127" s="31"/>
-      <c r="NY127" s="31"/>
-      <c r="NZ127" s="31"/>
-      <c r="OA127" s="31"/>
-      <c r="OB127" s="31"/>
-      <c r="OC127" s="31"/>
-      <c r="OD127" s="31"/>
-      <c r="OE127" s="31"/>
-      <c r="OF127" s="31"/>
-      <c r="OG127" s="31"/>
-      <c r="OH127" s="31"/>
-      <c r="OI127" s="31"/>
-      <c r="OJ127" s="31"/>
-      <c r="OK127" s="31"/>
-      <c r="OL127" s="31"/>
-      <c r="OM127" s="31"/>
-      <c r="ON127" s="31"/>
-      <c r="OO127" s="31"/>
-      <c r="OP127" s="31"/>
-      <c r="OQ127" s="31"/>
-      <c r="OR127" s="31"/>
-      <c r="OS127" s="31"/>
-      <c r="OT127" s="31"/>
-      <c r="OU127" s="31"/>
-      <c r="OV127" s="31"/>
-      <c r="OW127" s="31"/>
-      <c r="OX127" s="31"/>
-      <c r="OY127" s="31"/>
-      <c r="OZ127" s="31"/>
-      <c r="PA127" s="31"/>
-      <c r="PB127" s="31"/>
-      <c r="PC127" s="31"/>
-      <c r="PD127" s="31"/>
-      <c r="PE127" s="31"/>
-      <c r="PF127" s="31"/>
-      <c r="PG127" s="31"/>
-      <c r="PH127" s="31"/>
-      <c r="PI127" s="31"/>
-      <c r="PJ127" s="31"/>
-      <c r="PK127" s="31"/>
-      <c r="PL127" s="31"/>
-      <c r="PM127" s="31"/>
-      <c r="PN127" s="31"/>
-      <c r="PO127" s="31"/>
-      <c r="PP127" s="31"/>
-      <c r="PQ127" s="31"/>
-      <c r="PR127" s="31"/>
-      <c r="PS127" s="31"/>
-      <c r="PT127" s="31"/>
-      <c r="PU127" s="31"/>
-      <c r="PV127" s="31"/>
-      <c r="PW127" s="31"/>
-      <c r="PX127" s="31"/>
-      <c r="PY127" s="31"/>
-      <c r="PZ127" s="31"/>
-      <c r="QA127" s="31"/>
-      <c r="QB127" s="31"/>
-      <c r="QC127" s="31"/>
-      <c r="QD127" s="31"/>
-      <c r="QE127" s="31"/>
-      <c r="QF127" s="31"/>
-      <c r="QG127" s="31"/>
-      <c r="QH127" s="31"/>
-      <c r="QI127" s="31"/>
-      <c r="QJ127" s="31"/>
-      <c r="QK127" s="31"/>
-      <c r="QL127" s="31"/>
-      <c r="QM127" s="31"/>
-      <c r="QN127" s="31"/>
-      <c r="QO127" s="31"/>
-      <c r="QP127" s="31"/>
-      <c r="QQ127" s="31"/>
-      <c r="QR127" s="31"/>
-      <c r="QS127" s="31"/>
-      <c r="QT127" s="31"/>
-      <c r="QU127" s="31"/>
-      <c r="QV127" s="31"/>
-      <c r="QW127" s="31"/>
-      <c r="QX127" s="31"/>
-      <c r="QY127" s="31"/>
-      <c r="QZ127" s="31"/>
-      <c r="RA127" s="31"/>
-      <c r="RB127" s="31"/>
-      <c r="RC127" s="31"/>
-      <c r="RD127" s="31"/>
-      <c r="RE127" s="31"/>
-      <c r="RF127" s="31"/>
-      <c r="RG127" s="31"/>
-      <c r="RH127" s="31"/>
-      <c r="RI127" s="31"/>
-      <c r="RJ127" s="31"/>
-      <c r="RK127" s="31"/>
-      <c r="RL127" s="31"/>
-      <c r="RM127" s="31"/>
-      <c r="RN127" s="31"/>
-      <c r="RO127" s="31"/>
-      <c r="RP127" s="31"/>
-      <c r="RQ127" s="31"/>
-      <c r="RR127" s="31"/>
-      <c r="RS127" s="31"/>
-      <c r="RT127" s="31"/>
-      <c r="RU127" s="31"/>
-      <c r="RV127" s="31"/>
-      <c r="RW127" s="31"/>
-      <c r="RX127" s="31"/>
-      <c r="RY127" s="31"/>
-      <c r="RZ127" s="31"/>
-      <c r="SA127" s="31"/>
-      <c r="SB127" s="31"/>
-      <c r="SC127" s="31"/>
-      <c r="SD127" s="31"/>
-      <c r="SE127" s="31"/>
-      <c r="SF127" s="31"/>
-      <c r="SG127" s="31"/>
-      <c r="SH127" s="31"/>
-      <c r="SI127" s="31"/>
-      <c r="SJ127" s="31"/>
-      <c r="SK127" s="31"/>
-      <c r="SL127" s="31"/>
-      <c r="SM127" s="31"/>
-      <c r="SN127" s="31"/>
-      <c r="SO127" s="31"/>
-      <c r="SP127" s="31"/>
-      <c r="SQ127" s="31"/>
-      <c r="SR127" s="31"/>
-      <c r="SS127" s="31"/>
-      <c r="ST127" s="31"/>
-      <c r="SU127" s="31"/>
-      <c r="SV127" s="31"/>
-      <c r="SW127" s="31"/>
-      <c r="SX127" s="31"/>
-      <c r="SY127" s="31"/>
-      <c r="SZ127" s="31"/>
-      <c r="TA127" s="31"/>
-      <c r="TB127" s="31"/>
-      <c r="TC127" s="31"/>
-      <c r="TD127" s="31"/>
-      <c r="TE127" s="31"/>
-      <c r="TF127" s="31"/>
-      <c r="TG127" s="31"/>
-      <c r="TH127" s="31"/>
-      <c r="TI127" s="31"/>
-      <c r="TJ127" s="31"/>
-      <c r="TK127" s="31"/>
-      <c r="TL127" s="31"/>
-      <c r="TM127" s="31"/>
-      <c r="TN127" s="31"/>
-      <c r="TO127" s="31"/>
-      <c r="TP127" s="31"/>
-      <c r="TQ127" s="31"/>
-      <c r="TR127" s="31"/>
-      <c r="TS127" s="31"/>
-      <c r="TT127" s="31"/>
-      <c r="TU127" s="31"/>
-      <c r="TV127" s="31"/>
-      <c r="TW127" s="31"/>
-      <c r="TX127" s="31"/>
-      <c r="TY127" s="31"/>
-      <c r="TZ127" s="31"/>
-      <c r="UA127" s="31"/>
-      <c r="UB127" s="31"/>
-      <c r="UC127" s="31"/>
-      <c r="UD127" s="31"/>
-      <c r="UE127" s="31"/>
-      <c r="UF127" s="31"/>
-      <c r="UG127" s="31"/>
-      <c r="UH127" s="31"/>
-      <c r="UI127" s="31"/>
-      <c r="UJ127" s="31"/>
-      <c r="UK127" s="31"/>
-      <c r="UL127" s="31"/>
-      <c r="UM127" s="31"/>
-      <c r="UN127" s="31"/>
-      <c r="UO127" s="31"/>
-      <c r="UP127" s="31"/>
-      <c r="UQ127" s="31"/>
-      <c r="UR127" s="31"/>
-      <c r="US127" s="31"/>
-      <c r="UT127" s="31"/>
-      <c r="UU127" s="31"/>
-      <c r="UV127" s="31"/>
-      <c r="UW127" s="31"/>
-      <c r="UX127" s="31"/>
-      <c r="UY127" s="31"/>
-      <c r="UZ127" s="31"/>
-      <c r="VA127" s="31"/>
-      <c r="VB127" s="31"/>
-      <c r="VC127" s="31"/>
-      <c r="VD127" s="31"/>
-      <c r="VE127" s="31"/>
-      <c r="VF127" s="31"/>
-      <c r="VG127" s="31"/>
-      <c r="VH127" s="31"/>
-      <c r="VI127" s="31"/>
-      <c r="VJ127" s="31"/>
-      <c r="VK127" s="31"/>
-      <c r="VL127" s="31"/>
-      <c r="VM127" s="31"/>
-      <c r="VN127" s="31"/>
-      <c r="VO127" s="31"/>
-      <c r="VP127" s="31"/>
-      <c r="VQ127" s="31"/>
-      <c r="VR127" s="31"/>
-      <c r="VS127" s="31"/>
-      <c r="VT127" s="31"/>
-      <c r="VU127" s="31"/>
-      <c r="VV127" s="31"/>
-      <c r="VW127" s="31"/>
-      <c r="VX127" s="31"/>
-      <c r="VY127" s="31"/>
-      <c r="VZ127" s="31"/>
-      <c r="WA127" s="31"/>
-      <c r="WB127" s="31"/>
-      <c r="WC127" s="31"/>
-      <c r="WD127" s="31"/>
-      <c r="WE127" s="31"/>
-      <c r="WF127" s="31"/>
-      <c r="WG127" s="31"/>
-      <c r="WH127" s="31"/>
-      <c r="WI127" s="31"/>
-      <c r="WJ127" s="31"/>
-      <c r="WK127" s="31"/>
-      <c r="WL127" s="31"/>
-      <c r="WM127" s="31"/>
-      <c r="WN127" s="31"/>
-      <c r="WO127" s="31"/>
-      <c r="WP127" s="31"/>
-      <c r="WQ127" s="31"/>
-      <c r="WR127" s="31"/>
-      <c r="WS127" s="31"/>
-      <c r="WT127" s="31"/>
-      <c r="WU127" s="31"/>
-      <c r="WV127" s="31"/>
-      <c r="WW127" s="31"/>
-      <c r="WX127" s="31"/>
-      <c r="WY127" s="31"/>
-      <c r="WZ127" s="31"/>
-      <c r="XA127" s="31"/>
-      <c r="XB127" s="31"/>
-      <c r="XC127" s="31"/>
-      <c r="XD127" s="31"/>
-      <c r="XE127" s="31"/>
-      <c r="XF127" s="31"/>
-      <c r="XG127" s="31"/>
-      <c r="XH127" s="31"/>
-      <c r="XI127" s="31"/>
-      <c r="XJ127" s="31"/>
-      <c r="XK127" s="31"/>
-      <c r="XL127" s="31"/>
-      <c r="XM127" s="31"/>
-      <c r="XN127" s="31"/>
-      <c r="XO127" s="31"/>
-      <c r="XP127" s="31"/>
-      <c r="XQ127" s="31"/>
-      <c r="XR127" s="31"/>
-      <c r="XS127" s="31"/>
-      <c r="XT127" s="31"/>
-      <c r="XU127" s="31"/>
-      <c r="XV127" s="31"/>
-      <c r="XW127" s="31"/>
-      <c r="XX127" s="31"/>
-      <c r="XY127" s="31"/>
-      <c r="XZ127" s="31"/>
-      <c r="YA127" s="31"/>
-      <c r="YB127" s="31"/>
-      <c r="YC127" s="31"/>
-      <c r="YD127" s="31"/>
-      <c r="YE127" s="31"/>
-      <c r="YF127" s="31"/>
-      <c r="YG127" s="31"/>
-      <c r="YH127" s="31"/>
-      <c r="YI127" s="31"/>
-      <c r="YJ127" s="31"/>
-      <c r="YK127" s="31"/>
-      <c r="YL127" s="31"/>
-      <c r="YM127" s="31"/>
-      <c r="YN127" s="31"/>
-      <c r="YO127" s="31"/>
-      <c r="YP127" s="31"/>
-      <c r="YQ127" s="31"/>
-      <c r="YR127" s="31"/>
-      <c r="YS127" s="31"/>
-      <c r="YT127" s="31"/>
-      <c r="YU127" s="31"/>
-      <c r="YV127" s="31"/>
-      <c r="YW127" s="31"/>
-      <c r="YX127" s="31"/>
-      <c r="YY127" s="31"/>
-      <c r="YZ127" s="31"/>
-      <c r="ZA127" s="31"/>
-      <c r="ZB127" s="31"/>
-      <c r="ZC127" s="31"/>
-      <c r="ZD127" s="31"/>
-      <c r="ZE127" s="31"/>
-      <c r="ZF127" s="31"/>
-      <c r="ZG127" s="31"/>
-      <c r="ZH127" s="31"/>
-      <c r="ZI127" s="31"/>
-      <c r="ZJ127" s="31"/>
-      <c r="ZK127" s="31"/>
-      <c r="ZL127" s="31"/>
-      <c r="ZM127" s="31"/>
-      <c r="ZN127" s="31"/>
-      <c r="ZO127" s="31"/>
-      <c r="ZP127" s="31"/>
-      <c r="ZQ127" s="31"/>
-      <c r="ZR127" s="31"/>
-      <c r="ZS127" s="31"/>
-      <c r="ZT127" s="31"/>
-      <c r="ZU127" s="31"/>
-      <c r="ZV127" s="31"/>
-      <c r="ZW127" s="31"/>
-      <c r="ZX127" s="31"/>
-      <c r="ZY127" s="31"/>
-      <c r="ZZ127" s="31"/>
-      <c r="AAA127" s="31"/>
-      <c r="AAB127" s="31"/>
-      <c r="AAC127" s="31"/>
-      <c r="AAD127" s="31"/>
-      <c r="AAE127" s="31"/>
-      <c r="AAF127" s="31"/>
-      <c r="AAG127" s="31"/>
-      <c r="AAH127" s="31"/>
-      <c r="AAI127" s="31"/>
-      <c r="AAJ127" s="31"/>
-      <c r="AAK127" s="31"/>
-      <c r="AAL127" s="31"/>
-      <c r="AAM127" s="31"/>
-      <c r="AAN127" s="31"/>
-      <c r="AAO127" s="31"/>
-      <c r="AAP127" s="31"/>
-      <c r="AAQ127" s="31"/>
-      <c r="AAR127" s="31"/>
-      <c r="AAS127" s="31"/>
-      <c r="AAT127" s="31"/>
-      <c r="AAU127" s="31"/>
-      <c r="AAV127" s="31"/>
-      <c r="AAW127" s="31"/>
-      <c r="AAX127" s="31"/>
-      <c r="AAY127" s="31"/>
-      <c r="AAZ127" s="31"/>
-      <c r="ABA127" s="31"/>
-      <c r="ABB127" s="31"/>
-      <c r="ABC127" s="31"/>
-      <c r="ABD127" s="31"/>
-      <c r="ABE127" s="31"/>
-      <c r="ABF127" s="31"/>
-      <c r="ABG127" s="31"/>
-      <c r="ABH127" s="31"/>
-      <c r="ABI127" s="31"/>
-      <c r="ABJ127" s="31"/>
-      <c r="ABK127" s="31"/>
-      <c r="ABL127" s="31"/>
-      <c r="ABM127" s="31"/>
-      <c r="ABN127" s="31"/>
-      <c r="ABO127" s="31"/>
-      <c r="ABP127" s="31"/>
-      <c r="ABQ127" s="31"/>
-      <c r="ABR127" s="31"/>
-      <c r="ABS127" s="31"/>
-      <c r="ABT127" s="31"/>
-      <c r="ABU127" s="31"/>
-      <c r="ABV127" s="31"/>
-      <c r="ABW127" s="31"/>
-      <c r="ABX127" s="31"/>
-      <c r="ABY127" s="31"/>
-      <c r="ABZ127" s="31"/>
-      <c r="ACA127" s="31"/>
-      <c r="ACB127" s="31"/>
-      <c r="ACC127" s="31"/>
-      <c r="ACD127" s="31"/>
-      <c r="ACE127" s="31"/>
-      <c r="ACF127" s="31"/>
-      <c r="ACG127" s="31"/>
-      <c r="ACH127" s="31"/>
-      <c r="ACI127" s="31"/>
-      <c r="ACJ127" s="31"/>
-      <c r="ACK127" s="31"/>
-      <c r="ACL127" s="31"/>
-      <c r="ACM127" s="31"/>
-      <c r="ACN127" s="31"/>
-      <c r="ACO127" s="31"/>
-      <c r="ACP127" s="31"/>
-      <c r="ACQ127" s="31"/>
-      <c r="ACR127" s="31"/>
-      <c r="ACS127" s="31"/>
-      <c r="ACT127" s="31"/>
-      <c r="ACU127" s="31"/>
-      <c r="ACV127" s="31"/>
-      <c r="ACW127" s="31"/>
-      <c r="ACX127" s="31"/>
-      <c r="ACY127" s="31"/>
-      <c r="ACZ127" s="31"/>
-      <c r="ADA127" s="31"/>
-      <c r="ADB127" s="31"/>
-      <c r="ADC127" s="31"/>
-      <c r="ADD127" s="31"/>
-      <c r="ADE127" s="31"/>
-      <c r="ADF127" s="31"/>
-      <c r="ADG127" s="31"/>
-      <c r="ADH127" s="31"/>
-      <c r="ADI127" s="31"/>
-      <c r="ADJ127" s="31"/>
-      <c r="ADK127" s="31"/>
-      <c r="ADL127" s="31"/>
-      <c r="ADM127" s="31"/>
-      <c r="ADN127" s="31"/>
-      <c r="ADO127" s="31"/>
-      <c r="ADP127" s="31"/>
-      <c r="ADQ127" s="31"/>
-      <c r="ADR127" s="31"/>
-      <c r="ADS127" s="31"/>
-      <c r="ADT127" s="31"/>
-      <c r="ADU127" s="31"/>
-      <c r="ADV127" s="31"/>
-      <c r="ADW127" s="31"/>
-      <c r="ADX127" s="31"/>
-      <c r="ADY127" s="31"/>
-      <c r="ADZ127" s="31"/>
-      <c r="AEA127" s="31"/>
-      <c r="AEB127" s="31"/>
-      <c r="AEC127" s="31"/>
-      <c r="AED127" s="31"/>
-      <c r="AEE127" s="31"/>
-      <c r="AEF127" s="31"/>
-      <c r="AEG127" s="31"/>
-      <c r="AEH127" s="31"/>
-      <c r="AEI127" s="31"/>
-      <c r="AEJ127" s="31"/>
-      <c r="AEK127" s="31"/>
-      <c r="AEL127" s="31"/>
-      <c r="AEM127" s="31"/>
-      <c r="AEN127" s="31"/>
-      <c r="AEO127" s="31"/>
-      <c r="AEP127" s="31"/>
-      <c r="AEQ127" s="31"/>
-      <c r="AER127" s="31"/>
-      <c r="AES127" s="31"/>
-      <c r="AET127" s="31"/>
-      <c r="AEU127" s="31"/>
-      <c r="AEV127" s="31"/>
-      <c r="AEW127" s="31"/>
-      <c r="AEX127" s="31"/>
-      <c r="AEY127" s="31"/>
-      <c r="AEZ127" s="31"/>
-      <c r="AFA127" s="31"/>
-      <c r="AFB127" s="31"/>
-      <c r="AFC127" s="31"/>
-      <c r="AFD127" s="31"/>
-      <c r="AFE127" s="31"/>
-      <c r="AFF127" s="31"/>
-      <c r="AFG127" s="31"/>
-      <c r="AFH127" s="31"/>
-      <c r="AFI127" s="31"/>
-      <c r="AFJ127" s="31"/>
-      <c r="AFK127" s="31"/>
-      <c r="AFL127" s="31"/>
-      <c r="AFM127" s="31"/>
-      <c r="AFN127" s="31"/>
-      <c r="AFO127" s="31"/>
-      <c r="AFP127" s="31"/>
-      <c r="AFQ127" s="31"/>
-      <c r="AFR127" s="31"/>
-      <c r="AFS127" s="31"/>
-      <c r="AFT127" s="31"/>
-      <c r="AFU127" s="31"/>
-      <c r="AFV127" s="31"/>
-      <c r="AFW127" s="31"/>
-      <c r="AFX127" s="31"/>
-      <c r="AFY127" s="31"/>
-      <c r="AFZ127" s="31"/>
-      <c r="AGA127" s="31"/>
-      <c r="AGB127" s="31"/>
-      <c r="AGC127" s="31"/>
-      <c r="AGD127" s="31"/>
-      <c r="AGE127" s="31"/>
-      <c r="AGF127" s="31"/>
-      <c r="AGG127" s="31"/>
-      <c r="AGH127" s="31"/>
-      <c r="AGI127" s="31"/>
-      <c r="AGJ127" s="31"/>
-      <c r="AGK127" s="31"/>
-      <c r="AGL127" s="31"/>
-      <c r="AGM127" s="31"/>
-      <c r="AGN127" s="31"/>
-      <c r="AGO127" s="31"/>
-      <c r="AGP127" s="31"/>
-      <c r="AGQ127" s="31"/>
-      <c r="AGR127" s="31"/>
-      <c r="AGS127" s="31"/>
-      <c r="AGT127" s="31"/>
-      <c r="AGU127" s="31"/>
-      <c r="AGV127" s="31"/>
-      <c r="AGW127" s="31"/>
-      <c r="AGX127" s="31"/>
-      <c r="AGY127" s="31"/>
-      <c r="AGZ127" s="31"/>
-      <c r="AHA127" s="31"/>
-      <c r="AHB127" s="31"/>
-      <c r="AHC127" s="31"/>
-      <c r="AHD127" s="31"/>
-      <c r="AHE127" s="31"/>
-      <c r="AHF127" s="31"/>
-      <c r="AHG127" s="31"/>
-      <c r="AHH127" s="31"/>
-      <c r="AHI127" s="31"/>
-      <c r="AHJ127" s="31"/>
-      <c r="AHK127" s="31"/>
-      <c r="AHL127" s="31"/>
-      <c r="AHM127" s="31"/>
-      <c r="AHN127" s="31"/>
-      <c r="AHO127" s="31"/>
-      <c r="AHP127" s="31"/>
-      <c r="AHQ127" s="31"/>
-      <c r="AHR127" s="31"/>
-      <c r="AHS127" s="31"/>
-      <c r="AHT127" s="31"/>
-      <c r="AHU127" s="31"/>
-      <c r="AHV127" s="31"/>
-      <c r="AHW127" s="31"/>
-      <c r="AHX127" s="31"/>
-      <c r="AHY127" s="31"/>
-      <c r="AHZ127" s="31"/>
-      <c r="AIA127" s="31"/>
-      <c r="AIB127" s="31"/>
-      <c r="AIC127" s="31"/>
-      <c r="AID127" s="31"/>
-      <c r="AIE127" s="31"/>
-      <c r="AIF127" s="31"/>
-      <c r="AIG127" s="31"/>
-      <c r="AIH127" s="31"/>
-      <c r="AII127" s="31"/>
-      <c r="AIJ127" s="31"/>
-      <c r="AIK127" s="31"/>
-      <c r="AIL127" s="31"/>
-      <c r="AIM127" s="31"/>
-      <c r="AIN127" s="31"/>
-      <c r="AIO127" s="31"/>
-      <c r="AIP127" s="31"/>
-      <c r="AIQ127" s="31"/>
-      <c r="AIR127" s="31"/>
-      <c r="AIS127" s="31"/>
-      <c r="AIT127" s="31"/>
-      <c r="AIU127" s="31"/>
-      <c r="AIV127" s="31"/>
-      <c r="AIW127" s="31"/>
-      <c r="AIX127" s="31"/>
-      <c r="AIY127" s="31"/>
-      <c r="AIZ127" s="31"/>
-      <c r="AJA127" s="31"/>
-      <c r="AJB127" s="31"/>
-      <c r="AJC127" s="31"/>
-      <c r="AJD127" s="31"/>
-      <c r="AJE127" s="31"/>
-      <c r="AJF127" s="31"/>
-      <c r="AJG127" s="31"/>
-      <c r="AJH127" s="31"/>
-      <c r="AJI127" s="31"/>
-      <c r="AJJ127" s="31"/>
-      <c r="AJK127" s="31"/>
-      <c r="AJL127" s="31"/>
-      <c r="AJM127" s="31"/>
-      <c r="AJN127" s="31"/>
-      <c r="AJO127" s="31"/>
-      <c r="AJP127" s="31"/>
-      <c r="AJQ127" s="31"/>
-      <c r="AJR127" s="31"/>
-      <c r="AJS127" s="31"/>
-      <c r="AJT127" s="31"/>
-      <c r="AJU127" s="31"/>
-      <c r="AJV127" s="31"/>
-      <c r="AJW127" s="31"/>
-      <c r="AJX127" s="31"/>
-      <c r="AJY127" s="31"/>
-      <c r="AJZ127" s="31"/>
-      <c r="AKA127" s="31"/>
-      <c r="AKB127" s="31"/>
-      <c r="AKC127" s="31"/>
-      <c r="AKD127" s="31"/>
-      <c r="AKE127" s="31"/>
-      <c r="AKF127" s="31"/>
-      <c r="AKG127" s="31"/>
-      <c r="AKH127" s="31"/>
-      <c r="AKI127" s="31"/>
-      <c r="AKJ127" s="31"/>
-      <c r="AKK127" s="31"/>
-      <c r="AKL127" s="31"/>
-      <c r="AKM127" s="31"/>
-      <c r="AKN127" s="31"/>
-      <c r="AKO127" s="31"/>
-      <c r="AKP127" s="31"/>
-      <c r="AKQ127" s="31"/>
-      <c r="AKR127" s="31"/>
-      <c r="AKS127" s="31"/>
-      <c r="AKT127" s="31"/>
-      <c r="AKU127" s="31"/>
-      <c r="AKV127" s="31"/>
-      <c r="AKW127" s="31"/>
-      <c r="AKX127" s="31"/>
-      <c r="AKY127" s="31"/>
-      <c r="AKZ127" s="31"/>
-      <c r="ALA127" s="31"/>
-      <c r="ALB127" s="31"/>
-      <c r="ALC127" s="31"/>
-      <c r="ALD127" s="31"/>
-      <c r="ALE127" s="31"/>
-      <c r="ALF127" s="31"/>
-      <c r="ALG127" s="31"/>
-      <c r="ALH127" s="31"/>
-      <c r="ALI127" s="31"/>
-      <c r="ALJ127" s="31"/>
-      <c r="ALK127" s="31"/>
-      <c r="ALL127" s="31"/>
-      <c r="ALM127" s="31"/>
-      <c r="ALN127" s="31"/>
-      <c r="ALO127" s="31"/>
-      <c r="ALP127" s="31"/>
-      <c r="ALQ127" s="31"/>
-      <c r="ALR127" s="31"/>
-      <c r="ALS127" s="31"/>
-      <c r="ALT127" s="31"/>
-      <c r="ALU127" s="31"/>
-      <c r="ALV127" s="31"/>
-      <c r="ALW127" s="31"/>
-      <c r="ALX127" s="31"/>
-      <c r="ALY127" s="31"/>
-      <c r="ALZ127" s="31"/>
-      <c r="AMA127" s="31"/>
-      <c r="AMB127" s="31"/>
-      <c r="AMC127" s="31"/>
-      <c r="AMD127" s="31"/>
-      <c r="AME127" s="31"/>
-      <c r="AMF127" s="31"/>
-      <c r="AMG127" s="31"/>
-      <c r="AMH127" s="31"/>
-      <c r="AMI127" s="31"/>
-      <c r="AMJ127" s="31"/>
-      <c r="AMK127" s="31"/>
-      <c r="AML127" s="31"/>
-      <c r="AMM127" s="31"/>
-      <c r="AMN127" s="31"/>
-      <c r="AMO127" s="31"/>
-      <c r="AMP127" s="31"/>
-      <c r="AMQ127" s="31"/>
-      <c r="AMR127" s="31"/>
-      <c r="AMS127" s="31"/>
-      <c r="AMT127" s="31"/>
-      <c r="AMU127" s="31"/>
-      <c r="AMV127" s="31"/>
-      <c r="AMW127" s="31"/>
-      <c r="AMX127" s="31"/>
-      <c r="AMY127" s="31"/>
-      <c r="AMZ127" s="31"/>
-      <c r="ANA127" s="31"/>
-      <c r="ANB127" s="31"/>
-      <c r="ANC127" s="31"/>
-      <c r="AND127" s="31"/>
-      <c r="ANE127" s="31"/>
-      <c r="ANF127" s="31"/>
-      <c r="ANG127" s="31"/>
-      <c r="ANH127" s="31"/>
-      <c r="ANI127" s="31"/>
-      <c r="ANJ127" s="31"/>
-      <c r="ANK127" s="31"/>
-      <c r="ANL127" s="31"/>
-      <c r="ANM127" s="31"/>
-      <c r="ANN127" s="31"/>
-      <c r="ANO127" s="31"/>
-      <c r="ANP127" s="31"/>
-      <c r="ANQ127" s="31"/>
-      <c r="ANR127" s="31"/>
-      <c r="ANS127" s="31"/>
-      <c r="ANT127" s="31"/>
-      <c r="ANU127" s="31"/>
-      <c r="ANV127" s="31"/>
-      <c r="ANW127" s="31"/>
-      <c r="ANX127" s="31"/>
-      <c r="ANY127" s="31"/>
-      <c r="ANZ127" s="31"/>
-      <c r="AOA127" s="31"/>
-      <c r="AOB127" s="31"/>
-      <c r="AOC127" s="31"/>
-      <c r="AOD127" s="31"/>
-      <c r="AOE127" s="31"/>
-      <c r="AOF127" s="31"/>
-      <c r="AOG127" s="31"/>
-      <c r="AOH127" s="31"/>
-      <c r="AOI127" s="31"/>
-      <c r="AOJ127" s="31"/>
-      <c r="AOK127" s="31"/>
-      <c r="AOL127" s="31"/>
-      <c r="AOM127" s="31"/>
-      <c r="AON127" s="31"/>
-      <c r="AOO127" s="31"/>
-      <c r="AOP127" s="31"/>
-      <c r="AOQ127" s="31"/>
-      <c r="AOR127" s="31"/>
-      <c r="AOS127" s="31"/>
-      <c r="AOT127" s="31"/>
-      <c r="AOU127" s="31"/>
+    <row r="127" spans="2:5" ht="60">
+      <c r="B127" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="77" t="s">
+        <v>853</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>856</v>
+      </c>
+      <c r="E127" s="59" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="30">
+      <c r="B128" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="E128" s="59" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1087" ht="45">
+      <c r="B129" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44" t="s">
+        <v>855</v>
+      </c>
+      <c r="E129" s="59" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1087">
+      <c r="B130" s="59"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="59"/>
+    </row>
+    <row r="131" spans="1:1087">
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="31"/>
+      <c r="M131" s="31"/>
+      <c r="N131" s="31"/>
+      <c r="O131" s="31"/>
+      <c r="P131" s="31"/>
+      <c r="Q131" s="31"/>
+      <c r="R131" s="31"/>
+      <c r="S131" s="31"/>
+      <c r="T131" s="31"/>
+      <c r="U131" s="31"/>
+      <c r="V131" s="31"/>
+      <c r="W131" s="31"/>
+      <c r="X131" s="31"/>
+      <c r="Y131" s="31"/>
+      <c r="Z131" s="31"/>
+      <c r="AA131" s="31"/>
+      <c r="AB131" s="31"/>
+      <c r="AC131" s="31"/>
+      <c r="AD131" s="31"/>
+      <c r="AE131" s="31"/>
+      <c r="AF131" s="31"/>
+      <c r="AG131" s="31"/>
+      <c r="AH131" s="31"/>
+      <c r="AI131" s="31"/>
+      <c r="AJ131" s="31"/>
+      <c r="AK131" s="31"/>
+      <c r="AL131" s="31"/>
+      <c r="AM131" s="31"/>
+      <c r="AN131" s="31"/>
+      <c r="AO131" s="31"/>
+      <c r="AP131" s="31"/>
+      <c r="AQ131" s="31"/>
+      <c r="AR131" s="31"/>
+      <c r="AS131" s="31"/>
+      <c r="AT131" s="31"/>
+      <c r="AU131" s="31"/>
+      <c r="AV131" s="31"/>
+      <c r="AW131" s="31"/>
+      <c r="AX131" s="31"/>
+      <c r="AY131" s="31"/>
+      <c r="AZ131" s="31"/>
+      <c r="BA131" s="31"/>
+      <c r="BB131" s="31"/>
+      <c r="BC131" s="31"/>
+      <c r="BD131" s="31"/>
+      <c r="BE131" s="31"/>
+      <c r="BF131" s="31"/>
+      <c r="BG131" s="31"/>
+      <c r="BH131" s="31"/>
+      <c r="BI131" s="31"/>
+      <c r="BJ131" s="31"/>
+      <c r="BK131" s="31"/>
+      <c r="BL131" s="31"/>
+      <c r="BM131" s="31"/>
+      <c r="BN131" s="31"/>
+      <c r="BO131" s="31"/>
+      <c r="BP131" s="31"/>
+      <c r="BQ131" s="31"/>
+      <c r="BR131" s="31"/>
+      <c r="BS131" s="31"/>
+      <c r="BT131" s="31"/>
+      <c r="BU131" s="31"/>
+      <c r="BV131" s="31"/>
+      <c r="BW131" s="31"/>
+      <c r="BX131" s="31"/>
+      <c r="BY131" s="31"/>
+      <c r="BZ131" s="31"/>
+      <c r="CA131" s="31"/>
+      <c r="CB131" s="31"/>
+      <c r="CC131" s="31"/>
+      <c r="CD131" s="31"/>
+      <c r="CE131" s="31"/>
+      <c r="CF131" s="31"/>
+      <c r="CG131" s="31"/>
+      <c r="CH131" s="31"/>
+      <c r="CI131" s="31"/>
+      <c r="CJ131" s="31"/>
+      <c r="CK131" s="31"/>
+      <c r="CL131" s="31"/>
+      <c r="CM131" s="31"/>
+      <c r="CN131" s="31"/>
+      <c r="CO131" s="31"/>
+      <c r="CP131" s="31"/>
+      <c r="CQ131" s="31"/>
+      <c r="CR131" s="31"/>
+      <c r="CS131" s="31"/>
+      <c r="CT131" s="31"/>
+      <c r="CU131" s="31"/>
+      <c r="CV131" s="31"/>
+      <c r="CW131" s="31"/>
+      <c r="CX131" s="31"/>
+      <c r="CY131" s="31"/>
+      <c r="CZ131" s="31"/>
+      <c r="DA131" s="31"/>
+      <c r="DB131" s="31"/>
+      <c r="DC131" s="31"/>
+      <c r="DD131" s="31"/>
+      <c r="DE131" s="31"/>
+      <c r="DF131" s="31"/>
+      <c r="DG131" s="31"/>
+      <c r="DH131" s="31"/>
+      <c r="DI131" s="31"/>
+      <c r="DJ131" s="31"/>
+      <c r="DK131" s="31"/>
+      <c r="DL131" s="31"/>
+      <c r="DM131" s="31"/>
+      <c r="DN131" s="31"/>
+      <c r="DO131" s="31"/>
+      <c r="DP131" s="31"/>
+      <c r="DQ131" s="31"/>
+      <c r="DR131" s="31"/>
+      <c r="DS131" s="31"/>
+      <c r="DT131" s="31"/>
+      <c r="DU131" s="31"/>
+      <c r="DV131" s="31"/>
+      <c r="DW131" s="31"/>
+      <c r="DX131" s="31"/>
+      <c r="DY131" s="31"/>
+      <c r="DZ131" s="31"/>
+      <c r="EA131" s="31"/>
+      <c r="EB131" s="31"/>
+      <c r="EC131" s="31"/>
+      <c r="ED131" s="31"/>
+      <c r="EE131" s="31"/>
+      <c r="EF131" s="31"/>
+      <c r="EG131" s="31"/>
+      <c r="EH131" s="31"/>
+      <c r="EI131" s="31"/>
+      <c r="EJ131" s="31"/>
+      <c r="EK131" s="31"/>
+      <c r="EL131" s="31"/>
+      <c r="EM131" s="31"/>
+      <c r="EN131" s="31"/>
+      <c r="EO131" s="31"/>
+      <c r="EP131" s="31"/>
+      <c r="EQ131" s="31"/>
+      <c r="ER131" s="31"/>
+      <c r="ES131" s="31"/>
+      <c r="ET131" s="31"/>
+      <c r="EU131" s="31"/>
+      <c r="EV131" s="31"/>
+      <c r="EW131" s="31"/>
+      <c r="EX131" s="31"/>
+      <c r="EY131" s="31"/>
+      <c r="EZ131" s="31"/>
+      <c r="FA131" s="31"/>
+      <c r="FB131" s="31"/>
+      <c r="FC131" s="31"/>
+      <c r="FD131" s="31"/>
+      <c r="FE131" s="31"/>
+      <c r="FF131" s="31"/>
+      <c r="FG131" s="31"/>
+      <c r="FH131" s="31"/>
+      <c r="FI131" s="31"/>
+      <c r="FJ131" s="31"/>
+      <c r="FK131" s="31"/>
+      <c r="FL131" s="31"/>
+      <c r="FM131" s="31"/>
+      <c r="FN131" s="31"/>
+      <c r="FO131" s="31"/>
+      <c r="FP131" s="31"/>
+      <c r="FQ131" s="31"/>
+      <c r="FR131" s="31"/>
+      <c r="FS131" s="31"/>
+      <c r="FT131" s="31"/>
+      <c r="FU131" s="31"/>
+      <c r="FV131" s="31"/>
+      <c r="FW131" s="31"/>
+      <c r="FX131" s="31"/>
+      <c r="FY131" s="31"/>
+      <c r="FZ131" s="31"/>
+      <c r="GA131" s="31"/>
+      <c r="GB131" s="31"/>
+      <c r="GC131" s="31"/>
+      <c r="GD131" s="31"/>
+      <c r="GE131" s="31"/>
+      <c r="GF131" s="31"/>
+      <c r="GG131" s="31"/>
+      <c r="GH131" s="31"/>
+      <c r="GI131" s="31"/>
+      <c r="GJ131" s="31"/>
+      <c r="GK131" s="31"/>
+      <c r="GL131" s="31"/>
+      <c r="GM131" s="31"/>
+      <c r="GN131" s="31"/>
+      <c r="GO131" s="31"/>
+      <c r="GP131" s="31"/>
+      <c r="GQ131" s="31"/>
+      <c r="GR131" s="31"/>
+      <c r="GS131" s="31"/>
+      <c r="GT131" s="31"/>
+      <c r="GU131" s="31"/>
+      <c r="GV131" s="31"/>
+      <c r="GW131" s="31"/>
+      <c r="GX131" s="31"/>
+      <c r="GY131" s="31"/>
+      <c r="GZ131" s="31"/>
+      <c r="HA131" s="31"/>
+      <c r="HB131" s="31"/>
+      <c r="HC131" s="31"/>
+      <c r="HD131" s="31"/>
+      <c r="HE131" s="31"/>
+      <c r="HF131" s="31"/>
+      <c r="HG131" s="31"/>
+      <c r="HH131" s="31"/>
+      <c r="HI131" s="31"/>
+      <c r="HJ131" s="31"/>
+      <c r="HK131" s="31"/>
+      <c r="HL131" s="31"/>
+      <c r="HM131" s="31"/>
+      <c r="HN131" s="31"/>
+      <c r="HO131" s="31"/>
+      <c r="HP131" s="31"/>
+      <c r="HQ131" s="31"/>
+      <c r="HR131" s="31"/>
+      <c r="HS131" s="31"/>
+      <c r="HT131" s="31"/>
+      <c r="HU131" s="31"/>
+      <c r="HV131" s="31"/>
+      <c r="HW131" s="31"/>
+      <c r="HX131" s="31"/>
+      <c r="HY131" s="31"/>
+      <c r="HZ131" s="31"/>
+      <c r="IA131" s="31"/>
+      <c r="IB131" s="31"/>
+      <c r="IC131" s="31"/>
+      <c r="ID131" s="31"/>
+      <c r="IE131" s="31"/>
+      <c r="IF131" s="31"/>
+      <c r="IG131" s="31"/>
+      <c r="IH131" s="31"/>
+      <c r="II131" s="31"/>
+      <c r="IJ131" s="31"/>
+      <c r="IK131" s="31"/>
+      <c r="IL131" s="31"/>
+      <c r="IM131" s="31"/>
+      <c r="IN131" s="31"/>
+      <c r="IO131" s="31"/>
+      <c r="IP131" s="31"/>
+      <c r="IQ131" s="31"/>
+      <c r="IR131" s="31"/>
+      <c r="IS131" s="31"/>
+      <c r="IT131" s="31"/>
+      <c r="IU131" s="31"/>
+      <c r="IV131" s="31"/>
+      <c r="IW131" s="31"/>
+      <c r="IX131" s="31"/>
+      <c r="IY131" s="31"/>
+      <c r="IZ131" s="31"/>
+      <c r="JA131" s="31"/>
+      <c r="JB131" s="31"/>
+      <c r="JC131" s="31"/>
+      <c r="JD131" s="31"/>
+      <c r="JE131" s="31"/>
+      <c r="JF131" s="31"/>
+      <c r="JG131" s="31"/>
+      <c r="JH131" s="31"/>
+      <c r="JI131" s="31"/>
+      <c r="JJ131" s="31"/>
+      <c r="JK131" s="31"/>
+      <c r="JL131" s="31"/>
+      <c r="JM131" s="31"/>
+      <c r="JN131" s="31"/>
+      <c r="JO131" s="31"/>
+      <c r="JP131" s="31"/>
+      <c r="JQ131" s="31"/>
+      <c r="JR131" s="31"/>
+      <c r="JS131" s="31"/>
+      <c r="JT131" s="31"/>
+      <c r="JU131" s="31"/>
+      <c r="JV131" s="31"/>
+      <c r="JW131" s="31"/>
+      <c r="JX131" s="31"/>
+      <c r="JY131" s="31"/>
+      <c r="JZ131" s="31"/>
+      <c r="KA131" s="31"/>
+      <c r="KB131" s="31"/>
+      <c r="KC131" s="31"/>
+      <c r="KD131" s="31"/>
+      <c r="KE131" s="31"/>
+      <c r="KF131" s="31"/>
+      <c r="KG131" s="31"/>
+      <c r="KH131" s="31"/>
+      <c r="KI131" s="31"/>
+      <c r="KJ131" s="31"/>
+      <c r="KK131" s="31"/>
+      <c r="KL131" s="31"/>
+      <c r="KM131" s="31"/>
+      <c r="KN131" s="31"/>
+      <c r="KO131" s="31"/>
+      <c r="KP131" s="31"/>
+      <c r="KQ131" s="31"/>
+      <c r="KR131" s="31"/>
+      <c r="KS131" s="31"/>
+      <c r="KT131" s="31"/>
+      <c r="KU131" s="31"/>
+      <c r="KV131" s="31"/>
+      <c r="KW131" s="31"/>
+      <c r="KX131" s="31"/>
+      <c r="KY131" s="31"/>
+      <c r="KZ131" s="31"/>
+      <c r="LA131" s="31"/>
+      <c r="LB131" s="31"/>
+      <c r="LC131" s="31"/>
+      <c r="LD131" s="31"/>
+      <c r="LE131" s="31"/>
+      <c r="LF131" s="31"/>
+      <c r="LG131" s="31"/>
+      <c r="LH131" s="31"/>
+      <c r="LI131" s="31"/>
+      <c r="LJ131" s="31"/>
+      <c r="LK131" s="31"/>
+      <c r="LL131" s="31"/>
+      <c r="LM131" s="31"/>
+      <c r="LN131" s="31"/>
+      <c r="LO131" s="31"/>
+      <c r="LP131" s="31"/>
+      <c r="LQ131" s="31"/>
+      <c r="LR131" s="31"/>
+      <c r="LS131" s="31"/>
+      <c r="LT131" s="31"/>
+      <c r="LU131" s="31"/>
+      <c r="LV131" s="31"/>
+      <c r="LW131" s="31"/>
+      <c r="LX131" s="31"/>
+      <c r="LY131" s="31"/>
+      <c r="LZ131" s="31"/>
+      <c r="MA131" s="31"/>
+      <c r="MB131" s="31"/>
+      <c r="MC131" s="31"/>
+      <c r="MD131" s="31"/>
+      <c r="ME131" s="31"/>
+      <c r="MF131" s="31"/>
+      <c r="MG131" s="31"/>
+      <c r="MH131" s="31"/>
+      <c r="MI131" s="31"/>
+      <c r="MJ131" s="31"/>
+      <c r="MK131" s="31"/>
+      <c r="ML131" s="31"/>
+      <c r="MM131" s="31"/>
+      <c r="MN131" s="31"/>
+      <c r="MO131" s="31"/>
+      <c r="MP131" s="31"/>
+      <c r="MQ131" s="31"/>
+      <c r="MR131" s="31"/>
+      <c r="MS131" s="31"/>
+      <c r="MT131" s="31"/>
+      <c r="MU131" s="31"/>
+      <c r="MV131" s="31"/>
+      <c r="MW131" s="31"/>
+      <c r="MX131" s="31"/>
+      <c r="MY131" s="31"/>
+      <c r="MZ131" s="31"/>
+      <c r="NA131" s="31"/>
+      <c r="NB131" s="31"/>
+      <c r="NC131" s="31"/>
+      <c r="ND131" s="31"/>
+      <c r="NE131" s="31"/>
+      <c r="NF131" s="31"/>
+      <c r="NG131" s="31"/>
+      <c r="NH131" s="31"/>
+      <c r="NI131" s="31"/>
+      <c r="NJ131" s="31"/>
+      <c r="NK131" s="31"/>
+      <c r="NL131" s="31"/>
+      <c r="NM131" s="31"/>
+      <c r="NN131" s="31"/>
+      <c r="NO131" s="31"/>
+      <c r="NP131" s="31"/>
+      <c r="NQ131" s="31"/>
+      <c r="NR131" s="31"/>
+      <c r="NS131" s="31"/>
+      <c r="NT131" s="31"/>
+      <c r="NU131" s="31"/>
+      <c r="NV131" s="31"/>
+      <c r="NW131" s="31"/>
+      <c r="NX131" s="31"/>
+      <c r="NY131" s="31"/>
+      <c r="NZ131" s="31"/>
+      <c r="OA131" s="31"/>
+      <c r="OB131" s="31"/>
+      <c r="OC131" s="31"/>
+      <c r="OD131" s="31"/>
+      <c r="OE131" s="31"/>
+      <c r="OF131" s="31"/>
+      <c r="OG131" s="31"/>
+      <c r="OH131" s="31"/>
+      <c r="OI131" s="31"/>
+      <c r="OJ131" s="31"/>
+      <c r="OK131" s="31"/>
+      <c r="OL131" s="31"/>
+      <c r="OM131" s="31"/>
+      <c r="ON131" s="31"/>
+      <c r="OO131" s="31"/>
+      <c r="OP131" s="31"/>
+      <c r="OQ131" s="31"/>
+      <c r="OR131" s="31"/>
+      <c r="OS131" s="31"/>
+      <c r="OT131" s="31"/>
+      <c r="OU131" s="31"/>
+      <c r="OV131" s="31"/>
+      <c r="OW131" s="31"/>
+      <c r="OX131" s="31"/>
+      <c r="OY131" s="31"/>
+      <c r="OZ131" s="31"/>
+      <c r="PA131" s="31"/>
+      <c r="PB131" s="31"/>
+      <c r="PC131" s="31"/>
+      <c r="PD131" s="31"/>
+      <c r="PE131" s="31"/>
+      <c r="PF131" s="31"/>
+      <c r="PG131" s="31"/>
+      <c r="PH131" s="31"/>
+      <c r="PI131" s="31"/>
+      <c r="PJ131" s="31"/>
+      <c r="PK131" s="31"/>
+      <c r="PL131" s="31"/>
+      <c r="PM131" s="31"/>
+      <c r="PN131" s="31"/>
+      <c r="PO131" s="31"/>
+      <c r="PP131" s="31"/>
+      <c r="PQ131" s="31"/>
+      <c r="PR131" s="31"/>
+      <c r="PS131" s="31"/>
+      <c r="PT131" s="31"/>
+      <c r="PU131" s="31"/>
+      <c r="PV131" s="31"/>
+      <c r="PW131" s="31"/>
+      <c r="PX131" s="31"/>
+      <c r="PY131" s="31"/>
+      <c r="PZ131" s="31"/>
+      <c r="QA131" s="31"/>
+      <c r="QB131" s="31"/>
+      <c r="QC131" s="31"/>
+      <c r="QD131" s="31"/>
+      <c r="QE131" s="31"/>
+      <c r="QF131" s="31"/>
+      <c r="QG131" s="31"/>
+      <c r="QH131" s="31"/>
+      <c r="QI131" s="31"/>
+      <c r="QJ131" s="31"/>
+      <c r="QK131" s="31"/>
+      <c r="QL131" s="31"/>
+      <c r="QM131" s="31"/>
+      <c r="QN131" s="31"/>
+      <c r="QO131" s="31"/>
+      <c r="QP131" s="31"/>
+      <c r="QQ131" s="31"/>
+      <c r="QR131" s="31"/>
+      <c r="QS131" s="31"/>
+      <c r="QT131" s="31"/>
+      <c r="QU131" s="31"/>
+      <c r="QV131" s="31"/>
+      <c r="QW131" s="31"/>
+      <c r="QX131" s="31"/>
+      <c r="QY131" s="31"/>
+      <c r="QZ131" s="31"/>
+      <c r="RA131" s="31"/>
+      <c r="RB131" s="31"/>
+      <c r="RC131" s="31"/>
+      <c r="RD131" s="31"/>
+      <c r="RE131" s="31"/>
+      <c r="RF131" s="31"/>
+      <c r="RG131" s="31"/>
+      <c r="RH131" s="31"/>
+      <c r="RI131" s="31"/>
+      <c r="RJ131" s="31"/>
+      <c r="RK131" s="31"/>
+      <c r="RL131" s="31"/>
+      <c r="RM131" s="31"/>
+      <c r="RN131" s="31"/>
+      <c r="RO131" s="31"/>
+      <c r="RP131" s="31"/>
+      <c r="RQ131" s="31"/>
+      <c r="RR131" s="31"/>
+      <c r="RS131" s="31"/>
+      <c r="RT131" s="31"/>
+      <c r="RU131" s="31"/>
+      <c r="RV131" s="31"/>
+      <c r="RW131" s="31"/>
+      <c r="RX131" s="31"/>
+      <c r="RY131" s="31"/>
+      <c r="RZ131" s="31"/>
+      <c r="SA131" s="31"/>
+      <c r="SB131" s="31"/>
+      <c r="SC131" s="31"/>
+      <c r="SD131" s="31"/>
+      <c r="SE131" s="31"/>
+      <c r="SF131" s="31"/>
+      <c r="SG131" s="31"/>
+      <c r="SH131" s="31"/>
+      <c r="SI131" s="31"/>
+      <c r="SJ131" s="31"/>
+      <c r="SK131" s="31"/>
+      <c r="SL131" s="31"/>
+      <c r="SM131" s="31"/>
+      <c r="SN131" s="31"/>
+      <c r="SO131" s="31"/>
+      <c r="SP131" s="31"/>
+      <c r="SQ131" s="31"/>
+      <c r="SR131" s="31"/>
+      <c r="SS131" s="31"/>
+      <c r="ST131" s="31"/>
+      <c r="SU131" s="31"/>
+      <c r="SV131" s="31"/>
+      <c r="SW131" s="31"/>
+      <c r="SX131" s="31"/>
+      <c r="SY131" s="31"/>
+      <c r="SZ131" s="31"/>
+      <c r="TA131" s="31"/>
+      <c r="TB131" s="31"/>
+      <c r="TC131" s="31"/>
+      <c r="TD131" s="31"/>
+      <c r="TE131" s="31"/>
+      <c r="TF131" s="31"/>
+      <c r="TG131" s="31"/>
+      <c r="TH131" s="31"/>
+      <c r="TI131" s="31"/>
+      <c r="TJ131" s="31"/>
+      <c r="TK131" s="31"/>
+      <c r="TL131" s="31"/>
+      <c r="TM131" s="31"/>
+      <c r="TN131" s="31"/>
+      <c r="TO131" s="31"/>
+      <c r="TP131" s="31"/>
+      <c r="TQ131" s="31"/>
+      <c r="TR131" s="31"/>
+      <c r="TS131" s="31"/>
+      <c r="TT131" s="31"/>
+      <c r="TU131" s="31"/>
+      <c r="TV131" s="31"/>
+      <c r="TW131" s="31"/>
+      <c r="TX131" s="31"/>
+      <c r="TY131" s="31"/>
+      <c r="TZ131" s="31"/>
+      <c r="UA131" s="31"/>
+      <c r="UB131" s="31"/>
+      <c r="UC131" s="31"/>
+      <c r="UD131" s="31"/>
+      <c r="UE131" s="31"/>
+      <c r="UF131" s="31"/>
+      <c r="UG131" s="31"/>
+      <c r="UH131" s="31"/>
+      <c r="UI131" s="31"/>
+      <c r="UJ131" s="31"/>
+      <c r="UK131" s="31"/>
+      <c r="UL131" s="31"/>
+      <c r="UM131" s="31"/>
+      <c r="UN131" s="31"/>
+      <c r="UO131" s="31"/>
+      <c r="UP131" s="31"/>
+      <c r="UQ131" s="31"/>
+      <c r="UR131" s="31"/>
+      <c r="US131" s="31"/>
+      <c r="UT131" s="31"/>
+      <c r="UU131" s="31"/>
+      <c r="UV131" s="31"/>
+      <c r="UW131" s="31"/>
+      <c r="UX131" s="31"/>
+      <c r="UY131" s="31"/>
+      <c r="UZ131" s="31"/>
+      <c r="VA131" s="31"/>
+      <c r="VB131" s="31"/>
+      <c r="VC131" s="31"/>
+      <c r="VD131" s="31"/>
+      <c r="VE131" s="31"/>
+      <c r="VF131" s="31"/>
+      <c r="VG131" s="31"/>
+      <c r="VH131" s="31"/>
+      <c r="VI131" s="31"/>
+      <c r="VJ131" s="31"/>
+      <c r="VK131" s="31"/>
+      <c r="VL131" s="31"/>
+      <c r="VM131" s="31"/>
+      <c r="VN131" s="31"/>
+      <c r="VO131" s="31"/>
+      <c r="VP131" s="31"/>
+      <c r="VQ131" s="31"/>
+      <c r="VR131" s="31"/>
+      <c r="VS131" s="31"/>
+      <c r="VT131" s="31"/>
+      <c r="VU131" s="31"/>
+      <c r="VV131" s="31"/>
+      <c r="VW131" s="31"/>
+      <c r="VX131" s="31"/>
+      <c r="VY131" s="31"/>
+      <c r="VZ131" s="31"/>
+      <c r="WA131" s="31"/>
+      <c r="WB131" s="31"/>
+      <c r="WC131" s="31"/>
+      <c r="WD131" s="31"/>
+      <c r="WE131" s="31"/>
+      <c r="WF131" s="31"/>
+      <c r="WG131" s="31"/>
+      <c r="WH131" s="31"/>
+      <c r="WI131" s="31"/>
+      <c r="WJ131" s="31"/>
+      <c r="WK131" s="31"/>
+      <c r="WL131" s="31"/>
+      <c r="WM131" s="31"/>
+      <c r="WN131" s="31"/>
+      <c r="WO131" s="31"/>
+      <c r="WP131" s="31"/>
+      <c r="WQ131" s="31"/>
+      <c r="WR131" s="31"/>
+      <c r="WS131" s="31"/>
+      <c r="WT131" s="31"/>
+      <c r="WU131" s="31"/>
+      <c r="WV131" s="31"/>
+      <c r="WW131" s="31"/>
+      <c r="WX131" s="31"/>
+      <c r="WY131" s="31"/>
+      <c r="WZ131" s="31"/>
+      <c r="XA131" s="31"/>
+      <c r="XB131" s="31"/>
+      <c r="XC131" s="31"/>
+      <c r="XD131" s="31"/>
+      <c r="XE131" s="31"/>
+      <c r="XF131" s="31"/>
+      <c r="XG131" s="31"/>
+      <c r="XH131" s="31"/>
+      <c r="XI131" s="31"/>
+      <c r="XJ131" s="31"/>
+      <c r="XK131" s="31"/>
+      <c r="XL131" s="31"/>
+      <c r="XM131" s="31"/>
+      <c r="XN131" s="31"/>
+      <c r="XO131" s="31"/>
+      <c r="XP131" s="31"/>
+      <c r="XQ131" s="31"/>
+      <c r="XR131" s="31"/>
+      <c r="XS131" s="31"/>
+      <c r="XT131" s="31"/>
+      <c r="XU131" s="31"/>
+      <c r="XV131" s="31"/>
+      <c r="XW131" s="31"/>
+      <c r="XX131" s="31"/>
+      <c r="XY131" s="31"/>
+      <c r="XZ131" s="31"/>
+      <c r="YA131" s="31"/>
+      <c r="YB131" s="31"/>
+      <c r="YC131" s="31"/>
+      <c r="YD131" s="31"/>
+      <c r="YE131" s="31"/>
+      <c r="YF131" s="31"/>
+      <c r="YG131" s="31"/>
+      <c r="YH131" s="31"/>
+      <c r="YI131" s="31"/>
+      <c r="YJ131" s="31"/>
+      <c r="YK131" s="31"/>
+      <c r="YL131" s="31"/>
+      <c r="YM131" s="31"/>
+      <c r="YN131" s="31"/>
+      <c r="YO131" s="31"/>
+      <c r="YP131" s="31"/>
+      <c r="YQ131" s="31"/>
+      <c r="YR131" s="31"/>
+      <c r="YS131" s="31"/>
+      <c r="YT131" s="31"/>
+      <c r="YU131" s="31"/>
+      <c r="YV131" s="31"/>
+      <c r="YW131" s="31"/>
+      <c r="YX131" s="31"/>
+      <c r="YY131" s="31"/>
+      <c r="YZ131" s="31"/>
+      <c r="ZA131" s="31"/>
+      <c r="ZB131" s="31"/>
+      <c r="ZC131" s="31"/>
+      <c r="ZD131" s="31"/>
+      <c r="ZE131" s="31"/>
+      <c r="ZF131" s="31"/>
+      <c r="ZG131" s="31"/>
+      <c r="ZH131" s="31"/>
+      <c r="ZI131" s="31"/>
+      <c r="ZJ131" s="31"/>
+      <c r="ZK131" s="31"/>
+      <c r="ZL131" s="31"/>
+      <c r="ZM131" s="31"/>
+      <c r="ZN131" s="31"/>
+      <c r="ZO131" s="31"/>
+      <c r="ZP131" s="31"/>
+      <c r="ZQ131" s="31"/>
+      <c r="ZR131" s="31"/>
+      <c r="ZS131" s="31"/>
+      <c r="ZT131" s="31"/>
+      <c r="ZU131" s="31"/>
+      <c r="ZV131" s="31"/>
+      <c r="ZW131" s="31"/>
+      <c r="ZX131" s="31"/>
+      <c r="ZY131" s="31"/>
+      <c r="ZZ131" s="31"/>
+      <c r="AAA131" s="31"/>
+      <c r="AAB131" s="31"/>
+      <c r="AAC131" s="31"/>
+      <c r="AAD131" s="31"/>
+      <c r="AAE131" s="31"/>
+      <c r="AAF131" s="31"/>
+      <c r="AAG131" s="31"/>
+      <c r="AAH131" s="31"/>
+      <c r="AAI131" s="31"/>
+      <c r="AAJ131" s="31"/>
+      <c r="AAK131" s="31"/>
+      <c r="AAL131" s="31"/>
+      <c r="AAM131" s="31"/>
+      <c r="AAN131" s="31"/>
+      <c r="AAO131" s="31"/>
+      <c r="AAP131" s="31"/>
+      <c r="AAQ131" s="31"/>
+      <c r="AAR131" s="31"/>
+      <c r="AAS131" s="31"/>
+      <c r="AAT131" s="31"/>
+      <c r="AAU131" s="31"/>
+      <c r="AAV131" s="31"/>
+      <c r="AAW131" s="31"/>
+      <c r="AAX131" s="31"/>
+      <c r="AAY131" s="31"/>
+      <c r="AAZ131" s="31"/>
+      <c r="ABA131" s="31"/>
+      <c r="ABB131" s="31"/>
+      <c r="ABC131" s="31"/>
+      <c r="ABD131" s="31"/>
+      <c r="ABE131" s="31"/>
+      <c r="ABF131" s="31"/>
+      <c r="ABG131" s="31"/>
+      <c r="ABH131" s="31"/>
+      <c r="ABI131" s="31"/>
+      <c r="ABJ131" s="31"/>
+      <c r="ABK131" s="31"/>
+      <c r="ABL131" s="31"/>
+      <c r="ABM131" s="31"/>
+      <c r="ABN131" s="31"/>
+      <c r="ABO131" s="31"/>
+      <c r="ABP131" s="31"/>
+      <c r="ABQ131" s="31"/>
+      <c r="ABR131" s="31"/>
+      <c r="ABS131" s="31"/>
+      <c r="ABT131" s="31"/>
+      <c r="ABU131" s="31"/>
+      <c r="ABV131" s="31"/>
+      <c r="ABW131" s="31"/>
+      <c r="ABX131" s="31"/>
+      <c r="ABY131" s="31"/>
+      <c r="ABZ131" s="31"/>
+      <c r="ACA131" s="31"/>
+      <c r="ACB131" s="31"/>
+      <c r="ACC131" s="31"/>
+      <c r="ACD131" s="31"/>
+      <c r="ACE131" s="31"/>
+      <c r="ACF131" s="31"/>
+      <c r="ACG131" s="31"/>
+      <c r="ACH131" s="31"/>
+      <c r="ACI131" s="31"/>
+      <c r="ACJ131" s="31"/>
+      <c r="ACK131" s="31"/>
+      <c r="ACL131" s="31"/>
+      <c r="ACM131" s="31"/>
+      <c r="ACN131" s="31"/>
+      <c r="ACO131" s="31"/>
+      <c r="ACP131" s="31"/>
+      <c r="ACQ131" s="31"/>
+      <c r="ACR131" s="31"/>
+      <c r="ACS131" s="31"/>
+      <c r="ACT131" s="31"/>
+      <c r="ACU131" s="31"/>
+      <c r="ACV131" s="31"/>
+      <c r="ACW131" s="31"/>
+      <c r="ACX131" s="31"/>
+      <c r="ACY131" s="31"/>
+      <c r="ACZ131" s="31"/>
+      <c r="ADA131" s="31"/>
+      <c r="ADB131" s="31"/>
+      <c r="ADC131" s="31"/>
+      <c r="ADD131" s="31"/>
+      <c r="ADE131" s="31"/>
+      <c r="ADF131" s="31"/>
+      <c r="ADG131" s="31"/>
+      <c r="ADH131" s="31"/>
+      <c r="ADI131" s="31"/>
+      <c r="ADJ131" s="31"/>
+      <c r="ADK131" s="31"/>
+      <c r="ADL131" s="31"/>
+      <c r="ADM131" s="31"/>
+      <c r="ADN131" s="31"/>
+      <c r="ADO131" s="31"/>
+      <c r="ADP131" s="31"/>
+      <c r="ADQ131" s="31"/>
+      <c r="ADR131" s="31"/>
+      <c r="ADS131" s="31"/>
+      <c r="ADT131" s="31"/>
+      <c r="ADU131" s="31"/>
+      <c r="ADV131" s="31"/>
+      <c r="ADW131" s="31"/>
+      <c r="ADX131" s="31"/>
+      <c r="ADY131" s="31"/>
+      <c r="ADZ131" s="31"/>
+      <c r="AEA131" s="31"/>
+      <c r="AEB131" s="31"/>
+      <c r="AEC131" s="31"/>
+      <c r="AED131" s="31"/>
+      <c r="AEE131" s="31"/>
+      <c r="AEF131" s="31"/>
+      <c r="AEG131" s="31"/>
+      <c r="AEH131" s="31"/>
+      <c r="AEI131" s="31"/>
+      <c r="AEJ131" s="31"/>
+      <c r="AEK131" s="31"/>
+      <c r="AEL131" s="31"/>
+      <c r="AEM131" s="31"/>
+      <c r="AEN131" s="31"/>
+      <c r="AEO131" s="31"/>
+      <c r="AEP131" s="31"/>
+      <c r="AEQ131" s="31"/>
+      <c r="AER131" s="31"/>
+      <c r="AES131" s="31"/>
+      <c r="AET131" s="31"/>
+      <c r="AEU131" s="31"/>
+      <c r="AEV131" s="31"/>
+      <c r="AEW131" s="31"/>
+      <c r="AEX131" s="31"/>
+      <c r="AEY131" s="31"/>
+      <c r="AEZ131" s="31"/>
+      <c r="AFA131" s="31"/>
+      <c r="AFB131" s="31"/>
+      <c r="AFC131" s="31"/>
+      <c r="AFD131" s="31"/>
+      <c r="AFE131" s="31"/>
+      <c r="AFF131" s="31"/>
+      <c r="AFG131" s="31"/>
+      <c r="AFH131" s="31"/>
+      <c r="AFI131" s="31"/>
+      <c r="AFJ131" s="31"/>
+      <c r="AFK131" s="31"/>
+      <c r="AFL131" s="31"/>
+      <c r="AFM131" s="31"/>
+      <c r="AFN131" s="31"/>
+      <c r="AFO131" s="31"/>
+      <c r="AFP131" s="31"/>
+      <c r="AFQ131" s="31"/>
+      <c r="AFR131" s="31"/>
+      <c r="AFS131" s="31"/>
+      <c r="AFT131" s="31"/>
+      <c r="AFU131" s="31"/>
+      <c r="AFV131" s="31"/>
+      <c r="AFW131" s="31"/>
+      <c r="AFX131" s="31"/>
+      <c r="AFY131" s="31"/>
+      <c r="AFZ131" s="31"/>
+      <c r="AGA131" s="31"/>
+      <c r="AGB131" s="31"/>
+      <c r="AGC131" s="31"/>
+      <c r="AGD131" s="31"/>
+      <c r="AGE131" s="31"/>
+      <c r="AGF131" s="31"/>
+      <c r="AGG131" s="31"/>
+      <c r="AGH131" s="31"/>
+      <c r="AGI131" s="31"/>
+      <c r="AGJ131" s="31"/>
+      <c r="AGK131" s="31"/>
+      <c r="AGL131" s="31"/>
+      <c r="AGM131" s="31"/>
+      <c r="AGN131" s="31"/>
+      <c r="AGO131" s="31"/>
+      <c r="AGP131" s="31"/>
+      <c r="AGQ131" s="31"/>
+      <c r="AGR131" s="31"/>
+      <c r="AGS131" s="31"/>
+      <c r="AGT131" s="31"/>
+      <c r="AGU131" s="31"/>
+      <c r="AGV131" s="31"/>
+      <c r="AGW131" s="31"/>
+      <c r="AGX131" s="31"/>
+      <c r="AGY131" s="31"/>
+      <c r="AGZ131" s="31"/>
+      <c r="AHA131" s="31"/>
+      <c r="AHB131" s="31"/>
+      <c r="AHC131" s="31"/>
+      <c r="AHD131" s="31"/>
+      <c r="AHE131" s="31"/>
+      <c r="AHF131" s="31"/>
+      <c r="AHG131" s="31"/>
+      <c r="AHH131" s="31"/>
+      <c r="AHI131" s="31"/>
+      <c r="AHJ131" s="31"/>
+      <c r="AHK131" s="31"/>
+      <c r="AHL131" s="31"/>
+      <c r="AHM131" s="31"/>
+      <c r="AHN131" s="31"/>
+      <c r="AHO131" s="31"/>
+      <c r="AHP131" s="31"/>
+      <c r="AHQ131" s="31"/>
+      <c r="AHR131" s="31"/>
+      <c r="AHS131" s="31"/>
+      <c r="AHT131" s="31"/>
+      <c r="AHU131" s="31"/>
+      <c r="AHV131" s="31"/>
+      <c r="AHW131" s="31"/>
+      <c r="AHX131" s="31"/>
+      <c r="AHY131" s="31"/>
+      <c r="AHZ131" s="31"/>
+      <c r="AIA131" s="31"/>
+      <c r="AIB131" s="31"/>
+      <c r="AIC131" s="31"/>
+      <c r="AID131" s="31"/>
+      <c r="AIE131" s="31"/>
+      <c r="AIF131" s="31"/>
+      <c r="AIG131" s="31"/>
+      <c r="AIH131" s="31"/>
+      <c r="AII131" s="31"/>
+      <c r="AIJ131" s="31"/>
+      <c r="AIK131" s="31"/>
+      <c r="AIL131" s="31"/>
+      <c r="AIM131" s="31"/>
+      <c r="AIN131" s="31"/>
+      <c r="AIO131" s="31"/>
+      <c r="AIP131" s="31"/>
+      <c r="AIQ131" s="31"/>
+      <c r="AIR131" s="31"/>
+      <c r="AIS131" s="31"/>
+      <c r="AIT131" s="31"/>
+      <c r="AIU131" s="31"/>
+      <c r="AIV131" s="31"/>
+      <c r="AIW131" s="31"/>
+      <c r="AIX131" s="31"/>
+      <c r="AIY131" s="31"/>
+      <c r="AIZ131" s="31"/>
+      <c r="AJA131" s="31"/>
+      <c r="AJB131" s="31"/>
+      <c r="AJC131" s="31"/>
+      <c r="AJD131" s="31"/>
+      <c r="AJE131" s="31"/>
+      <c r="AJF131" s="31"/>
+      <c r="AJG131" s="31"/>
+      <c r="AJH131" s="31"/>
+      <c r="AJI131" s="31"/>
+      <c r="AJJ131" s="31"/>
+      <c r="AJK131" s="31"/>
+      <c r="AJL131" s="31"/>
+      <c r="AJM131" s="31"/>
+      <c r="AJN131" s="31"/>
+      <c r="AJO131" s="31"/>
+      <c r="AJP131" s="31"/>
+      <c r="AJQ131" s="31"/>
+      <c r="AJR131" s="31"/>
+      <c r="AJS131" s="31"/>
+      <c r="AJT131" s="31"/>
+      <c r="AJU131" s="31"/>
+      <c r="AJV131" s="31"/>
+      <c r="AJW131" s="31"/>
+      <c r="AJX131" s="31"/>
+      <c r="AJY131" s="31"/>
+      <c r="AJZ131" s="31"/>
+      <c r="AKA131" s="31"/>
+      <c r="AKB131" s="31"/>
+      <c r="AKC131" s="31"/>
+      <c r="AKD131" s="31"/>
+      <c r="AKE131" s="31"/>
+      <c r="AKF131" s="31"/>
+      <c r="AKG131" s="31"/>
+      <c r="AKH131" s="31"/>
+      <c r="AKI131" s="31"/>
+      <c r="AKJ131" s="31"/>
+      <c r="AKK131" s="31"/>
+      <c r="AKL131" s="31"/>
+      <c r="AKM131" s="31"/>
+      <c r="AKN131" s="31"/>
+      <c r="AKO131" s="31"/>
+      <c r="AKP131" s="31"/>
+      <c r="AKQ131" s="31"/>
+      <c r="AKR131" s="31"/>
+      <c r="AKS131" s="31"/>
+      <c r="AKT131" s="31"/>
+      <c r="AKU131" s="31"/>
+      <c r="AKV131" s="31"/>
+      <c r="AKW131" s="31"/>
+      <c r="AKX131" s="31"/>
+      <c r="AKY131" s="31"/>
+      <c r="AKZ131" s="31"/>
+      <c r="ALA131" s="31"/>
+      <c r="ALB131" s="31"/>
+      <c r="ALC131" s="31"/>
+      <c r="ALD131" s="31"/>
+      <c r="ALE131" s="31"/>
+      <c r="ALF131" s="31"/>
+      <c r="ALG131" s="31"/>
+      <c r="ALH131" s="31"/>
+      <c r="ALI131" s="31"/>
+      <c r="ALJ131" s="31"/>
+      <c r="ALK131" s="31"/>
+      <c r="ALL131" s="31"/>
+      <c r="ALM131" s="31"/>
+      <c r="ALN131" s="31"/>
+      <c r="ALO131" s="31"/>
+      <c r="ALP131" s="31"/>
+      <c r="ALQ131" s="31"/>
+      <c r="ALR131" s="31"/>
+      <c r="ALS131" s="31"/>
+      <c r="ALT131" s="31"/>
+      <c r="ALU131" s="31"/>
+      <c r="ALV131" s="31"/>
+      <c r="ALW131" s="31"/>
+      <c r="ALX131" s="31"/>
+      <c r="ALY131" s="31"/>
+      <c r="ALZ131" s="31"/>
+      <c r="AMA131" s="31"/>
+      <c r="AMB131" s="31"/>
+      <c r="AMC131" s="31"/>
+      <c r="AMD131" s="31"/>
+      <c r="AME131" s="31"/>
+      <c r="AMF131" s="31"/>
+      <c r="AMG131" s="31"/>
+      <c r="AMH131" s="31"/>
+      <c r="AMI131" s="31"/>
+      <c r="AMJ131" s="31"/>
+      <c r="AMK131" s="31"/>
+      <c r="AML131" s="31"/>
+      <c r="AMM131" s="31"/>
+      <c r="AMN131" s="31"/>
+      <c r="AMO131" s="31"/>
+      <c r="AMP131" s="31"/>
+      <c r="AMQ131" s="31"/>
+      <c r="AMR131" s="31"/>
+      <c r="AMS131" s="31"/>
+      <c r="AMT131" s="31"/>
+      <c r="AMU131" s="31"/>
+      <c r="AMV131" s="31"/>
+      <c r="AMW131" s="31"/>
+      <c r="AMX131" s="31"/>
+      <c r="AMY131" s="31"/>
+      <c r="AMZ131" s="31"/>
+      <c r="ANA131" s="31"/>
+      <c r="ANB131" s="31"/>
+      <c r="ANC131" s="31"/>
+      <c r="AND131" s="31"/>
+      <c r="ANE131" s="31"/>
+      <c r="ANF131" s="31"/>
+      <c r="ANG131" s="31"/>
+      <c r="ANH131" s="31"/>
+      <c r="ANI131" s="31"/>
+      <c r="ANJ131" s="31"/>
+      <c r="ANK131" s="31"/>
+      <c r="ANL131" s="31"/>
+      <c r="ANM131" s="31"/>
+      <c r="ANN131" s="31"/>
+      <c r="ANO131" s="31"/>
+      <c r="ANP131" s="31"/>
+      <c r="ANQ131" s="31"/>
+      <c r="ANR131" s="31"/>
+      <c r="ANS131" s="31"/>
+      <c r="ANT131" s="31"/>
+      <c r="ANU131" s="31"/>
+      <c r="ANV131" s="31"/>
+      <c r="ANW131" s="31"/>
+      <c r="ANX131" s="31"/>
+      <c r="ANY131" s="31"/>
+      <c r="ANZ131" s="31"/>
+      <c r="AOA131" s="31"/>
+      <c r="AOB131" s="31"/>
+      <c r="AOC131" s="31"/>
+      <c r="AOD131" s="31"/>
+      <c r="AOE131" s="31"/>
+      <c r="AOF131" s="31"/>
+      <c r="AOG131" s="31"/>
+      <c r="AOH131" s="31"/>
+      <c r="AOI131" s="31"/>
+      <c r="AOJ131" s="31"/>
+      <c r="AOK131" s="31"/>
+      <c r="AOL131" s="31"/>
+      <c r="AOM131" s="31"/>
+      <c r="AON131" s="31"/>
+      <c r="AOO131" s="31"/>
+      <c r="AOP131" s="31"/>
+      <c r="AOQ131" s="31"/>
+      <c r="AOR131" s="31"/>
+      <c r="AOS131" s="31"/>
+      <c r="AOT131" s="31"/>
+      <c r="AOU131" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B103:C103"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:C3"/>
@@ -86918,9 +86979,6 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B103:C103"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70833333333333304" right="1.1000000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
